--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -575,7 +575,7 @@
         <v>45741</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45821.41320601852</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>46014.59915509259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45019</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>45926.61103009259</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>45926.61836805556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>45302</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44840</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45726.35946759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45966.64091435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>46052.66329861111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>45715</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1841,7 +1841,7 @@
         <v>44390</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45842</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45859.50240740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45593.66131944444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45302</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45623.39265046296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45898.37387731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45825</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45825</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45281</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>46041.42127314815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>44418.43170138889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44323.59449074074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45324.5987037037</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45107.56270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>45737.38288194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45884.44935185185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45898.59783564815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45903</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>45912.42587962963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>45936.57709490741</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44887</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>45994.49478009259</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45338</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45281</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44658</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44272</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44790</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>45884.44667824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>45730</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45818</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4739,7 +4739,7 @@
         <v>45614.66019675926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4829,7 +4829,7 @@
         <v>45827.50162037037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>44840</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>45693</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>45924.59877314815</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>45833.70858796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5272,7 +5272,7 @@
         <v>45512.47659722222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45820</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         <v>45726.59087962963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>45964.64814814815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>45967.48527777778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>45984.61032407408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5805,7 +5805,7 @@
         <v>45985.90067129629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45604.55732638889</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45943.42305555556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>46041.46563657407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>45423</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         <v>46000.42645833334</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6325,7 +6325,7 @@
         <v>45463.688125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         <v>46052.61196759259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6495,7 +6495,7 @@
         <v>45440.65584490741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>45631.52961805555</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45420</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6764,7 +6764,7 @@
         <v>45107.58261574074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>44811</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6942,7 +6942,7 @@
         <v>45715.41275462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44876</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44263</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44342</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44308</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44519.0362962963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44775</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44749.32502314815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44886.91054398148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44271</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44284.57682870371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44286.49304398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44370.63228009259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44321.62322916667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44629.59020833333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44805.45609953703</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44351.60512731481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44494</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44735</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44775.34788194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>44286</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44462.64712962963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44252</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44258</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>44573</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>44663.44313657407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>44882.52832175926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>44342.67332175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>44629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>44756.58375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44813.51212962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44300</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44671.58972222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44671.61422453704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44342.53046296296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44459.46950231482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>44437</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>44260</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44599</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44735.61905092592</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44258</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44270.69513888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44658</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44776</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44788.34717592593</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44414</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44279.49376157407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44589.32091435185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44370.63998842592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44498.84503472222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44796.46392361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44720</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44882.52335648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44785.60922453704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>44599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>44845.5477662037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>44439</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44882</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44272.65707175926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44369.35077546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>44840</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44461</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44785.60788194444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44734.39373842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44308.72342592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44684.68034722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44491</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44795.57741898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>45706.47894675926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44585.59899305556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44889.4528125</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11246,7 +11246,7 @@
         <v>44349.48065972222</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11308,7 +11308,7 @@
         <v>45742.55755787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>45454</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>44928.52260416667</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11479,7 +11479,7 @@
         <v>44959.71658564815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11536,7 +11536,7 @@
         <v>45660.36721064815</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>45699.3866087963</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>44959</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45014.62342592593</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>44959</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44235</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>44637.36871527778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45611.59840277778</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>45040.57936342592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>45660</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>45726.59032407407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>45726.59607638889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>44656</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45646.55134259259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45530.51480324074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>45666.58805555556</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45547.48995370371</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>45089.5450462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>45706</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>45158.91878472222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>45158.94141203703</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>45265.62027777778</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45769.58547453704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>45769.58668981482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12914,7 +12914,7 @@
         <v>44708</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12971,7 +12971,7 @@
         <v>45700.54153935185</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13033,7 +13033,7 @@
         <v>45015</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45715.39028935185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13152,7 +13152,7 @@
         <v>45104.50863425926</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13214,7 +13214,7 @@
         <v>44862.61767361111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13271,7 +13271,7 @@
         <v>44300.80547453704</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13328,7 +13328,7 @@
         <v>45715.40354166667</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13385,7 +13385,7 @@
         <v>45645.48956018518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44735</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>45645.58155092593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45645.58069444444</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>44942</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44691</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>45580</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13794,7 +13794,7 @@
         <v>45715.41775462963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13851,7 +13851,7 @@
         <v>45184.57194444445</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13908,7 +13908,7 @@
         <v>45715.42604166667</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13965,7 +13965,7 @@
         <v>45742.42773148148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14027,7 +14027,7 @@
         <v>45705.40342592593</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14084,7 +14084,7 @@
         <v>45324</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14141,7 +14141,7 @@
         <v>45117</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44756.56537037037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14260,7 +14260,7 @@
         <v>44756.57232638889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14317,7 +14317,7 @@
         <v>45084.35936342592</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14374,7 +14374,7 @@
         <v>45632</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>45505.38290509259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>45798</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>45798.58292824074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>45798.5837962963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>44286</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14721,7 +14721,7 @@
         <v>45125.74876157408</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14778,7 +14778,7 @@
         <v>44539</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14835,7 +14835,7 @@
         <v>45800.64162037037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14892,7 +14892,7 @@
         <v>45588.3656712963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14954,7 +14954,7 @@
         <v>45586.58848379629</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15016,7 +15016,7 @@
         <v>45884.45385416667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15078,7 +15078,7 @@
         <v>45800.64026620371</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15135,7 +15135,7 @@
         <v>45884.44230324074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>45603.53780092593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44867</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15316,7 +15316,7 @@
         <v>44693</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>45884.39716435185</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45740.49162037037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>45740.49421296296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15564,7 +15564,7 @@
         <v>44739.48752314815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15621,7 +15621,7 @@
         <v>45632</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15678,7 +15678,7 @@
         <v>45162.60410879629</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>45719.42697916667</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45719.44918981481</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45769.58416666667</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15906,7 +15906,7 @@
         <v>45884.43910879629</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>45804.49582175926</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16030,7 +16030,7 @@
         <v>45884.3945949074</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>45884.40300925926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>45740.65900462963</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>45540.36945601852</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44733.45824074074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>45742.47987268519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45742.54047453704</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45645.90335648148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45889.45825231481</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>45891.61590277778</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>45652.44746527778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>45813.61989583333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>45475.54822916666</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>45632.48819444444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44823.600625</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16920,7 +16920,7 @@
         <v>45813.53916666667</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16977,7 +16977,7 @@
         <v>45813.56456018519</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17034,7 +17034,7 @@
         <v>44988</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17096,7 +17096,7 @@
         <v>45562</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17153,7 +17153,7 @@
         <v>45817.60252314815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17210,7 +17210,7 @@
         <v>45030.43475694444</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17272,7 +17272,7 @@
         <v>45895.42797453704</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17334,7 +17334,7 @@
         <v>45895</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17391,7 +17391,7 @@
         <v>45891.90513888889</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17453,7 +17453,7 @@
         <v>45895.42366898148</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
         <v>45665</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17572,7 +17572,7 @@
         <v>45817.41371527778</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17634,7 +17634,7 @@
         <v>44278.52945601852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17691,7 +17691,7 @@
         <v>45896.4344212963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17748,7 +17748,7 @@
         <v>45726.60840277778</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17805,7 +17805,7 @@
         <v>45882</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>44589</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>45818.38121527778</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>45819.59603009259</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         <v>45833</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         <v>45866</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         <v>45819.4528125</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         <v>45897.5972337963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         <v>45897.3466550926</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         <v>45898.63521990741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18400,7 +18400,7 @@
         <v>45898.58056712963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18462,7 +18462,7 @@
         <v>45898.59614583333</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>45146.6455787037</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18581,7 +18581,7 @@
         <v>45898.59780092593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45898.69194444444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>45898.39636574074</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18767,7 +18767,7 @@
         <v>45468.47239583333</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45722.53859953704</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45530</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18948,7 +18948,7 @@
         <v>45749.48018518519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19010,7 +19010,7 @@
         <v>45819.61737268518</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19072,7 +19072,7 @@
         <v>45818</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45898.43148148148</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>45898.44236111111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>45898.32689814815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>45898.33373842593</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>45898.40085648148</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>45792.43024305555</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19496,7 +19496,7 @@
         <v>45485</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>45821.58282407407</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>45903.61300925926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19672,7 +19672,7 @@
         <v>45903.61480324074</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19729,7 +19729,7 @@
         <v>45821.52070601852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19786,7 +19786,7 @@
         <v>45798.58106481482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19843,7 +19843,7 @@
         <v>45820.67806712963</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19900,7 +19900,7 @@
         <v>45805</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19957,7 +19957,7 @@
         <v>45324.60200231482</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>44272.85908564815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20076,7 +20076,7 @@
         <v>45902.38427083333</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45672.38815972222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20200,7 +20200,7 @@
         <v>45904.61524305555</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>45798.59127314815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>45261</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45905.59543981482</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20438,7 +20438,7 @@
         <v>45905.6455787037</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20500,7 +20500,7 @@
         <v>45904.57777777778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20557,7 +20557,7 @@
         <v>44347</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20619,7 +20619,7 @@
         <v>45908.35809027778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20676,7 +20676,7 @@
         <v>45908.53729166667</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20738,7 +20738,7 @@
         <v>45811.40111111111</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20795,7 +20795,7 @@
         <v>45908.40347222222</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20852,7 +20852,7 @@
         <v>45909.61652777778</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20914,7 +20914,7 @@
         <v>45909.62445601852</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20976,7 +20976,7 @@
         <v>45744.35600694444</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21038,7 +21038,7 @@
         <v>45909.62787037037</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21100,7 +21100,7 @@
         <v>45908.51519675926</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21157,7 +21157,7 @@
         <v>45909.62013888889</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>45911.53071759259</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21281,7 +21281,7 @@
         <v>45827.47753472222</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21338,7 +21338,7 @@
         <v>45827.47875</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>45911.32895833333</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21452,7 +21452,7 @@
         <v>45908.68849537037</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21514,7 +21514,7 @@
         <v>45827</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21571,7 +21571,7 @@
         <v>45835.44465277778</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21628,7 +21628,7 @@
         <v>45243.47311342593</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>45741</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21742,7 +21742,7 @@
         <v>45034</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21799,7 +21799,7 @@
         <v>45915.53219907408</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21856,7 +21856,7 @@
         <v>45915.57190972222</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21918,7 +21918,7 @@
         <v>45912.40327546297</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21975,7 +21975,7 @@
         <v>45741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         <v>45775.42958333333</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22089,7 +22089,7 @@
         <v>45463.6169212963</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22151,7 +22151,7 @@
         <v>45915.39278935185</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22208,7 +22208,7 @@
         <v>45827.47604166667</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>45827.480625</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22322,7 +22322,7 @@
         <v>45912.40079861111</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22379,7 +22379,7 @@
         <v>45916.42255787037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22436,7 +22436,7 @@
         <v>44951.33599537037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22498,7 +22498,7 @@
         <v>45420</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22560,7 +22560,7 @@
         <v>45534.43164351852</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22622,7 +22622,7 @@
         <v>45888.37780092593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22679,7 +22679,7 @@
         <v>45884.53402777778</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22736,7 +22736,7 @@
         <v>44935.38945601852</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22793,7 +22793,7 @@
         <v>45833.7103125</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22850,7 +22850,7 @@
         <v>45923</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22907,7 +22907,7 @@
         <v>45896.38710648148</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22964,7 +22964,7 @@
         <v>45889.60938657408</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23021,7 +23021,7 @@
         <v>45832.37814814815</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23078,7 +23078,7 @@
         <v>45923.83880787037</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23140,7 +23140,7 @@
         <v>45923.84063657407</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23202,7 +23202,7 @@
         <v>45923.84163194444</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45923.84267361111</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23326,7 +23326,7 @@
         <v>45924.39846064815</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23388,7 +23388,7 @@
         <v>45925.61696759259</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23450,7 +23450,7 @@
         <v>45832.49621527778</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23507,7 +23507,7 @@
         <v>45720.51222222222</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23564,7 +23564,7 @@
         <v>44960.32700231481</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23626,7 +23626,7 @@
         <v>45924.59583333333</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>45833.7067824074</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>45924.38379629629</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23807,7 +23807,7 @@
         <v>45924.6084837963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23869,7 +23869,7 @@
         <v>45924.40840277778</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23931,7 +23931,7 @@
         <v>45924.41563657407</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23993,7 +23993,7 @@
         <v>45084</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24050,7 +24050,7 @@
         <v>45834.79741898148</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24107,7 +24107,7 @@
         <v>45835.43945601852</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24164,7 +24164,7 @@
         <v>45926.64233796296</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24226,7 +24226,7 @@
         <v>45926.59903935185</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24283,7 +24283,7 @@
         <v>45929.49503472223</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24340,7 +24340,7 @@
         <v>45834.79965277778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>45356.36994212963</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24454,7 +24454,7 @@
         <v>44517</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24516,7 +24516,7 @@
         <v>45926.58541666667</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24573,7 +24573,7 @@
         <v>45686</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>45834.39266203704</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>45929.51549768518</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>45926.34630787037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>45926.65032407407</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24873,7 +24873,7 @@
         <v>44533</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24935,7 +24935,7 @@
         <v>45835.44109953703</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24992,7 +24992,7 @@
         <v>45931.46113425926</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>45931.47070601852</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25106,7 +25106,7 @@
         <v>45930.3779050926</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25163,7 +25163,7 @@
         <v>45835.40670138889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25220,7 +25220,7 @@
         <v>45681.5280787037</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>45930.20606481482</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>45930.20905092593</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45931.59844907407</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45526.39949074074</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45614</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25572,7 +25572,7 @@
         <v>45932.63305555555</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25629,7 +25629,7 @@
         <v>45933.63469907407</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25691,7 +25691,7 @@
         <v>45674.34046296297</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25748,7 +25748,7 @@
         <v>45593.71982638889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>45560</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25862,7 +25862,7 @@
         <v>45933.35684027777</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25924,7 +25924,7 @@
         <v>45932.5684375</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25981,7 +25981,7 @@
         <v>45468.47575231481</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>45932.61349537037</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26100,7 +26100,7 @@
         <v>45932.5190162037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26157,7 +26157,7 @@
         <v>45904.58163194444</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26214,7 +26214,7 @@
         <v>45933.5480787037</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>45933.55273148148</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26338,7 +26338,7 @@
         <v>44316</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26400,7 +26400,7 @@
         <v>45932.63021990741</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26457,7 +26457,7 @@
         <v>45932.62642361111</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>45932.64671296296</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26571,7 +26571,7 @@
         <v>45245</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26628,7 +26628,7 @@
         <v>45932.34924768518</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>45933.55248842593</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26752,7 +26752,7 @@
         <v>45936.57745370371</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26814,7 +26814,7 @@
         <v>44684</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45911.52769675926</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>44356</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45937.44758101852</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27052,7 +27052,7 @@
         <v>45937.57569444444</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>45937.51259259259</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>45938.65038194445</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>45938.64211805556</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27295,7 +27295,7 @@
         <v>45939.38144675926</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27357,7 +27357,7 @@
         <v>45916.46002314815</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27414,7 +27414,7 @@
         <v>45929.49167824074</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27471,7 +27471,7 @@
         <v>45161.58774305556</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27533,7 +27533,7 @@
         <v>45939.38085648148</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27590,7 +27590,7 @@
         <v>45845.46960648148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27652,7 +27652,7 @@
         <v>45113</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27714,7 +27714,7 @@
         <v>45940.65795138889</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27776,7 +27776,7 @@
         <v>45940.4696412037</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27838,7 +27838,7 @@
         <v>44735.49341435185</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27895,7 +27895,7 @@
         <v>45784.64991898148</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27952,7 +27952,7 @@
         <v>45223.38060185185</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28009,7 +28009,7 @@
         <v>45715.39568287037</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28066,7 +28066,7 @@
         <v>45943.60822916667</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28128,7 +28128,7 @@
         <v>45845.51532407408</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28185,7 +28185,7 @@
         <v>45943.41519675926</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28247,7 +28247,7 @@
         <v>44693</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28309,7 +28309,7 @@
         <v>45845</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28366,7 +28366,7 @@
         <v>45401</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45944.4678125</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28480,7 +28480,7 @@
         <v>45730.46855324074</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45944.54185185185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45845.51070601852</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28661,7 +28661,7 @@
         <v>45845.50296296296</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28718,7 +28718,7 @@
         <v>45929.48061342593</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28775,7 +28775,7 @@
         <v>45944.55662037037</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28837,7 +28837,7 @@
         <v>45945.48893518518</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28894,7 +28894,7 @@
         <v>45454.48969907407</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28951,7 +28951,7 @@
         <v>45817.59769675926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45454.49773148148</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29065,7 +29065,7 @@
         <v>45595.64767361111</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29122,7 +29122,7 @@
         <v>45272</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29179,7 +29179,7 @@
         <v>45742.37480324074</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29236,7 +29236,7 @@
         <v>45947.64292824074</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29298,7 +29298,7 @@
         <v>45947.63310185185</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29360,7 +29360,7 @@
         <v>45947.64216435186</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29422,7 +29422,7 @@
         <v>45848.56725694444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29479,7 +29479,7 @@
         <v>45848.47416666667</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29536,7 +29536,7 @@
         <v>45947.64190972222</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29598,7 +29598,7 @@
         <v>45947.64260416666</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29660,7 +29660,7 @@
         <v>44445</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29717,7 +29717,7 @@
         <v>44817.43700231481</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29779,7 +29779,7 @@
         <v>44585.3431712963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29836,7 +29836,7 @@
         <v>45848.53870370371</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29893,7 +29893,7 @@
         <v>45540.36526620371</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29950,7 +29950,7 @@
         <v>45950.74912037037</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30007,7 +30007,7 @@
         <v>45854.58572916667</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30064,7 +30064,7 @@
         <v>45632.48064814815</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30121,7 +30121,7 @@
         <v>45855.56597222222</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30178,7 +30178,7 @@
         <v>45950.37114583333</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30235,7 +30235,7 @@
         <v>45854.58831018519</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30292,7 +30292,7 @@
         <v>45744.34550925926</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30354,7 +30354,7 @@
         <v>44735.61462962963</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30411,7 +30411,7 @@
         <v>45859.51940972222</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30473,7 +30473,7 @@
         <v>45950</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30530,7 +30530,7 @@
         <v>44701</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30592,7 +30592,7 @@
         <v>45862.37017361111</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30649,7 +30649,7 @@
         <v>45933.55215277777</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30711,7 +30711,7 @@
         <v>45862.64209490741</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30773,7 +30773,7 @@
         <v>45862.5516087963</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30830,7 +30830,7 @@
         <v>45862.56378472222</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30887,7 +30887,7 @@
         <v>45511.55277777778</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30949,7 +30949,7 @@
         <v>45952.42771990741</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31006,7 +31006,7 @@
         <v>45953.38604166666</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31068,7 +31068,7 @@
         <v>45866.55763888889</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31130,7 +31130,7 @@
         <v>45630.46627314815</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31187,7 +31187,7 @@
         <v>45867.58324074074</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31244,7 +31244,7 @@
         <v>45673.55641203704</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31301,7 +31301,7 @@
         <v>45953.35465277778</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31358,7 +31358,7 @@
         <v>45866.58483796296</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31420,7 +31420,7 @@
         <v>45420</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31482,7 +31482,7 @@
         <v>45869.54342592593</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31539,7 +31539,7 @@
         <v>45869.57649305555</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31596,7 +31596,7 @@
         <v>45869.57229166666</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31658,7 +31658,7 @@
         <v>45869.57623842593</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31720,7 +31720,7 @@
         <v>45869.58846064815</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31777,7 +31777,7 @@
         <v>45957.67456018519</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31839,7 +31839,7 @@
         <v>45869.42978009259</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31896,7 +31896,7 @@
         <v>45869.42247685185</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31953,7 +31953,7 @@
         <v>45869.46657407407</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32010,7 +32010,7 @@
         <v>45953.3990162037</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32072,7 +32072,7 @@
         <v>45873.39840277778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32134,7 +32134,7 @@
         <v>45957.4416550926</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32196,7 +32196,7 @@
         <v>45957.58747685186</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32253,7 +32253,7 @@
         <v>44684</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32315,7 +32315,7 @@
         <v>45764</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32377,7 +32377,7 @@
         <v>45958.40583333333</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32439,7 +32439,7 @@
         <v>45958.40640046296</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32501,7 +32501,7 @@
         <v>45953.45859953704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32563,7 +32563,7 @@
         <v>44694</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>45138.52274305555</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32682,7 +32682,7 @@
         <v>45875.57041666667</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>45168.92969907408</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32806,7 +32806,7 @@
         <v>44951.34615740741</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>44951</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32930,7 +32930,7 @@
         <v>45604.37246527777</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32992,7 +32992,7 @@
         <v>45947</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33049,7 +33049,7 @@
         <v>45267</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33106,7 +33106,7 @@
         <v>45876.64011574074</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33168,7 +33168,7 @@
         <v>45960.37989583334</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33225,7 +33225,7 @@
         <v>44904.63638888889</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33287,7 +33287,7 @@
         <v>44962.43650462963</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33344,7 +33344,7 @@
         <v>45957.45982638889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33401,7 +33401,7 @@
         <v>45660.41883101852</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33458,7 +33458,7 @@
         <v>45964.47016203704</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33520,7 +33520,7 @@
         <v>45545</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>45719</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33644,7 +33644,7 @@
         <v>45964.7172337963</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45965.58563657408</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33768,7 +33768,7 @@
         <v>44942.47491898148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33825,7 +33825,7 @@
         <v>45719</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33887,7 +33887,7 @@
         <v>45586.55236111111</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33944,7 +33944,7 @@
         <v>45684.67659722222</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34001,7 +34001,7 @@
         <v>45967.4753587963</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34063,7 +34063,7 @@
         <v>45967.47635416667</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45967.49037037037</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>45967.50736111111</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34249,7 +34249,7 @@
         <v>45440.67074074074</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34306,7 +34306,7 @@
         <v>45967.44877314815</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34363,7 +34363,7 @@
         <v>45966.60678240741</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34425,7 +34425,7 @@
         <v>45203</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34482,7 +34482,7 @@
         <v>45967.4759837963</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34544,7 +34544,7 @@
         <v>45881</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34606,7 +34606,7 @@
         <v>45965.79302083333</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34663,7 +34663,7 @@
         <v>45632.47849537037</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45967.45105324074</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>45312.93891203704</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>44466.43295138889</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45971.48042824074</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45526.51855324074</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35015,7 +35015,7 @@
         <v>45666.58149305556</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35072,7 +35072,7 @@
         <v>45644.38703703704</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35134,7 +35134,7 @@
         <v>45436</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>45740.44788194444</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>45968.59128472222</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35310,7 +35310,7 @@
         <v>45968.55811342593</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35372,7 +35372,7 @@
         <v>44845</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>45720.64939814815</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35486,7 +35486,7 @@
         <v>45973</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45120.51550925926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>45973</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35667,7 +35667,7 @@
         <v>45973</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35729,7 +35729,7 @@
         <v>45973</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35791,7 +35791,7 @@
         <v>45973</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35853,7 +35853,7 @@
         <v>45884.55796296296</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35915,7 +35915,7 @@
         <v>45974.58554398148</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35977,7 +35977,7 @@
         <v>45974.58813657407</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36039,7 +36039,7 @@
         <v>45884.38178240741</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>45884.39984953704</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36163,7 +36163,7 @@
         <v>45974.58145833333</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36225,7 +36225,7 @@
         <v>45974.58606481482</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36287,7 +36287,7 @@
         <v>45974.58680555555</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>45884.38459490741</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36411,7 +36411,7 @@
         <v>45884.38775462963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36473,7 +36473,7 @@
         <v>45884.39216435186</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36535,7 +36535,7 @@
         <v>45974.58744212963</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36597,7 +36597,7 @@
         <v>45645.9084375</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36654,7 +36654,7 @@
         <v>45884.40722222222</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36716,7 +36716,7 @@
         <v>45974.58296296297</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36778,7 +36778,7 @@
         <v>45974.58350694444</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36840,7 +36840,7 @@
         <v>45884.43587962963</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36902,7 +36902,7 @@
         <v>45884.45657407407</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36964,7 +36964,7 @@
         <v>45974.58498842592</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37026,7 +37026,7 @@
         <v>45978.39347222223</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37088,7 +37088,7 @@
         <v>45978.39571759259</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37150,7 +37150,7 @@
         <v>46019.84400462963</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>45282</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37264,7 +37264,7 @@
         <v>45884.45953703704</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37326,7 +37326,7 @@
         <v>45672.39145833333</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37388,7 +37388,7 @@
         <v>45978.38915509259</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37450,7 +37450,7 @@
         <v>45645.45041666667</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37512,7 +37512,7 @@
         <v>45422</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37574,7 +37574,7 @@
         <v>46019.83925925926</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37631,7 +37631,7 @@
         <v>45162</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37688,7 +37688,7 @@
         <v>45726.49440972223</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37750,7 +37750,7 @@
         <v>46022.58253472222</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37807,7 +37807,7 @@
         <v>45463.68395833333</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37864,7 +37864,7 @@
         <v>45058.38581018519</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37921,7 +37921,7 @@
         <v>45981.54328703704</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37978,7 +37978,7 @@
         <v>44586</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38040,7 +38040,7 @@
         <v>45981.61557870371</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38097,7 +38097,7 @@
         <v>45771</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>45658.82557870371</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         <v>44518</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>45084</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38330,7 +38330,7 @@
         <v>45693.36196759259</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>45982.51814814815</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38454,7 +38454,7 @@
         <v>45925.63690972222</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38516,7 +38516,7 @@
         <v>45926.4177662037</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38578,7 +38578,7 @@
         <v>45912.50488425926</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38640,7 +38640,7 @@
         <v>45912.52225694444</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38702,7 +38702,7 @@
         <v>45915.45304398148</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38764,7 +38764,7 @@
         <v>45915.45480324074</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38826,7 +38826,7 @@
         <v>44756.57740740741</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38883,7 +38883,7 @@
         <v>45922.48277777778</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38945,7 +38945,7 @@
         <v>45922.51021990741</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39007,7 +39007,7 @@
         <v>45922.63182870371</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39069,7 +39069,7 @@
         <v>45922.43664351852</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39131,7 +39131,7 @@
         <v>45922.47429398148</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39193,7 +39193,7 @@
         <v>45926.70542824074</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39255,7 +39255,7 @@
         <v>45547.33135416666</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39317,7 +39317,7 @@
         <v>45911.68925925926</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39379,7 +39379,7 @@
         <v>45912.45679398148</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39441,7 +39441,7 @@
         <v>45925.6292824074</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>45985.90016203704</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39565,7 +39565,7 @@
         <v>45985.90041666666</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39627,7 +39627,7 @@
         <v>45912.50679398148</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39689,7 +39689,7 @@
         <v>45922.45283564815</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39751,7 +39751,7 @@
         <v>45922.62494212963</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39813,7 +39813,7 @@
         <v>44936.34145833334</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39870,7 +39870,7 @@
         <v>45911.66760416667</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39932,7 +39932,7 @@
         <v>45922.44605324074</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39994,7 +39994,7 @@
         <v>45922.47163194444</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40056,7 +40056,7 @@
         <v>45922.49119212963</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40118,7 +40118,7 @@
         <v>45987.54464120371</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40180,7 +40180,7 @@
         <v>45926.71798611111</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40242,7 +40242,7 @@
         <v>45854.65872685185</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40304,7 +40304,7 @@
         <v>45896.38170138889</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40366,7 +40366,7 @@
         <v>45896.39373842593</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40428,7 +40428,7 @@
         <v>45911.63229166667</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40490,7 +40490,7 @@
         <v>46029.43116898148</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40547,7 +40547,7 @@
         <v>44911.36083333333</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40604,7 +40604,7 @@
         <v>45600.65686342592</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40661,7 +40661,7 @@
         <v>45926.70128472222</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40723,7 +40723,7 @@
         <v>45912.49040509259</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40785,7 +40785,7 @@
         <v>45649</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40842,7 +40842,7 @@
         <v>46030.35695601852</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40899,7 +40899,7 @@
         <v>45533.41340277778</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40956,7 +40956,7 @@
         <v>46031.50412037037</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41013,7 +41013,7 @@
         <v>46030.44226851852</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41070,7 +41070,7 @@
         <v>45320</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41127,7 +41127,7 @@
         <v>46030.43628472222</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41184,7 +41184,7 @@
         <v>45756.38221064815</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41241,7 +41241,7 @@
         <v>44305</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41303,7 +41303,7 @@
         <v>46021</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41360,7 +41360,7 @@
         <v>45992.38846064815</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41417,7 +41417,7 @@
         <v>46022</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41474,7 +41474,7 @@
         <v>45993.61978009259</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41531,7 +41531,7 @@
         <v>46020</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41588,7 +41588,7 @@
         <v>45630.32444444444</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41645,7 +41645,7 @@
         <v>45992.39109953704</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41702,7 +41702,7 @@
         <v>46021</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41759,7 +41759,7 @@
         <v>45120.29087962963</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41816,7 +41816,7 @@
         <v>46032.46388888889</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41873,7 +41873,7 @@
         <v>44319</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41930,7 +41930,7 @@
         <v>46020</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
         <v>45995.65537037037</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42049,7 +42049,7 @@
         <v>45994.27650462963</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42106,7 +42106,7 @@
         <v>45995.335625</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42168,7 +42168,7 @@
         <v>45995.33622685185</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42230,7 +42230,7 @@
         <v>45574.64898148148</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42292,7 +42292,7 @@
         <v>45379.44809027778</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42354,7 +42354,7 @@
         <v>45995.6593287037</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42411,7 +42411,7 @@
         <v>46022</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42468,7 +42468,7 @@
         <v>45968</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42525,7 +42525,7 @@
         <v>45312.89796296296</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42582,7 +42582,7 @@
         <v>45715.34081018518</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42644,7 +42644,7 @@
         <v>45628.35456018519</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42701,7 +42701,7 @@
         <v>45995.66488425926</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42758,7 +42758,7 @@
         <v>46031</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42815,7 +42815,7 @@
         <v>45981</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42872,7 +42872,7 @@
         <v>45257.52494212963</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42934,7 +42934,7 @@
         <v>45720.48692129629</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42996,7 +42996,7 @@
         <v>45643.34199074074</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43058,7 +43058,7 @@
         <v>44651</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43120,7 +43120,7 @@
         <v>45404.47491898148</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43177,7 +43177,7 @@
         <v>45182</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43239,7 +43239,7 @@
         <v>46030.66337962963</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43296,7 +43296,7 @@
         <v>46021</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43353,7 +43353,7 @@
         <v>45757.35831018518</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43410,7 +43410,7 @@
         <v>46041.42920138889</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43467,7 +43467,7 @@
         <v>46041.43284722222</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43524,7 +43524,7 @@
         <v>46041.61865740741</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43581,7 +43581,7 @@
         <v>45999.62391203704</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43643,7 +43643,7 @@
         <v>46021</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43700,7 +43700,7 @@
         <v>46031</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43757,7 +43757,7 @@
         <v>46000.43332175926</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43814,7 +43814,7 @@
         <v>45742.73994212963</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43871,7 +43871,7 @@
         <v>45539.6021875</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43928,7 +43928,7 @@
         <v>45660.44798611111</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43985,7 +43985,7 @@
         <v>46020</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44042,7 +44042,7 @@
         <v>46022</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44099,7 +44099,7 @@
         <v>46020</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>46022</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>46001.57627314814</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44275,7 +44275,7 @@
         <v>45673.85991898148</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>45673.87116898148</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>46045.63710648148</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>46003.41349537037</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44508,7 +44508,7 @@
         <v>46002.44396990741</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44565,7 +44565,7 @@
         <v>46045.64833333333</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44622,7 +44622,7 @@
         <v>46045.4365625</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44684,7 +44684,7 @@
         <v>46045.43865740741</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44746,7 +44746,7 @@
         <v>46002.44233796297</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44803,7 +44803,7 @@
         <v>46002.44537037037</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44860,7 +44860,7 @@
         <v>45646.5587037037</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44917,7 +44917,7 @@
         <v>44853</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44974,7 +44974,7 @@
         <v>46003.4128587963</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45036,7 +45036,7 @@
         <v>46003.41318287037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45098,7 +45098,7 @@
         <v>46001.78523148148</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45160,7 +45160,7 @@
         <v>44841</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45217,7 +45217,7 @@
         <v>46045.65126157407</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45274,7 +45274,7 @@
         <v>45330.86684027778</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45331,7 +45331,7 @@
         <v>46006.58587962963</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45393,7 +45393,7 @@
         <v>45695.40526620371</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45455,7 +45455,7 @@
         <v>45695</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45517,7 +45517,7 @@
         <v>45695</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45579,7 +45579,7 @@
         <v>46007.68518518518</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45636,7 +45636,7 @@
         <v>45764.43357638889</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45693,7 +45693,7 @@
         <v>45764.43528935185</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45750,7 +45750,7 @@
         <v>46031</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45807,7 +45807,7 @@
         <v>46022</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45864,7 +45864,7 @@
         <v>46001.78487268519</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45926,7 +45926,7 @@
         <v>46007.71622685185</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45983,7 +45983,7 @@
         <v>45217.39167824074</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46040,7 +46040,7 @@
         <v>44616.3750462963</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46097,7 +46097,7 @@
         <v>44876.38916666667</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46154,7 +46154,7 @@
         <v>44546</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46216,7 +46216,7 @@
         <v>46050.55069444444</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46273,7 +46273,7 @@
         <v>46008.57488425926</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46330,7 +46330,7 @@
         <v>44999.46983796296</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46387,7 +46387,7 @@
         <v>46051.56473379629</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46444,7 +46444,7 @@
         <v>44468.65246527778</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46506,7 +46506,7 @@
         <v>46052.59993055555</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46563,7 +46563,7 @@
         <v>44294.64568287037</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46625,7 +46625,7 @@
         <v>46052.62042824074</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46682,7 +46682,7 @@
         <v>44488.57009259259</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46739,7 +46739,7 @@
         <v>46053.54938657407</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46796,7 +46796,7 @@
         <v>46034</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46853,7 +46853,7 @@
         <v>44519.03226851852</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46910,7 +46910,7 @@
         <v>46022</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46967,7 +46967,7 @@
         <v>46052.65056712963</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47029,7 +47029,7 @@
         <v>46052.67444444444</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47091,7 +47091,7 @@
         <v>46030</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47148,7 +47148,7 @@
         <v>46010.59050925926</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47210,7 +47210,7 @@
         <v>46052.38428240741</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47267,7 +47267,7 @@
         <v>46052.63857638889</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47329,7 +47329,7 @@
         <v>46052.62577546296</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47391,7 +47391,7 @@
         <v>46057.56506944444</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47448,7 +47448,7 @@
         <v>46057.5712037037</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47505,7 +47505,7 @@
         <v>45090.52650462963</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47562,7 +47562,7 @@
         <v>45090.52939814814</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47619,7 +47619,7 @@
         <v>46056.59990740741</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47676,7 +47676,7 @@
         <v>46056.61979166666</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47733,7 +47733,7 @@
         <v>44936</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47790,7 +47790,7 @@
         <v>46033</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47847,7 +47847,7 @@
         <v>46037</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47904,7 +47904,7 @@
         <v>46031</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47961,7 +47961,7 @@
         <v>45726.50033564815</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48023,7 +48023,7 @@
         <v>45312.89391203703</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48080,7 +48080,7 @@
         <v>46041.70430555556</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48137,7 +48137,7 @@
         <v>45581.56543981482</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48199,7 +48199,7 @@
         <v>45218.67822916667</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48256,7 +48256,7 @@
         <v>45412</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48313,7 +48313,7 @@
         <v>45512.43391203704</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48370,7 +48370,7 @@
         <v>46031</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48427,7 +48427,7 @@
         <v>45595.67429398148</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48484,7 +48484,7 @@
         <v>44445.46751157408</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48546,7 +48546,7 @@
         <v>46058.58331018518</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48603,7 +48603,7 @@
         <v>46051</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48665,7 +48665,7 @@
         <v>45282</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48722,7 +48722,7 @@
         <v>45282</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48779,7 +48779,7 @@
         <v>45282</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48836,7 +48836,7 @@
         <v>46059.56321759259</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48898,7 +48898,7 @@
         <v>46058.59615740741</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48955,7 +48955,7 @@
         <v>46051</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49017,7 +49017,7 @@
         <v>46056</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49074,7 +49074,7 @@
         <v>45398</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49136,7 +49136,7 @@
         <v>45182.56731481481</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49198,7 +49198,7 @@
         <v>44804.72409722222</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49255,7 +49255,7 @@
         <v>45581</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49317,7 +49317,7 @@
         <v>45590.45619212963</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49379,7 +49379,7 @@
         <v>44845</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49436,7 +49436,7 @@
         <v>45644.59484953704</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49498,7 +49498,7 @@
         <v>45644.60451388889</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49560,7 +49560,7 @@
         <v>44713</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49622,7 +49622,7 @@
         <v>45245.44936342593</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49684,7 +49684,7 @@
         <v>45245</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49746,7 +49746,7 @@
         <v>45400.44844907407</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49803,7 +49803,7 @@
         <v>44376</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49860,7 +49860,7 @@
         <v>45104.67638888889</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49922,7 +49922,7 @@
         <v>44910</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49979,7 +49979,7 @@
         <v>45462.63016203704</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50036,7 +50036,7 @@
         <v>45660.35574074074</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50093,7 +50093,7 @@
         <v>45660.37127314815</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50150,7 +50150,7 @@
         <v>44741.57295138889</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50207,7 +50207,7 @@
         <v>45217.38545138889</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50264,7 +50264,7 @@
         <v>45509.37269675926</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50321,7 +50321,7 @@
         <v>45350.95267361111</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50378,7 +50378,7 @@
         <v>44498.8419212963</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50435,7 +50435,7 @@
         <v>45614.37862268519</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50492,7 +50492,7 @@
         <v>45029.62792824074</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50554,7 +50554,7 @@
         <v>45261</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50611,7 +50611,7 @@
         <v>44350.66420138889</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50673,7 +50673,7 @@
         <v>44294.3290625</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50730,7 +50730,7 @@
         <v>45019.47398148148</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50787,7 +50787,7 @@
         <v>44874</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50849,7 +50849,7 @@
         <v>45113</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50906,7 +50906,7 @@
         <v>45070</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50963,7 +50963,7 @@
         <v>45026</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51020,7 +51020,7 @@
         <v>45467.40538194445</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51082,7 +51082,7 @@
         <v>45702.51921296296</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51139,7 +51139,7 @@
         <v>45702.65013888889</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51201,7 +51201,7 @@
         <v>44539.56224537037</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51258,7 +51258,7 @@
         <v>45700.66565972222</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51320,7 +51320,7 @@
         <v>45726.58489583333</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51382,7 +51382,7 @@
         <v>45652.43678240741</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51439,7 +51439,7 @@
         <v>45695.40210648148</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51501,7 +51501,7 @@
         <v>44694</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51563,7 +51563,7 @@
         <v>44818</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51620,7 +51620,7 @@
         <v>44763</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51677,7 +51677,7 @@
         <v>45645.44195601852</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51739,7 +51739,7 @@
         <v>44579.98798611111</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51796,7 +51796,7 @@
         <v>45540</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51853,7 +51853,7 @@
         <v>45757.73100694444</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51910,7 +51910,7 @@
         <v>45757.74027777778</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -51967,7 +51967,7 @@
         <v>45243</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52024,7 +52024,7 @@
         <v>44616.49033564814</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52081,7 +52081,7 @@
         <v>45735.41233796296</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52138,7 +52138,7 @@
         <v>45106</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52195,7 +52195,7 @@
         <v>45014.63493055556</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52252,7 +52252,7 @@
         <v>45702.64880787037</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52314,7 +52314,7 @@
         <v>44790.59284722222</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52371,7 +52371,7 @@
         <v>45267</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52428,7 +52428,7 @@
         <v>45699.39001157408</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52485,7 +52485,7 @@
         <v>44446.30126157407</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52547,7 +52547,7 @@
         <v>45373.59789351852</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52604,7 +52604,7 @@
         <v>45737.54068287037</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52661,7 +52661,7 @@
         <v>44885</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52718,7 +52718,7 @@
         <v>45727.47241898148</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52775,7 +52775,7 @@
         <v>45282</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52832,7 +52832,7 @@
         <v>45107.60888888889</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52889,7 +52889,7 @@
         <v>45744.34733796296</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -52951,7 +52951,7 @@
         <v>45555</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53013,7 +53013,7 @@
         <v>45082</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53070,7 +53070,7 @@
         <v>45034.52115740741</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53132,7 +53132,7 @@
         <v>45775.40340277777</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53189,7 +53189,7 @@
         <v>44973.42633101852</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53246,7 +53246,7 @@
         <v>45397</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53308,7 +53308,7 @@
         <v>44800</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53365,7 +53365,7 @@
         <v>45755.33472222222</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53422,7 +53422,7 @@
         <v>44279</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53479,7 +53479,7 @@
         <v>45621.44861111111</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53536,7 +53536,7 @@
         <v>45420</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53598,7 +53598,7 @@
         <v>45266.48171296297</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53655,7 +53655,7 @@
         <v>45414</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53712,7 +53712,7 @@
         <v>44967</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53774,7 +53774,7 @@
         <v>44922</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53831,7 +53831,7 @@
         <v>45631.52173611111</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53893,7 +53893,7 @@
         <v>45715.39962962963</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53950,7 +53950,7 @@
         <v>45266.36988425926</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54007,7 +54007,7 @@
         <v>45660.34046296297</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54064,7 +54064,7 @@
         <v>45519.56657407407</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54121,7 +54121,7 @@
         <v>45146.63849537037</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54178,7 +54178,7 @@
         <v>45740.58918981482</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54240,7 +54240,7 @@
         <v>45770.50553240741</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54297,7 +54297,7 @@
         <v>44586</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54359,7 +54359,7 @@
         <v>45705.36710648148</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54416,7 +54416,7 @@
         <v>45530.76390046296</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54473,7 +54473,7 @@
         <v>44927</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54530,7 +54530,7 @@
         <v>45574.65305555556</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54592,7 +54592,7 @@
         <v>44364.38038194444</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54654,7 +54654,7 @@
         <v>45608.62623842592</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54711,7 +54711,7 @@
         <v>45758.5408912037</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54768,7 +54768,7 @@
         <v>44767.55229166667</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54825,7 +54825,7 @@
         <v>44910</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54882,7 +54882,7 @@
         <v>45559</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54939,7 +54939,7 @@
         <v>45530</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55001,7 +55001,7 @@
         <v>45751</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55063,7 +55063,7 @@
         <v>45334.61027777778</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55120,7 +55120,7 @@
         <v>45600.48091435185</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55177,7 +55177,7 @@
         <v>45392.3412962963</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55234,7 +55234,7 @@
         <v>45231</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55296,7 +55296,7 @@
         <v>45756.3708912037</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55353,7 +55353,7 @@
         <v>45089.45114583334</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55410,7 +55410,7 @@
         <v>45700.64942129629</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55472,7 +55472,7 @@
         <v>44603.53943287037</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55529,7 +55529,7 @@
         <v>45176</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55586,7 +55586,7 @@
         <v>45176</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55643,7 +55643,7 @@
         <v>44959.72408564815</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55700,7 +55700,7 @@
         <v>45685.56496527778</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55757,7 +55757,7 @@
         <v>44600</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55819,7 +55819,7 @@
         <v>45660.42574074074</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55876,7 +55876,7 @@
         <v>45240.59244212963</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>45712</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -55995,7 +55995,7 @@
         <v>45744.37953703704</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56057,7 +56057,7 @@
         <v>45520.4345949074</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56114,7 +56114,7 @@
         <v>45520.44162037037</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56171,7 +56171,7 @@
         <v>45089.77170138889</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56233,7 +56233,7 @@
         <v>44973</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56290,7 +56290,7 @@
         <v>45702.65122685185</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56352,7 +56352,7 @@
         <v>45232.56643518519</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56414,7 +56414,7 @@
         <v>45686</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56476,7 +56476,7 @@
         <v>45749</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56533,7 +56533,7 @@
         <v>45090.53184027778</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56590,7 +56590,7 @@
         <v>45014</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56647,7 +56647,7 @@
         <v>45728.88731481481</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56704,7 +56704,7 @@
         <v>45530</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56766,7 +56766,7 @@
         <v>45306.58793981482</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56823,7 +56823,7 @@
         <v>45728.9183449074</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56880,7 +56880,7 @@
         <v>45272</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56937,7 +56937,7 @@
         <v>45386</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -56999,7 +56999,7 @@
         <v>45523</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57056,7 +57056,7 @@
         <v>45533.52966435185</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57138,7 +57138,7 @@
         <v>45744.43273148148</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57195,7 +57195,7 @@
         <v>45744.45096064815</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57252,7 +57252,7 @@
         <v>45582.5039699074</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57314,7 +57314,7 @@
         <v>45530.53810185185</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57371,7 +57371,7 @@
         <v>45776.32197916666</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57428,7 +57428,7 @@
         <v>45726.57084490741</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57485,7 +57485,7 @@
         <v>45776.57601851852</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57542,7 +57542,7 @@
         <v>45776.57763888889</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57599,7 +57599,7 @@
         <v>45727.67243055555</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57656,7 +57656,7 @@
         <v>45580</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57718,7 +57718,7 @@
         <v>45770.35150462963</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57775,7 +57775,7 @@
         <v>45782.51104166666</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57832,7 +57832,7 @@
         <v>45702.46539351852</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -57894,7 +57894,7 @@
         <v>45252.72782407407</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -57951,7 +57951,7 @@
         <v>45784.62677083333</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58008,7 +58008,7 @@
         <v>45322.38930555555</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58065,7 +58065,7 @@
         <v>45789.48466435185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58127,7 +58127,7 @@
         <v>45786.45901620371</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58189,7 +58189,7 @@
         <v>45705.42418981482</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58251,7 +58251,7 @@
         <v>45791.58666666667</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58313,7 +58313,7 @@
         <v>45791.49224537037</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58370,7 +58370,7 @@
         <v>45790.38057870371</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58427,7 +58427,7 @@
         <v>45791.62157407407</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58484,7 +58484,7 @@
         <v>45791.60046296296</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58546,7 +58546,7 @@
         <v>45790.44008101852</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58603,7 +58603,7 @@
         <v>45792.62024305556</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58665,7 +58665,7 @@
         <v>45660.43380787037</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -58727,7 +58727,7 @@
         <v>45792.61178240741</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -58789,7 +58789,7 @@
         <v>45792.39951388889</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -58846,7 +58846,7 @@
         <v>45797.37373842593</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -58903,7 +58903,7 @@
         <v>45623</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -58960,7 +58960,7 @@
         <v>45797.35431712963</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59017,7 +59017,7 @@
         <v>45797.37581018519</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59074,7 +59074,7 @@
         <v>45594.36701388889</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59136,7 +59136,7 @@
         <v>45797.36991898148</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -575,7 +575,7 @@
         <v>45741</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45821.41320601852</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>46014.59915509259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45926.61103009259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>45926.61836805556</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>45848</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45302</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45019</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44840</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45726.35946759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45966.64091435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>46052.66329861111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>45715</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45842</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45859.50240740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45593.66131944444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45302</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45623.39265046296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45825</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45825</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45898.37387731481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45281</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>46041.42127314815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>44418.43170138889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44323.59449074074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45107.56270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45324.5987037037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>45737.38288194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45884.44935185185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45898.59783564815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45903</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>45912.42587962963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44887</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45936.57709490741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>45338</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45994.49478009259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45281</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44658</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44272</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44790</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>45884.44667824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>45818</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45827.50162037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         <v>45833.70858796296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44840</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>45512.47659722222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>45614.66019675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45924.59877314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45726.59087962963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>45820</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45964.64814814815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>45967.48527777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>45604.55732638889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>45984.61032407408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>45985.90067129629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>45423</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45463.688125</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>46041.46563657407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>46000.42645833334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>45440.65584490741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>45631.52961805555</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>46052.61196759259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45943.42305555556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>45420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45107.58261574074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44811</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>45715.41275462963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45730</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44876</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44263</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44342</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44308</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44519.0362962963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44749.32502314815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44775</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44886.91054398148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44271</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44284.57682870371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44286.49304398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44370.63228009259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44321.62322916667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44629.59020833333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44805.45609953703</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44351.60512731481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44494</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44735</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44775.34788194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>44286</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44462.64712962963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44252</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44258</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>44573</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>44663.44313657407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>44882.52832175926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>44342.67332175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>44629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>44756.58375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44813.51212962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44300</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44671.58972222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44671.61422453704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44342.53046296296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44459.46950231482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>44437</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>44260</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44599</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44735.61905092592</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44258</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44270.69513888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44658</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44776</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44414</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44788.34717592593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44279.49376157407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44589.32091435185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44370.63998842592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44498.84503472222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44796.46392361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44720</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44882.52335648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44785.60922453704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>44599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>44845.5477662037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>44439</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44882</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44272.65707175926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44369.35077546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>44840</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44461</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44785.60788194444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44734.39373842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44308.72342592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44684.68034722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44795.57741898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44491</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>45706.47894675926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44585.59899305556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44928.52260416667</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>44889.4528125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45742.55755787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>45014.62342592593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>45454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>44959</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>44349.48065972222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>44959</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>44959.71658564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45660.36721064815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45699.3866087963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45611.59840277778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45040.57936342592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>45660</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44637.36871527778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44656</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>45726.59032407407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>45726.59607638889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45547.48995370371</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45666.58805555556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45646.55134259259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>45530.51480324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45706</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>45089.5450462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>45158.91878472222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>45158.94141203703</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>45265.62027777778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>45769.58547453704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45769.58668981482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>45700.54153935185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>44708</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>45015</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>45715.39028935185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45104.50863425926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>45645.48956018518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44862.61767361111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>45645.58155092593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44942</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>45580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45742.42773148148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>45715.41775462963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45184.57194444445</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45715.42604166667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45324</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45705.40342592593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>44756.56537037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44756.57232638889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>45084.35936342592</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44300.80547453704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44286</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45715.40354166667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45586.58848379629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45125.74876157408</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>45632</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>45740.49162037037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45740.49421296296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45603.53780092593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>45162.60410879629</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>45719.42697916667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>45719.44918981481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44867</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>45769.58416666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>45645.58069444444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44733.45824074074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45540.36945601852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45740.65900462963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45652.44746527778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44988</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45475.54822916666</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45817.41371527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45632.48819444444</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44823.600625</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45030.43475694444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>45818.38121527778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45645.90335648148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45819.59603009259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45819.4528125</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44278.52945601852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45884.45385416667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45726.60840277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45819.61737268518</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>45818</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>45884.44230324074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44589</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45884.39716435185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45146.6455787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45884.43910879629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>45821.58282407407</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>45884.3945949074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>45884.40300925926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>45468.47239583333</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>45821.52070601852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>45530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>45820.67806712963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>45889.45825231481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>45324.60200231482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44272.85908564815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>45891.61590277778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45672.38815972222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>45827.47753472222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>45827.47875</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>45827</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>45261</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>45741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44347</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>45741</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>45827.47604166667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>45827.480625</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>45562</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>45895.42797453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>45895</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>45744.35600694444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>45891.90513888889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>45895.42366898148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>45665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>45896.4344212963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>45833.7103125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>45243.47311342593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>45882</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>45832.37814814815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>45833</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>45866</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>45897.5972337963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>45832.49621527778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45897.3466550926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>45898.63521990741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>45898.58056712963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>45898.59614583333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45775.42958333333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45898.59780092593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>45833.7067824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>45463.6169212963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45834.79741898148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45898.69194444444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>45835.43945601852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         <v>45898.39636574074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>45722.53859953704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>45749.48018518519</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44951.33599537037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>45834.79965277778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>45898.43148148148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>45898.44236111111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45898.32689814815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>45898.33373842593</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>45834.39266203704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>45420</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>45898.40085648148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45792.43024305555</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45485</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>45534.43164351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45835.44109953703</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45903.61300925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45903.61480324074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45798.58106481482</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45835.40670138889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45805</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45902.38427083333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45614</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44935.38945601852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>45904.61524305555</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45798.59127314815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>45905.59543981482</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45905.6455787037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45904.57777777778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45908.53729166667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>45811.40111111111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45720.51222222222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>45909.61652777778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45909.62445601852</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45909.62787037037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45909.62013888889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45911.53071759259</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44960.32700231481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>45845.46960648148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>45084</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>45784.64991898148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         <v>45911.32895833333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>45908.68849537037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>45835.44465277778</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>45845.51532407408</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>45356.36994212963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44517</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45845.51070601852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45915.53219907408</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45915.57190972222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45845.50296296296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45686</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45912.40327546297</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45915.39278935185</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45912.40079861111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>44533</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45916.42255787037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45848.56725694444</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45848.47416666667</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45681.5280787037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45848.53870370371</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45540.36526620371</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45526.39949074074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45674.34046296297</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45593.71982638889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45854.58572916667</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45468.47575231481</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45888.37780092593</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45854.58831018519</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45884.53402777778</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>44316</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45923</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>45896.38710648148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45859.51940972222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45889.60938657408</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44684</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45862.37017361111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45923.83880787037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>45923.84063657407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45923.84163194444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45862.64209490741</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>45923.84267361111</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>45862.5516087963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>45862.56378472222</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>45924.39846064815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44356</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45925.61696759259</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45866.55763888889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>45867.58324074074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>45924.59583333333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45866.58483796296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>45924.38379629629</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>45924.6084837963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45924.40840277778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>45924.41563657407</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45869.54342592593</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>45869.57649305555</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25349,7 +25349,7 @@
         <v>45926.64233796296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45869.57229166666</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>45869.57623842593</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>45869.58846064815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>45161.58774305556</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25654,7 +25654,7 @@
         <v>45869.42978009259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25711,7 +25711,7 @@
         <v>45869.42247685185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>45869.46657407407</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>45926.59903935185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>45929.49503472223</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45926.58541666667</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>45113</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26058,7 +26058,7 @@
         <v>45929.51549768518</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26115,7 +26115,7 @@
         <v>45926.34630787037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26177,7 +26177,7 @@
         <v>45873.39840277778</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>44735.49341435185</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45223.38060185185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26353,7 +26353,7 @@
         <v>45926.65032407407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45715.39568287037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45931.46113425926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45931.47070601852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45930.3779050926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>44693</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45930.20606481482</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45930.20905092593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45401</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45875.57041666667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45932.63305555555</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45933.63469907407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>45560</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>45933.35684027777</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>45454.48969907407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>45454.49773148148</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>45595.64767361111</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>45742.37480324074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>45904.58163194444</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>45876.64011574074</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>45933.5480787037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27585,7 +27585,7 @@
         <v>45933.55273148148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>45932.63021990741</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>45932.62642361111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>45932.64671296296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         <v>44445</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27875,7 +27875,7 @@
         <v>44817.43700231481</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44585.3431712963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>45932.34924768518</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45545</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28118,7 +28118,7 @@
         <v>45933.55248842593</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         <v>45936.57745370371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45911.52769675926</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>45632.48064814815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>45881</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45744.34550925926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44735.61462962963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45740.44788194444</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45937.57569444444</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>45720.64939814815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>44701</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>45938.65038194445</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>45938.64211805556</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>45939.38144675926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>45511.55277777778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45884.55796296296</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>45916.46002314815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>45929.49167824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>45630.46627314815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>45673.55641203704</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>45939.38085648148</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>45420</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>45884.38178240741</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45884.39984953704</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>45940.65795138889</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>45940.4696412037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>45884.38459490741</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>45884.38775462963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>45884.39216435186</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>45943.60822916667</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45943.41519675926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30000,7 +30000,7 @@
         <v>45884.40722222222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>45944.4678125</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45730.46855324074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>45884.43587962963</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>45884.45657407407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>45944.54185185185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44684</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45764</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>45929.48061342593</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>45944.55662037037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>45945.48893518518</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>45817.59769675926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>45272</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>45884.45953703704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>44694</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45947.64292824074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45947.63310185185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45947.64216435186</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45138.52274305555</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45947.64190972222</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45947.64260416666</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45168.92969907408</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>44951.34615740741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44951</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45604.37246527777</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>45950.74912037037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45267</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45950.37114583333</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45950</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44904.63638888889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44962.43650462963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>45660.41883101852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>45933.55215277777</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>45952.42771990741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>45953.38604166666</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>45953.35465277778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>44942.47491898148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>45586.55236111111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>45684.67659722222</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32333,7 +32333,7 @@
         <v>45957.67456018519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32395,7 +32395,7 @@
         <v>45440.67074074074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>45203</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45632.47849537037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>45312.93891203704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>44466.43295138889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32685,7 +32685,7 @@
         <v>45526.51855324074</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>45953.3990162037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32809,7 +32809,7 @@
         <v>45957.4416550926</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>45666.58149305556</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>45957.58747685186</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>45644.38703703704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>45958.40583333333</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>45958.40640046296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45436</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45953.45859953704</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>45120.51550925926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>45947</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>45960.37989583334</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>45957.45982638889</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>45645.9084375</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>45964.47016203704</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>45719</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45964.7172337963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>45282</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>45965.58563657408</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>45672.39145833333</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>45719</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>45645.45041666667</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>45967.4753587963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34185,7 +34185,7 @@
         <v>45967.47635416667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45967.49037037037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34309,7 +34309,7 @@
         <v>45967.50736111111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>45422</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>45967.44877314815</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>45966.60678240741</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>45162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>45726.49440972223</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>45967.4759837963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>45965.79302083333</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>45463.68395833333</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>45058.38581018519</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>45971.48042824074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44586</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35023,7 +35023,7 @@
         <v>45968.59128472222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35080,7 +35080,7 @@
         <v>45771</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>45658.82557870371</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>45968.55811342593</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35261,7 +35261,7 @@
         <v>44518</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>45084</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>45973</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
         <v>45693.36196759259</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>45973</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>45973</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>45973</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>45973</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35747,7 +35747,7 @@
         <v>45974.58554398148</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35809,7 +35809,7 @@
         <v>45974.58813657407</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44756.57740740741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>45547.33135416666</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35990,7 +35990,7 @@
         <v>45974.58145833333</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45974.58606481482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         <v>45974.58680555555</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45974.58744212963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45974.58296296297</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>45974.58350694444</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44936.34145833334</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>45974.58498842592</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36481,7 +36481,7 @@
         <v>45978.39347222223</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45978.39571759259</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45978.38915509259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>44911.36083333333</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36724,7 +36724,7 @@
         <v>45600.65686342592</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36781,7 +36781,7 @@
         <v>45649</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36838,7 +36838,7 @@
         <v>45533.41340277778</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36895,7 +36895,7 @@
         <v>45981.54328703704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36952,7 +36952,7 @@
         <v>45981.61557870371</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>45320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37066,7 +37066,7 @@
         <v>45756.38221064815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37123,7 +37123,7 @@
         <v>44305</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37185,7 +37185,7 @@
         <v>45982.51814814815</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>45925.63690972222</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>45926.4177662037</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>45912.50488425926</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37433,7 +37433,7 @@
         <v>45912.52225694444</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45915.45304398148</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>45915.45480324074</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45922.48277777778</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45922.51021990741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>45922.63182870371</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37805,7 +37805,7 @@
         <v>45922.43664351852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>45922.47429398148</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37929,7 +37929,7 @@
         <v>45926.70542824074</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37991,7 +37991,7 @@
         <v>45911.68925925926</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>45912.45679398148</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38115,7 +38115,7 @@
         <v>45925.6292824074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>45985.90016203704</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>45985.90041666666</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38301,7 +38301,7 @@
         <v>45912.50679398148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>45922.45283564815</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
         <v>45922.62494212963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38487,7 +38487,7 @@
         <v>45911.66760416667</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38549,7 +38549,7 @@
         <v>45922.44605324074</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45922.47163194444</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38673,7 +38673,7 @@
         <v>45922.49119212963</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38735,7 +38735,7 @@
         <v>45987.54464120371</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>45630.32444444444</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45926.71798611111</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38916,7 +38916,7 @@
         <v>45854.65872685185</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>45896.38170138889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39040,7 +39040,7 @@
         <v>45896.39373842593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>45911.63229166667</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45926.70128472222</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>45120.29087962963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39283,7 +39283,7 @@
         <v>45912.49040509259</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39345,7 +39345,7 @@
         <v>44319</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39402,7 +39402,7 @@
         <v>45574.64898148148</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>45379.44809027778</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39526,7 +39526,7 @@
         <v>45312.89796296296</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39583,7 +39583,7 @@
         <v>45715.34081018518</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>45992.38846064815</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>45628.35456018519</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>45993.61978009259</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>45257.52494212963</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39878,7 +39878,7 @@
         <v>45992.39109953704</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>45720.48692129629</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>46032.46388888889</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>45643.34199074074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40116,7 +40116,7 @@
         <v>45995.65537037037</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40178,7 +40178,7 @@
         <v>44651</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>45404.47491898148</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>45994.27650462963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>45995.335625</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>45995.33622685185</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>45182</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40540,7 +40540,7 @@
         <v>45995.6593287037</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40597,7 +40597,7 @@
         <v>45968</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40654,7 +40654,7 @@
         <v>45757.35831018518</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40711,7 +40711,7 @@
         <v>45995.66488425926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45981</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45742.73994212963</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45539.6021875</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45660.44798611111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>46041.42920138889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>46041.43284722222</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>46041.61865740741</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45999.62391203704</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         <v>46031</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>46000.43332175926</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41343,7 +41343,7 @@
         <v>45673.85991898148</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45673.87116898148</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45646.5587037037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>46001.57627314814</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44853</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>46003.41349537037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>44841</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41752,7 +41752,7 @@
         <v>46002.44396990741</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>46045.64833333333</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         <v>46045.4365625</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41928,7 +41928,7 @@
         <v>45330.86684027778</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>46045.43865740741</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>46002.44233796297</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>46002.44537037037</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>46003.41318287037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42223,7 +42223,7 @@
         <v>46001.78523148148</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42285,7 +42285,7 @@
         <v>46045.65126157407</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45695.40526620371</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45695</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         <v>45695</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>45764.43357638889</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45764.43528935185</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>45217.39167824074</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44616.3750462963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>46006.58587962963</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42818,7 +42818,7 @@
         <v>44876.38916666667</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>44546</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42937,7 +42937,7 @@
         <v>46007.68518518518</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42994,7 +42994,7 @@
         <v>46001.78487268519</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>44999.46983796296</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
         <v>46007.71622685185</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43170,7 +43170,7 @@
         <v>44468.65246527778</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43232,7 +43232,7 @@
         <v>44294.64568287037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44488.57009259259</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>46050.55069444444</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43408,7 +43408,7 @@
         <v>44519.03226851852</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43465,7 +43465,7 @@
         <v>46008.57488425926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43522,7 +43522,7 @@
         <v>45090.52650462963</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         <v>45090.52939814814</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43636,7 +43636,7 @@
         <v>46034</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43693,7 +43693,7 @@
         <v>46052.65056712963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43755,7 +43755,7 @@
         <v>46052.67444444444</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44936</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>46010.59050925926</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>46052.38428240741</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>46052.63857638889</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44055,7 +44055,7 @@
         <v>45726.50033564815</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44117,7 +44117,7 @@
         <v>45312.89391203703</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44174,7 +44174,7 @@
         <v>46052.62577546296</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44236,7 +44236,7 @@
         <v>45581.56543981482</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44298,7 +44298,7 @@
         <v>45218.67822916667</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44355,7 +44355,7 @@
         <v>45412</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44412,7 +44412,7 @@
         <v>46056.59990740741</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44469,7 +44469,7 @@
         <v>45512.43391203704</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44526,7 +44526,7 @@
         <v>46056.61979166666</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44583,7 +44583,7 @@
         <v>46033</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44640,7 +44640,7 @@
         <v>46037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44697,7 +44697,7 @@
         <v>45595.67429398148</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44754,7 +44754,7 @@
         <v>44445.46751157408</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44816,7 +44816,7 @@
         <v>46041.70430555556</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44873,7 +44873,7 @@
         <v>45282</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44930,7 +44930,7 @@
         <v>45282</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44987,7 +44987,7 @@
         <v>45282</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45044,7 +45044,7 @@
         <v>46058.58331018518</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45101,7 +45101,7 @@
         <v>45398</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         <v>46059.56321759259</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45225,7 +45225,7 @@
         <v>46058.59615740741</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45282,7 +45282,7 @@
         <v>45182.56731481481</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45344,7 +45344,7 @@
         <v>44804.72409722222</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45401,7 +45401,7 @@
         <v>46056</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45458,7 +45458,7 @@
         <v>45581</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45520,7 +45520,7 @@
         <v>45590.45619212963</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45582,7 +45582,7 @@
         <v>44845</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45639,7 +45639,7 @@
         <v>45855.56597222222</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45696,7 +45696,7 @@
         <v>46021</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45753,7 +45753,7 @@
         <v>46019.84400462963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45810,7 +45810,7 @@
         <v>45967.45105324074</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45867,7 +45867,7 @@
         <v>46021</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45924,7 +45924,7 @@
         <v>45932.5684375</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         <v>45932.61349537037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46038,7 +46038,7 @@
         <v>46063.55747685185</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46100,7 +46100,7 @@
         <v>46063.35994212963</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46157,7 +46157,7 @@
         <v>46020</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46214,7 +46214,7 @@
         <v>45644.59484953704</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46276,7 +46276,7 @@
         <v>46062.49643518519</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>46020</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>45644.60451388889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46457,7 +46457,7 @@
         <v>46019.83925925926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46514,7 +46514,7 @@
         <v>45908.51519675926</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46571,7 +46571,7 @@
         <v>45937.51259259259</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>45908.40347222222</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46685,7 +46685,7 @@
         <v>46051</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>46020</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>46062.33466435185</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         <v>45937.44758101852</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46923,7 +46923,7 @@
         <v>46062.40657407408</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>46062.42111111111</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>46021</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>46021</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44713</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47218,7 +47218,7 @@
         <v>46063.50179398148</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>46062.2890625</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>46051</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47399,7 +47399,7 @@
         <v>45245.44936342593</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47461,7 +47461,7 @@
         <v>45245</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47523,7 +47523,7 @@
         <v>46020</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47580,7 +47580,7 @@
         <v>45908.35809027778</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47637,7 +47637,7 @@
         <v>45931.59844907407</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47694,7 +47694,7 @@
         <v>46063</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47756,7 +47756,7 @@
         <v>45400.44844907407</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47813,7 +47813,7 @@
         <v>45932.5190162037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47870,7 +47870,7 @@
         <v>46022.58253472222</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47927,7 +47927,7 @@
         <v>46022</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47984,7 +47984,7 @@
         <v>46022</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
         <v>46022</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>46065.67380787037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44376</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>46022</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>45104.67638888889</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>46065.64013888889</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>46022</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>46022</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>44910</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>46063</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>46063</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>46063</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>45462.63016203704</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48802,7 +48802,7 @@
         <v>45660.35574074074</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>45660.37127314815</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48916,7 +48916,7 @@
         <v>44741.57295138889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48973,7 +48973,7 @@
         <v>45217.38545138889</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49030,7 +49030,7 @@
         <v>46069.50070601852</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49087,7 +49087,7 @@
         <v>46066.36740740741</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49144,7 +49144,7 @@
         <v>46069.49256944445</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49201,7 +49201,7 @@
         <v>46069.70851851852</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49258,7 +49258,7 @@
         <v>46066.41321759259</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49320,7 +49320,7 @@
         <v>45509.37269675926</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49377,7 +49377,7 @@
         <v>45719.54072916666</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49434,7 +49434,7 @@
         <v>45350.95267361111</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49491,7 +49491,7 @@
         <v>44498.8419212963</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49548,7 +49548,7 @@
         <v>46069.510625</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49605,7 +49605,7 @@
         <v>46064</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49667,7 +49667,7 @@
         <v>46045</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49724,7 +49724,7 @@
         <v>46029.43116898148</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49781,7 +49781,7 @@
         <v>45614.37862268519</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49838,7 +49838,7 @@
         <v>46070.65717592592</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49895,7 +49895,7 @@
         <v>46071.32976851852</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49952,7 +49952,7 @@
         <v>45029.62792824074</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50014,7 +50014,7 @@
         <v>45261</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50071,7 +50071,7 @@
         <v>44350.66420138889</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50133,7 +50133,7 @@
         <v>46051</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50190,7 +50190,7 @@
         <v>44294.3290625</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50247,7 +50247,7 @@
         <v>45019.47398148148</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50304,7 +50304,7 @@
         <v>46069</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50366,7 +50366,7 @@
         <v>44874</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45113</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>46071.61324074074</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>46073.62988425926</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>46030.43628472222</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>46031</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50723,7 +50723,7 @@
         <v>45070</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50780,7 +50780,7 @@
         <v>46072.58086805556</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>46072.37966435185</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50904,7 +50904,7 @@
         <v>46057.56506944444</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50961,7 +50961,7 @@
         <v>46031</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51018,7 +51018,7 @@
         <v>45026</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51075,7 +51075,7 @@
         <v>45467.40538194445</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51137,7 +51137,7 @@
         <v>46031</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51194,7 +51194,7 @@
         <v>46031.50412037037</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51251,7 +51251,7 @@
         <v>46052</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51308,7 +51308,7 @@
         <v>45702.51921296296</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51365,7 +51365,7 @@
         <v>45702.65013888889</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         <v>46057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51484,7 +51484,7 @@
         <v>46031</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51541,7 +51541,7 @@
         <v>44539.56224537037</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51598,7 +51598,7 @@
         <v>46030.66337962963</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51655,7 +51655,7 @@
         <v>46072.72241898148</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51717,7 +51717,7 @@
         <v>45700.66565972222</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51779,7 +51779,7 @@
         <v>46030</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51836,7 +51836,7 @@
         <v>45726.58489583333</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51898,7 +51898,7 @@
         <v>46052</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51955,7 +51955,7 @@
         <v>46053</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52012,7 +52012,7 @@
         <v>46003.4128587963</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52074,7 +52074,7 @@
         <v>45652.43678240741</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52131,7 +52131,7 @@
         <v>46030.35695601852</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52188,7 +52188,7 @@
         <v>46030.44226851852</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52245,7 +52245,7 @@
         <v>45695.40210648148</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52307,7 +52307,7 @@
         <v>44694</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52369,7 +52369,7 @@
         <v>44818</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52426,7 +52426,7 @@
         <v>44763</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52483,7 +52483,7 @@
         <v>45645.44195601852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52545,7 +52545,7 @@
         <v>44579.98798611111</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52602,7 +52602,7 @@
         <v>45540</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52659,7 +52659,7 @@
         <v>45757.73100694444</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52716,7 +52716,7 @@
         <v>45757.74027777778</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52773,7 +52773,7 @@
         <v>45243</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52830,7 +52830,7 @@
         <v>44616.49033564814</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52887,7 +52887,7 @@
         <v>45735.41233796296</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52944,7 +52944,7 @@
         <v>45106</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53001,7 +53001,7 @@
         <v>45014.63493055556</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53058,7 +53058,7 @@
         <v>45702.64880787037</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53120,7 +53120,7 @@
         <v>44790.59284722222</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53177,7 +53177,7 @@
         <v>45267</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53234,7 +53234,7 @@
         <v>45699.39001157408</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53291,7 +53291,7 @@
         <v>44446.30126157407</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53353,7 +53353,7 @@
         <v>45373.59789351852</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53410,7 +53410,7 @@
         <v>45737.54068287037</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53467,7 +53467,7 @@
         <v>44885</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53524,7 +53524,7 @@
         <v>45727.47241898148</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53581,7 +53581,7 @@
         <v>45282</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53638,7 +53638,7 @@
         <v>45107.60888888889</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53695,7 +53695,7 @@
         <v>45744.34733796296</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53757,7 +53757,7 @@
         <v>45555</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53819,7 +53819,7 @@
         <v>45082</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53876,7 +53876,7 @@
         <v>45034.52115740741</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53938,7 +53938,7 @@
         <v>45775.40340277777</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53995,7 +53995,7 @@
         <v>44973.42633101852</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54052,7 +54052,7 @@
         <v>45397</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54114,7 +54114,7 @@
         <v>44800</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54171,7 +54171,7 @@
         <v>45755.33472222222</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54228,7 +54228,7 @@
         <v>44279</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54285,7 +54285,7 @@
         <v>45621.44861111111</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54342,7 +54342,7 @@
         <v>45420</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54404,7 +54404,7 @@
         <v>45266.48171296297</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54461,7 +54461,7 @@
         <v>45414</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54518,7 +54518,7 @@
         <v>44967</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54580,7 +54580,7 @@
         <v>44922</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54637,7 +54637,7 @@
         <v>45631.52173611111</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54699,7 +54699,7 @@
         <v>45715.39962962963</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54756,7 +54756,7 @@
         <v>45266.36988425926</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54813,7 +54813,7 @@
         <v>45660.34046296297</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54870,7 +54870,7 @@
         <v>45519.56657407407</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54927,7 +54927,7 @@
         <v>45146.63849537037</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45740.58918981482</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45770.50553240741</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55103,7 +55103,7 @@
         <v>44586</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>45705.36710648148</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>45530.76390046296</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55279,7 +55279,7 @@
         <v>44927</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55336,7 +55336,7 @@
         <v>45574.65305555556</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55398,7 +55398,7 @@
         <v>44364.38038194444</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55460,7 +55460,7 @@
         <v>45608.62623842592</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55517,7 +55517,7 @@
         <v>45758.5408912037</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55574,7 +55574,7 @@
         <v>44767.55229166667</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55631,7 +55631,7 @@
         <v>44910</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55688,7 +55688,7 @@
         <v>45559</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55745,7 +55745,7 @@
         <v>45530</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55807,7 +55807,7 @@
         <v>45751</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55869,7 +55869,7 @@
         <v>45334.61027777778</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55926,7 +55926,7 @@
         <v>45600.48091435185</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55983,7 +55983,7 @@
         <v>45392.3412962963</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56040,7 +56040,7 @@
         <v>45231</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56102,7 +56102,7 @@
         <v>45756.3708912037</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56159,7 +56159,7 @@
         <v>45089.45114583334</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56216,7 +56216,7 @@
         <v>45700.64942129629</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56278,7 +56278,7 @@
         <v>44603.53943287037</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56335,7 +56335,7 @@
         <v>45176</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56392,7 +56392,7 @@
         <v>45176</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56449,7 +56449,7 @@
         <v>44959.72408564815</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56506,7 +56506,7 @@
         <v>45685.56496527778</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56563,7 +56563,7 @@
         <v>44600</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56625,7 +56625,7 @@
         <v>45660.42574074074</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>45240.59244212963</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56739,7 +56739,7 @@
         <v>45712</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56801,7 +56801,7 @@
         <v>45744.37953703704</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56863,7 +56863,7 @@
         <v>45520.4345949074</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56920,7 +56920,7 @@
         <v>45520.44162037037</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56977,7 +56977,7 @@
         <v>45089.77170138889</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57039,7 +57039,7 @@
         <v>44973</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57096,7 +57096,7 @@
         <v>45702.65122685185</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57158,7 +57158,7 @@
         <v>45232.56643518519</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57220,7 +57220,7 @@
         <v>45686</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57282,7 +57282,7 @@
         <v>45749</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>45090.53184027778</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>45014</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>45728.88731481481</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57510,7 +57510,7 @@
         <v>45530</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57572,7 +57572,7 @@
         <v>45306.58793981482</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57629,7 +57629,7 @@
         <v>45728.9183449074</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57686,7 +57686,7 @@
         <v>45272</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57743,7 +57743,7 @@
         <v>45386</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>45523</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57862,7 +57862,7 @@
         <v>45533.52966435185</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -57944,7 +57944,7 @@
         <v>45744.43273148148</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58001,7 +58001,7 @@
         <v>45744.45096064815</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58058,7 +58058,7 @@
         <v>45582.5039699074</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58120,7 +58120,7 @@
         <v>45530.53810185185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58177,7 +58177,7 @@
         <v>45776.32197916666</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58234,7 +58234,7 @@
         <v>45726.57084490741</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58291,7 +58291,7 @@
         <v>45776.57601851852</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58348,7 +58348,7 @@
         <v>45776.57763888889</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58405,7 +58405,7 @@
         <v>45727.67243055555</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58462,7 +58462,7 @@
         <v>45580</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58524,7 +58524,7 @@
         <v>45770.35150462963</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58581,7 +58581,7 @@
         <v>45782.51104166666</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58638,7 +58638,7 @@
         <v>45702.46539351852</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58700,7 +58700,7 @@
         <v>45252.72782407407</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -58757,7 +58757,7 @@
         <v>45784.62677083333</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -58814,7 +58814,7 @@
         <v>45322.38930555555</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -58871,7 +58871,7 @@
         <v>45789.48466435185</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45786.45901620371</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -58995,7 +58995,7 @@
         <v>45705.42418981482</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59057,7 +59057,7 @@
         <v>45791.58666666667</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59119,7 +59119,7 @@
         <v>45791.49224537037</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59176,7 +59176,7 @@
         <v>45790.38057870371</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59233,7 +59233,7 @@
         <v>45791.62157407407</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59290,7 +59290,7 @@
         <v>45791.60046296296</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59352,7 +59352,7 @@
         <v>45790.44008101852</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59409,7 +59409,7 @@
         <v>45792.62024305556</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59471,7 +59471,7 @@
         <v>45660.43380787037</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59533,7 +59533,7 @@
         <v>45792.61178240741</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59595,7 +59595,7 @@
         <v>45792.39951388889</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59652,7 +59652,7 @@
         <v>45797.37373842593</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59709,7 +59709,7 @@
         <v>45623</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -59766,7 +59766,7 @@
         <v>45797.35431712963</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -59823,7 +59823,7 @@
         <v>45797.37581018519</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -59880,7 +59880,7 @@
         <v>45594.36701388889</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -59942,7 +59942,7 @@
         <v>45797.36991898148</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -59999,7 +59999,7 @@
         <v>45632</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -60056,7 +60056,7 @@
         <v>45505.38290509259</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60113,7 +60113,7 @@
         <v>45798</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60170,7 +60170,7 @@
         <v>45798.58292824074</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60227,7 +60227,7 @@
         <v>45798.5837962963</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60284,7 +60284,7 @@
         <v>45800.64162037037</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60341,7 +60341,7 @@
         <v>45588.3656712963</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60403,7 +60403,7 @@
         <v>45800.64026620371</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60460,7 +60460,7 @@
         <v>44739.48752314815</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60517,7 +60517,7 @@
         <v>45804.49582175926</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60579,7 +60579,7 @@
         <v>45742.47987268519</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60641,7 +60641,7 @@
         <v>45742.54047453704</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -60703,7 +60703,7 @@
         <v>45813.61989583333</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -60760,7 +60760,7 @@
         <v>45813.53916666667</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -60817,7 +60817,7 @@
         <v>45813.56456018519</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -60874,7 +60874,7 @@
         <v>45817.60252314815</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -575,7 +575,7 @@
         <v>45741</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45821.41320601852</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>46014.59915509259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45926.61103009259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>45926.61836805556</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
         <v>45848</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>45302</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45019</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44840</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1462,7 +1462,7 @@
         <v>45726.35946759259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1556,7 +1556,7 @@
         <v>45966.64091435185</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>46052.66329861111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1744,7 +1744,7 @@
         <v>44390</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>45715</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45842</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         <v>45859.50240740741</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2120,7 +2120,7 @@
         <v>45593.66131944444</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45302</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45623.39265046296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45825</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45825</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45898.37387731481</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>45281</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>46041.42127314815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>44418.43170138889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44323.59449074074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45107.56270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>45324.5987037037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>45737.38288194445</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3313,7 +3313,7 @@
         <v>45884.44935185185</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3408,7 +3408,7 @@
         <v>45898.59783564815</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         <v>45903</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>45912.42587962963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
         <v>44887</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45936.57709490741</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         <v>45338</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45994.49478009259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45281</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44658</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44272</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44790</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>45120</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4469,7 +4469,7 @@
         <v>45884.44667824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>45818</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45827.50162037037</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>45693</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4823,7 +4823,7 @@
         <v>45833.70858796296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>44840</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>45512.47659722222</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>45614.66019675926</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45924.59877314815</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5271,7 +5271,7 @@
         <v>45726.59087962963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         <v>45820</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45964.64814814815</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>45967.48527777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5626,7 +5626,7 @@
         <v>45604.55732638889</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>45984.61032407408</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>45985.90067129629</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>45423</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45463.688125</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>46041.46563657407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6150,7 +6150,7 @@
         <v>46000.42645833334</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>45440.65584490741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6320,7 +6320,7 @@
         <v>45631.52961805555</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>46052.61196759259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6499,7 +6499,7 @@
         <v>45943.42305555556</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         <v>45420</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45107.58261574074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44811</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>45715.41275462963</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>45730</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>44876</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7089,7 +7089,7 @@
         <v>44263</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7146,7 +7146,7 @@
         <v>44342</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         <v>44308</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         <v>44519.0362962963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         <v>44749.32502314815</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         <v>44775</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         <v>44886.91054398148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         <v>44271</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         <v>44284.57682870371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7617,7 +7617,7 @@
         <v>44286.49304398148</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7674,7 +7674,7 @@
         <v>44370.63228009259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7731,7 +7731,7 @@
         <v>44321.62322916667</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7788,7 +7788,7 @@
         <v>44629.59020833333</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7845,7 +7845,7 @@
         <v>44805.45609953703</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         <v>44351.60512731481</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7964,7 +7964,7 @@
         <v>44494</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8021,7 +8021,7 @@
         <v>44735</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8078,7 +8078,7 @@
         <v>44775.34788194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8135,7 +8135,7 @@
         <v>44286</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8197,7 +8197,7 @@
         <v>44462.64712962963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8254,7 +8254,7 @@
         <v>44252</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8311,7 +8311,7 @@
         <v>44258</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8368,7 +8368,7 @@
         <v>44573</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8425,7 +8425,7 @@
         <v>44663.44313657407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8482,7 +8482,7 @@
         <v>44882.52832175926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8539,7 +8539,7 @@
         <v>44342.67332175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8596,7 +8596,7 @@
         <v>44629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>44756.58375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44813.51212962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8767,7 +8767,7 @@
         <v>44300</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8829,7 +8829,7 @@
         <v>44671.58972222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8891,7 +8891,7 @@
         <v>44671.61422453704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8953,7 +8953,7 @@
         <v>44342.53046296296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9015,7 +9015,7 @@
         <v>44459.46950231482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9072,7 +9072,7 @@
         <v>44437</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9129,7 +9129,7 @@
         <v>44260</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9186,7 +9186,7 @@
         <v>44599</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9243,7 +9243,7 @@
         <v>44735.61905092592</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9300,7 +9300,7 @@
         <v>44258</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9357,7 +9357,7 @@
         <v>44270.69513888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9414,7 +9414,7 @@
         <v>44658</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9476,7 +9476,7 @@
         <v>44776</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9538,7 +9538,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44414</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>44788.34717592593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9719,7 +9719,7 @@
         <v>44279.49376157407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9781,7 +9781,7 @@
         <v>44589.32091435185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9838,7 +9838,7 @@
         <v>44370.63998842592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>44498.84503472222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>44796.46392361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10019,7 +10019,7 @@
         <v>44720</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10081,7 +10081,7 @@
         <v>44882.52335648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10138,7 +10138,7 @@
         <v>44785.60922453704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10195,7 +10195,7 @@
         <v>44599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10252,7 +10252,7 @@
         <v>44845.5477662037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>44439</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>44882</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44272.65707175926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44369.35077546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10604,7 +10604,7 @@
         <v>44840</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10666,7 +10666,7 @@
         <v>44461</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10728,7 +10728,7 @@
         <v>44785.60788194444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10785,7 +10785,7 @@
         <v>44734.39373842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10842,7 +10842,7 @@
         <v>44308.72342592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>44684.68034722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10956,7 +10956,7 @@
         <v>44795.57741898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11013,7 +11013,7 @@
         <v>44491</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11070,7 +11070,7 @@
         <v>45706.47894675926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44585.59899305556</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44928.52260416667</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>44889.4528125</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>45742.55755787037</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>45014.62342592593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11417,7 +11417,7 @@
         <v>45454</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11474,7 +11474,7 @@
         <v>44959</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11531,7 +11531,7 @@
         <v>44349.48065972222</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11593,7 +11593,7 @@
         <v>44959</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11650,7 +11650,7 @@
         <v>44959.71658564815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11707,7 +11707,7 @@
         <v>45660.36721064815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45699.3866087963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45611.59840277778</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45040.57936342592</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11940,7 +11940,7 @@
         <v>45660</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44637.36871527778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44656</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12111,7 +12111,7 @@
         <v>45726.59032407407</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>45726.59607638889</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12230,7 +12230,7 @@
         <v>45547.48995370371</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12287,7 +12287,7 @@
         <v>45666.58805555556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12344,7 +12344,7 @@
         <v>45646.55134259259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12401,7 +12401,7 @@
         <v>45530.51480324074</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45706</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>45089.5450462963</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12572,7 +12572,7 @@
         <v>45158.91878472222</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12629,7 +12629,7 @@
         <v>45158.94141203703</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12686,7 +12686,7 @@
         <v>45265.62027777778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12743,7 +12743,7 @@
         <v>45769.58547453704</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12800,7 +12800,7 @@
         <v>45769.58668981482</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12857,7 +12857,7 @@
         <v>45700.54153935185</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12919,7 +12919,7 @@
         <v>44708</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12976,7 +12976,7 @@
         <v>45015</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13038,7 +13038,7 @@
         <v>45715.39028935185</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13095,7 +13095,7 @@
         <v>45104.50863425926</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
         <v>45645.48956018518</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>44862.61767361111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>44735</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>45645.58155092593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>44942</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>45580</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13509,7 +13509,7 @@
         <v>45742.42773148148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13571,7 +13571,7 @@
         <v>44691</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13628,7 +13628,7 @@
         <v>45715.41775462963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
         <v>45184.57194444445</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13742,7 +13742,7 @@
         <v>45715.42604166667</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13799,7 +13799,7 @@
         <v>45324</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13856,7 +13856,7 @@
         <v>45705.40342592593</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13913,7 +13913,7 @@
         <v>45117</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13975,7 +13975,7 @@
         <v>44756.56537037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14032,7 +14032,7 @@
         <v>44756.57232638889</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14089,7 +14089,7 @@
         <v>45084.35936342592</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14146,7 +14146,7 @@
         <v>44300.80547453704</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14203,7 +14203,7 @@
         <v>44286</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14265,7 +14265,7 @@
         <v>45715.40354166667</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14322,7 +14322,7 @@
         <v>45586.58848379629</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>45125.74876157408</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44539</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44693</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14560,7 +14560,7 @@
         <v>45632</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
         <v>45740.49162037037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14679,7 +14679,7 @@
         <v>45740.49421296296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14741,7 +14741,7 @@
         <v>45603.53780092593</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>45162.60410879629</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>45719.42697916667</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>45719.44918981481</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44867</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>45769.58416666667</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>45645.58069444444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44733.45824074074</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>45540.36945601852</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>45740.65900462963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>45652.44746527778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44988</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>45475.54822916666</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15497,7 +15497,7 @@
         <v>45817.41371527778</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>45632.48819444444</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44823.600625</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>45030.43475694444</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15735,7 +15735,7 @@
         <v>45818.38121527778</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>45645.90335648148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>45819.59603009259</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>45819.4528125</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         <v>44278.52945601852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16025,7 +16025,7 @@
         <v>45884.45385416667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16087,7 +16087,7 @@
         <v>45726.60840277778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16144,7 +16144,7 @@
         <v>45819.61737268518</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16206,7 +16206,7 @@
         <v>45818</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>45884.44230324074</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16330,7 +16330,7 @@
         <v>44589</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16392,7 +16392,7 @@
         <v>45884.39716435185</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16454,7 +16454,7 @@
         <v>45146.6455787037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16511,7 +16511,7 @@
         <v>45884.43910879629</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>45821.58282407407</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16630,7 +16630,7 @@
         <v>45884.3945949074</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>45884.40300925926</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16754,7 +16754,7 @@
         <v>45468.47239583333</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16816,7 +16816,7 @@
         <v>45821.52070601852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>45530</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16935,7 +16935,7 @@
         <v>45820.67806712963</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>45889.45825231481</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17054,7 +17054,7 @@
         <v>45324.60200231482</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44272.85908564815</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>45891.61590277778</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17235,7 +17235,7 @@
         <v>45672.38815972222</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>45827.47753472222</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>45827.47875</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>45827</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>45261</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>45741</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44347</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>45741</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>45827.47604166667</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>45827.480625</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>45562</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>45895.42797453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         <v>45895</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         <v>45744.35600694444</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         <v>45891.90513888889</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18115,7 +18115,7 @@
         <v>45895.42366898148</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18177,7 +18177,7 @@
         <v>45665</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18234,7 +18234,7 @@
         <v>45896.4344212963</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18291,7 +18291,7 @@
         <v>45833.7103125</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18348,7 +18348,7 @@
         <v>45243.47311342593</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18405,7 +18405,7 @@
         <v>45882</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18467,7 +18467,7 @@
         <v>45832.37814814815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18524,7 +18524,7 @@
         <v>45833</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18586,7 +18586,7 @@
         <v>45866</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18643,7 +18643,7 @@
         <v>45034</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18700,7 +18700,7 @@
         <v>45897.5972337963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18757,7 +18757,7 @@
         <v>45832.49621527778</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18814,7 +18814,7 @@
         <v>45897.3466550926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18871,7 +18871,7 @@
         <v>45898.63521990741</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18933,7 +18933,7 @@
         <v>45898.58056712963</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18995,7 +18995,7 @@
         <v>45898.59614583333</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45775.42958333333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45898.59780092593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19176,7 +19176,7 @@
         <v>45833.7067824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19233,7 +19233,7 @@
         <v>45463.6169212963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45834.79741898148</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>45898.69194444444</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19414,7 +19414,7 @@
         <v>45835.43945601852</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19471,7 +19471,7 @@
         <v>45898.39636574074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19533,7 +19533,7 @@
         <v>45722.53859953704</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19590,7 +19590,7 @@
         <v>45749.48018518519</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19652,7 +19652,7 @@
         <v>44951.33599537037</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>45834.79965277778</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>45898.43148148148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>45898.44236111111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45898.32689814815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19952,7 +19952,7 @@
         <v>45898.33373842593</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20014,7 +20014,7 @@
         <v>45834.39266203704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20071,7 +20071,7 @@
         <v>45420</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20133,7 +20133,7 @@
         <v>45898.40085648148</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45792.43024305555</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45485</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20314,7 +20314,7 @@
         <v>45534.43164351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45835.44109953703</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45903.61300925926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45903.61480324074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20547,7 +20547,7 @@
         <v>45798.58106481482</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20604,7 +20604,7 @@
         <v>45835.40670138889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20661,7 +20661,7 @@
         <v>45805</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20718,7 +20718,7 @@
         <v>45902.38427083333</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45614</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>44935.38945601852</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>45904.61524305555</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20961,7 +20961,7 @@
         <v>45798.59127314815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21018,7 +21018,7 @@
         <v>45905.59543981482</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21080,7 +21080,7 @@
         <v>45905.6455787037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21142,7 +21142,7 @@
         <v>45904.57777777778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21199,7 +21199,7 @@
         <v>45908.53729166667</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21261,7 +21261,7 @@
         <v>45811.40111111111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21318,7 +21318,7 @@
         <v>45720.51222222222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21375,7 +21375,7 @@
         <v>45909.61652777778</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21437,7 +21437,7 @@
         <v>45909.62445601852</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21499,7 +21499,7 @@
         <v>45909.62787037037</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21561,7 +21561,7 @@
         <v>45909.62013888889</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21623,7 +21623,7 @@
         <v>45911.53071759259</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21685,7 +21685,7 @@
         <v>44960.32700231481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21747,7 +21747,7 @@
         <v>45845.46960648148</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21809,7 +21809,7 @@
         <v>45084</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21866,7 +21866,7 @@
         <v>45784.64991898148</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21923,7 +21923,7 @@
         <v>45911.32895833333</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21980,7 +21980,7 @@
         <v>45908.68849537037</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22042,7 +22042,7 @@
         <v>45835.44465277778</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22099,7 +22099,7 @@
         <v>45845.51532407408</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22156,7 +22156,7 @@
         <v>45356.36994212963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22213,7 +22213,7 @@
         <v>45845</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22270,7 +22270,7 @@
         <v>44517</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22332,7 +22332,7 @@
         <v>45845.51070601852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22389,7 +22389,7 @@
         <v>45915.53219907408</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22446,7 +22446,7 @@
         <v>45915.57190972222</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22508,7 +22508,7 @@
         <v>45845.50296296296</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22565,7 +22565,7 @@
         <v>45686</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22627,7 +22627,7 @@
         <v>45912.40327546297</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22684,7 +22684,7 @@
         <v>45915.39278935185</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22741,7 +22741,7 @@
         <v>45912.40079861111</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22798,7 +22798,7 @@
         <v>44533</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22860,7 +22860,7 @@
         <v>45916.42255787037</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22917,7 +22917,7 @@
         <v>45848.56725694444</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22974,7 +22974,7 @@
         <v>45848.47416666667</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23031,7 +23031,7 @@
         <v>45681.5280787037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23093,7 +23093,7 @@
         <v>45848.53870370371</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
         <v>45540.36526620371</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23207,7 +23207,7 @@
         <v>45526.39949074074</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23264,7 +23264,7 @@
         <v>45674.34046296297</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23321,7 +23321,7 @@
         <v>45593.71982638889</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23378,7 +23378,7 @@
         <v>45854.58572916667</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23435,7 +23435,7 @@
         <v>45468.47575231481</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23497,7 +23497,7 @@
         <v>45888.37780092593</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23554,7 +23554,7 @@
         <v>45854.58831018519</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23611,7 +23611,7 @@
         <v>45884.53402777778</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23668,7 +23668,7 @@
         <v>44316</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23730,7 +23730,7 @@
         <v>45923</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23787,7 +23787,7 @@
         <v>45896.38710648148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23844,7 +23844,7 @@
         <v>45245</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23901,7 +23901,7 @@
         <v>45859.51940972222</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23963,7 +23963,7 @@
         <v>45889.60938657408</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24020,7 +24020,7 @@
         <v>44684</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24082,7 +24082,7 @@
         <v>45862.37017361111</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24139,7 +24139,7 @@
         <v>45923.83880787037</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24201,7 +24201,7 @@
         <v>45923.84063657407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24263,7 +24263,7 @@
         <v>45923.84163194444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24325,7 +24325,7 @@
         <v>45862.64209490741</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24387,7 +24387,7 @@
         <v>45923.84267361111</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24449,7 +24449,7 @@
         <v>45862.5516087963</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24506,7 +24506,7 @@
         <v>45862.56378472222</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24563,7 +24563,7 @@
         <v>45924.39846064815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24625,7 +24625,7 @@
         <v>44356</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24682,7 +24682,7 @@
         <v>45925.61696759259</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24744,7 +24744,7 @@
         <v>45866.55763888889</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>45867.58324074074</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>45924.59583333333</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24925,7 +24925,7 @@
         <v>45866.58483796296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>45924.38379629629</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25049,7 +25049,7 @@
         <v>45924.6084837963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>45924.40840277778</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25173,7 +25173,7 @@
         <v>45924.41563657407</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25235,7 +25235,7 @@
         <v>45869.54342592593</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25292,7 +25292,7 @@
         <v>45869.57649305555</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25349,7 +25349,7 @@
         <v>45926.64233796296</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25411,7 +25411,7 @@
         <v>45869.57229166666</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>45869.57623842593</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25535,7 +25535,7 @@
         <v>45869.58846064815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25592,7 +25592,7 @@
         <v>45161.58774305556</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25654,7 +25654,7 @@
         <v>45869.42978009259</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25711,7 +25711,7 @@
         <v>45869.42247685185</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25768,7 +25768,7 @@
         <v>45869.46657407407</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25825,7 +25825,7 @@
         <v>45926.59903935185</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25882,7 +25882,7 @@
         <v>45929.49503472223</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25939,7 +25939,7 @@
         <v>45926.58541666667</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25996,7 +25996,7 @@
         <v>45113</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26058,7 +26058,7 @@
         <v>45929.51549768518</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26115,7 +26115,7 @@
         <v>45926.34630787037</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26177,7 +26177,7 @@
         <v>45873.39840277778</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26239,7 +26239,7 @@
         <v>44735.49341435185</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26296,7 +26296,7 @@
         <v>45223.38060185185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26353,7 +26353,7 @@
         <v>45926.65032407407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26415,7 +26415,7 @@
         <v>45715.39568287037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>45931.46113425926</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>45931.47070601852</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>45930.3779050926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26643,7 +26643,7 @@
         <v>44693</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>45930.20606481482</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26762,7 +26762,7 @@
         <v>45930.20905092593</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26819,7 +26819,7 @@
         <v>45401</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26876,7 +26876,7 @@
         <v>45875.57041666667</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26938,7 +26938,7 @@
         <v>45932.63305555555</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26995,7 +26995,7 @@
         <v>45933.63469907407</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>45560</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>45933.35684027777</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27176,7 +27176,7 @@
         <v>45454.48969907407</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27233,7 +27233,7 @@
         <v>45454.49773148148</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27290,7 +27290,7 @@
         <v>45595.64767361111</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27347,7 +27347,7 @@
         <v>45742.37480324074</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27404,7 +27404,7 @@
         <v>45904.58163194444</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27461,7 +27461,7 @@
         <v>45876.64011574074</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27523,7 +27523,7 @@
         <v>45933.5480787037</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27585,7 +27585,7 @@
         <v>45933.55273148148</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27647,7 +27647,7 @@
         <v>45932.63021990741</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27704,7 +27704,7 @@
         <v>45932.62642361111</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27761,7 +27761,7 @@
         <v>45932.64671296296</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27818,7 +27818,7 @@
         <v>44445</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27875,7 +27875,7 @@
         <v>44817.43700231481</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27937,7 +27937,7 @@
         <v>44585.3431712963</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27994,7 +27994,7 @@
         <v>45932.34924768518</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28056,7 +28056,7 @@
         <v>45545</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28118,7 +28118,7 @@
         <v>45933.55248842593</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28180,7 +28180,7 @@
         <v>45936.57745370371</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28242,7 +28242,7 @@
         <v>45911.52769675926</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28304,7 +28304,7 @@
         <v>45632.48064814815</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28361,7 +28361,7 @@
         <v>45881</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28423,7 +28423,7 @@
         <v>45744.34550925926</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28485,7 +28485,7 @@
         <v>44735.61462962963</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28542,7 +28542,7 @@
         <v>45740.44788194444</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28604,7 +28604,7 @@
         <v>45937.57569444444</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28666,7 +28666,7 @@
         <v>45720.64939814815</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28723,7 +28723,7 @@
         <v>44701</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
         <v>45938.65038194445</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28847,7 +28847,7 @@
         <v>45938.64211805556</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28909,7 +28909,7 @@
         <v>45939.38144675926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28971,7 +28971,7 @@
         <v>45511.55277777778</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29033,7 +29033,7 @@
         <v>45884.55796296296</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29095,7 +29095,7 @@
         <v>45916.46002314815</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29152,7 +29152,7 @@
         <v>45929.49167824074</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29209,7 +29209,7 @@
         <v>45630.46627314815</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29266,7 +29266,7 @@
         <v>45673.55641203704</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29323,7 +29323,7 @@
         <v>45939.38085648148</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29380,7 +29380,7 @@
         <v>45420</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29442,7 +29442,7 @@
         <v>45884.38178240741</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29504,7 +29504,7 @@
         <v>45884.39984953704</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29566,7 +29566,7 @@
         <v>45940.65795138889</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>45940.4696412037</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29690,7 +29690,7 @@
         <v>45884.38459490741</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29752,7 +29752,7 @@
         <v>45884.38775462963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29814,7 +29814,7 @@
         <v>45884.39216435186</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29876,7 +29876,7 @@
         <v>45943.60822916667</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29938,7 +29938,7 @@
         <v>45943.41519675926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30000,7 +30000,7 @@
         <v>45884.40722222222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30062,7 +30062,7 @@
         <v>45944.4678125</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30119,7 +30119,7 @@
         <v>45730.46855324074</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30181,7 +30181,7 @@
         <v>45884.43587962963</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>45884.45657407407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>45944.54185185185</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30367,7 +30367,7 @@
         <v>44684</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30429,7 +30429,7 @@
         <v>45764</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30491,7 +30491,7 @@
         <v>45929.48061342593</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30548,7 +30548,7 @@
         <v>45944.55662037037</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>45945.48893518518</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>45817.59769675926</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>45272</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30781,7 +30781,7 @@
         <v>45884.45953703704</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>44694</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45947.64292824074</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45947.63310185185</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31029,7 +31029,7 @@
         <v>45947.64216435186</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31091,7 +31091,7 @@
         <v>45138.52274305555</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31148,7 +31148,7 @@
         <v>45947.64190972222</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31210,7 +31210,7 @@
         <v>45947.64260416666</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31272,7 +31272,7 @@
         <v>45168.92969907408</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31334,7 +31334,7 @@
         <v>44951.34615740741</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31396,7 +31396,7 @@
         <v>44951</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31458,7 +31458,7 @@
         <v>45604.37246527777</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31520,7 +31520,7 @@
         <v>45950.74912037037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31577,7 +31577,7 @@
         <v>45267</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31634,7 +31634,7 @@
         <v>45950.37114583333</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31691,7 +31691,7 @@
         <v>45950</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31748,7 +31748,7 @@
         <v>44904.63638888889</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44962.43650462963</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>45660.41883101852</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>45933.55215277777</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31986,7 +31986,7 @@
         <v>45952.42771990741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32043,7 +32043,7 @@
         <v>45953.38604166666</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>45953.35465277778</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>44942.47491898148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>45586.55236111111</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>45684.67659722222</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32333,7 +32333,7 @@
         <v>45957.67456018519</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32395,7 +32395,7 @@
         <v>45440.67074074074</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32452,7 +32452,7 @@
         <v>45203</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32509,7 +32509,7 @@
         <v>45632.47849537037</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>45312.93891203704</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>44466.43295138889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32685,7 +32685,7 @@
         <v>45526.51855324074</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32747,7 +32747,7 @@
         <v>45953.3990162037</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32809,7 +32809,7 @@
         <v>45957.4416550926</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32871,7 +32871,7 @@
         <v>45666.58149305556</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32928,7 +32928,7 @@
         <v>45957.58747685186</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32985,7 +32985,7 @@
         <v>45644.38703703704</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33047,7 +33047,7 @@
         <v>45958.40583333333</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33109,7 +33109,7 @@
         <v>45958.40640046296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33171,7 +33171,7 @@
         <v>45436</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33228,7 +33228,7 @@
         <v>45953.45859953704</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>44845</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>45120.51550925926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>45947</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>45960.37989583334</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>45957.45982638889</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>45645.9084375</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>45964.47016203704</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33694,7 +33694,7 @@
         <v>45719</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33756,7 +33756,7 @@
         <v>45964.7172337963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33818,7 +33818,7 @@
         <v>45282</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33875,7 +33875,7 @@
         <v>45965.58563657408</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
         <v>45672.39145833333</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33999,7 +33999,7 @@
         <v>45719</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34061,7 +34061,7 @@
         <v>45645.45041666667</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34123,7 +34123,7 @@
         <v>45967.4753587963</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34185,7 +34185,7 @@
         <v>45967.47635416667</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45967.49037037037</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34309,7 +34309,7 @@
         <v>45967.50736111111</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34371,7 +34371,7 @@
         <v>45422</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34433,7 +34433,7 @@
         <v>45967.44877314815</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34490,7 +34490,7 @@
         <v>45966.60678240741</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34552,7 +34552,7 @@
         <v>45162</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34609,7 +34609,7 @@
         <v>45726.49440972223</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34671,7 +34671,7 @@
         <v>45967.4759837963</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34733,7 +34733,7 @@
         <v>45965.79302083333</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34790,7 +34790,7 @@
         <v>45463.68395833333</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34847,7 +34847,7 @@
         <v>45058.38581018519</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34904,7 +34904,7 @@
         <v>45971.48042824074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34961,7 +34961,7 @@
         <v>44586</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35023,7 +35023,7 @@
         <v>45968.59128472222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35080,7 +35080,7 @@
         <v>45771</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35142,7 +35142,7 @@
         <v>45658.82557870371</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35199,7 +35199,7 @@
         <v>45968.55811342593</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35261,7 +35261,7 @@
         <v>44518</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35318,7 +35318,7 @@
         <v>45084</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35375,7 +35375,7 @@
         <v>45973</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35437,7 +35437,7 @@
         <v>45693.36196759259</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35499,7 +35499,7 @@
         <v>45973</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35561,7 +35561,7 @@
         <v>45973</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35623,7 +35623,7 @@
         <v>45973</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35685,7 +35685,7 @@
         <v>45973</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35747,7 +35747,7 @@
         <v>45974.58554398148</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35809,7 +35809,7 @@
         <v>45974.58813657407</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35871,7 +35871,7 @@
         <v>44756.57740740741</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35928,7 +35928,7 @@
         <v>45547.33135416666</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35990,7 +35990,7 @@
         <v>45974.58145833333</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36052,7 +36052,7 @@
         <v>45974.58606481482</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36114,7 +36114,7 @@
         <v>45974.58680555555</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36176,7 +36176,7 @@
         <v>45974.58744212963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36238,7 +36238,7 @@
         <v>45974.58296296297</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36300,7 +36300,7 @@
         <v>45974.58350694444</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36362,7 +36362,7 @@
         <v>44936.34145833334</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36419,7 +36419,7 @@
         <v>45974.58498842592</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36481,7 +36481,7 @@
         <v>45978.39347222223</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36543,7 +36543,7 @@
         <v>45978.39571759259</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36605,7 +36605,7 @@
         <v>45978.38915509259</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36667,7 +36667,7 @@
         <v>44911.36083333333</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36724,7 +36724,7 @@
         <v>45600.65686342592</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36781,7 +36781,7 @@
         <v>45649</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36838,7 +36838,7 @@
         <v>45533.41340277778</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36895,7 +36895,7 @@
         <v>45981.54328703704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36952,7 +36952,7 @@
         <v>45981.61557870371</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37009,7 +37009,7 @@
         <v>45320</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37066,7 +37066,7 @@
         <v>45756.38221064815</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37123,7 +37123,7 @@
         <v>44305</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37185,7 +37185,7 @@
         <v>45982.51814814815</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37247,7 +37247,7 @@
         <v>45925.63690972222</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37309,7 +37309,7 @@
         <v>45926.4177662037</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37371,7 +37371,7 @@
         <v>45912.50488425926</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37433,7 +37433,7 @@
         <v>45912.52225694444</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37495,7 +37495,7 @@
         <v>45915.45304398148</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37557,7 +37557,7 @@
         <v>45915.45480324074</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37619,7 +37619,7 @@
         <v>45922.48277777778</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37681,7 +37681,7 @@
         <v>45922.51021990741</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37743,7 +37743,7 @@
         <v>45922.63182870371</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37805,7 +37805,7 @@
         <v>45922.43664351852</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37867,7 +37867,7 @@
         <v>45922.47429398148</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37929,7 +37929,7 @@
         <v>45926.70542824074</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37991,7 +37991,7 @@
         <v>45911.68925925926</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38053,7 +38053,7 @@
         <v>45912.45679398148</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38115,7 +38115,7 @@
         <v>45925.6292824074</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38177,7 +38177,7 @@
         <v>45985.90016203704</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>45985.90041666666</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38301,7 +38301,7 @@
         <v>45912.50679398148</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38363,7 +38363,7 @@
         <v>45922.45283564815</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38425,7 +38425,7 @@
         <v>45922.62494212963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38487,7 +38487,7 @@
         <v>45911.66760416667</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38549,7 +38549,7 @@
         <v>45922.44605324074</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38611,7 +38611,7 @@
         <v>45922.47163194444</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38673,7 +38673,7 @@
         <v>45922.49119212963</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38735,7 +38735,7 @@
         <v>45987.54464120371</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38797,7 +38797,7 @@
         <v>45630.32444444444</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38854,7 +38854,7 @@
         <v>45926.71798611111</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38916,7 +38916,7 @@
         <v>45854.65872685185</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38978,7 +38978,7 @@
         <v>45896.38170138889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -39040,7 +39040,7 @@
         <v>45896.39373842593</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39102,7 +39102,7 @@
         <v>45911.63229166667</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39164,7 +39164,7 @@
         <v>45926.70128472222</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39226,7 +39226,7 @@
         <v>45120.29087962963</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39283,7 +39283,7 @@
         <v>45912.49040509259</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39345,7 +39345,7 @@
         <v>44319</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39402,7 +39402,7 @@
         <v>45574.64898148148</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39464,7 +39464,7 @@
         <v>45379.44809027778</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39526,7 +39526,7 @@
         <v>45312.89796296296</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39583,7 +39583,7 @@
         <v>45715.34081018518</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>45992.38846064815</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>45628.35456018519</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>45993.61978009259</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>45257.52494212963</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39878,7 +39878,7 @@
         <v>45992.39109953704</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>45720.48692129629</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39997,7 +39997,7 @@
         <v>46032.46388888889</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40054,7 +40054,7 @@
         <v>45643.34199074074</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40116,7 +40116,7 @@
         <v>45995.65537037037</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40178,7 +40178,7 @@
         <v>44651</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40240,7 +40240,7 @@
         <v>45404.47491898148</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40297,7 +40297,7 @@
         <v>45994.27650462963</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>45995.335625</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>45995.33622685185</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40478,7 +40478,7 @@
         <v>45182</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40540,7 +40540,7 @@
         <v>45995.6593287037</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40597,7 +40597,7 @@
         <v>45968</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40654,7 +40654,7 @@
         <v>45757.35831018518</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40711,7 +40711,7 @@
         <v>45995.66488425926</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40768,7 +40768,7 @@
         <v>45981</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40825,7 +40825,7 @@
         <v>45742.73994212963</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40882,7 +40882,7 @@
         <v>45539.6021875</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40939,7 +40939,7 @@
         <v>45660.44798611111</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40996,7 +40996,7 @@
         <v>46041.42920138889</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41053,7 +41053,7 @@
         <v>46041.43284722222</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41110,7 +41110,7 @@
         <v>46041.61865740741</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41167,7 +41167,7 @@
         <v>45999.62391203704</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41229,7 +41229,7 @@
         <v>46031</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41286,7 +41286,7 @@
         <v>46000.43332175926</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41343,7 +41343,7 @@
         <v>45673.85991898148</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41400,7 +41400,7 @@
         <v>45673.87116898148</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41457,7 +41457,7 @@
         <v>45646.5587037037</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41514,7 +41514,7 @@
         <v>46001.57627314814</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41576,7 +41576,7 @@
         <v>44853</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41633,7 +41633,7 @@
         <v>46003.41349537037</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41695,7 +41695,7 @@
         <v>44841</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41752,7 +41752,7 @@
         <v>46002.44396990741</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41809,7 +41809,7 @@
         <v>46045.64833333333</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41866,7 +41866,7 @@
         <v>46045.4365625</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41928,7 +41928,7 @@
         <v>45330.86684027778</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41985,7 +41985,7 @@
         <v>46045.43865740741</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42047,7 +42047,7 @@
         <v>46002.44233796297</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42104,7 +42104,7 @@
         <v>46002.44537037037</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42161,7 +42161,7 @@
         <v>46003.41318287037</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42223,7 +42223,7 @@
         <v>46001.78523148148</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42285,7 +42285,7 @@
         <v>46045.65126157407</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42342,7 +42342,7 @@
         <v>45695.40526620371</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42404,7 +42404,7 @@
         <v>45695</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42466,7 +42466,7 @@
         <v>45695</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42528,7 +42528,7 @@
         <v>45764.43357638889</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42585,7 +42585,7 @@
         <v>45764.43528935185</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42642,7 +42642,7 @@
         <v>45217.39167824074</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42699,7 +42699,7 @@
         <v>44616.3750462963</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42756,7 +42756,7 @@
         <v>46006.58587962963</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42818,7 +42818,7 @@
         <v>44876.38916666667</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42875,7 +42875,7 @@
         <v>44546</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42937,7 +42937,7 @@
         <v>46007.68518518518</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42994,7 +42994,7 @@
         <v>46001.78487268519</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43056,7 +43056,7 @@
         <v>44999.46983796296</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43113,7 +43113,7 @@
         <v>46007.71622685185</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43170,7 +43170,7 @@
         <v>44468.65246527778</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43232,7 +43232,7 @@
         <v>44294.64568287037</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43294,7 +43294,7 @@
         <v>44488.57009259259</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43351,7 +43351,7 @@
         <v>46050.55069444444</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43408,7 +43408,7 @@
         <v>44519.03226851852</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43465,7 +43465,7 @@
         <v>46008.57488425926</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43522,7 +43522,7 @@
         <v>45090.52650462963</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43579,7 +43579,7 @@
         <v>45090.52939814814</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43636,7 +43636,7 @@
         <v>46034</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43693,7 +43693,7 @@
         <v>46052.65056712963</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43755,7 +43755,7 @@
         <v>46052.67444444444</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43817,7 +43817,7 @@
         <v>44936</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43874,7 +43874,7 @@
         <v>46010.59050925926</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43936,7 +43936,7 @@
         <v>46052.38428240741</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43993,7 +43993,7 @@
         <v>46052.63857638889</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44055,7 +44055,7 @@
         <v>45726.50033564815</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44117,7 +44117,7 @@
         <v>45312.89391203703</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44174,7 +44174,7 @@
         <v>46052.62577546296</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44236,7 +44236,7 @@
         <v>45581.56543981482</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44298,7 +44298,7 @@
         <v>45218.67822916667</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44355,7 +44355,7 @@
         <v>45412</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44412,7 +44412,7 @@
         <v>46056.59990740741</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44469,7 +44469,7 @@
         <v>45512.43391203704</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44526,7 +44526,7 @@
         <v>46056.61979166666</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44583,7 +44583,7 @@
         <v>46033</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44640,7 +44640,7 @@
         <v>46037</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44697,7 +44697,7 @@
         <v>45595.67429398148</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44754,7 +44754,7 @@
         <v>44445.46751157408</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44816,7 +44816,7 @@
         <v>46041.70430555556</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44873,7 +44873,7 @@
         <v>45282</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44930,7 +44930,7 @@
         <v>45282</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44987,7 +44987,7 @@
         <v>45282</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45044,7 +45044,7 @@
         <v>46058.58331018518</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45101,7 +45101,7 @@
         <v>45398</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45163,7 +45163,7 @@
         <v>46059.56321759259</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45225,7 +45225,7 @@
         <v>46058.59615740741</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45282,7 +45282,7 @@
         <v>45182.56731481481</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45344,7 +45344,7 @@
         <v>44804.72409722222</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45401,7 +45401,7 @@
         <v>46056</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45458,7 +45458,7 @@
         <v>45581</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45520,7 +45520,7 @@
         <v>45590.45619212963</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45582,7 +45582,7 @@
         <v>44845</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45639,7 +45639,7 @@
         <v>45855.56597222222</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45696,7 +45696,7 @@
         <v>46021</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45753,7 +45753,7 @@
         <v>46019.84400462963</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45810,7 +45810,7 @@
         <v>45967.45105324074</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45867,7 +45867,7 @@
         <v>46021</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45924,7 +45924,7 @@
         <v>45932.5684375</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45981,7 +45981,7 @@
         <v>45932.61349537037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46038,7 +46038,7 @@
         <v>46063.55747685185</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46100,7 +46100,7 @@
         <v>46063.35994212963</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46157,7 +46157,7 @@
         <v>46020</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46214,7 +46214,7 @@
         <v>45644.59484953704</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46276,7 +46276,7 @@
         <v>46062.49643518519</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>46020</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46395,7 +46395,7 @@
         <v>45644.60451388889</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46457,7 +46457,7 @@
         <v>46019.83925925926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46514,7 +46514,7 @@
         <v>45908.51519675926</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46571,7 +46571,7 @@
         <v>45937.51259259259</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>45908.40347222222</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46685,7 +46685,7 @@
         <v>46051</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46747,7 +46747,7 @@
         <v>46020</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>46062.33466435185</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46866,7 +46866,7 @@
         <v>45937.44758101852</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46923,7 +46923,7 @@
         <v>46062.40657407408</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46985,7 +46985,7 @@
         <v>46062.42111111111</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47042,7 +47042,7 @@
         <v>46021</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>46021</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>44713</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47218,7 +47218,7 @@
         <v>46063.50179398148</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47280,7 +47280,7 @@
         <v>46062.2890625</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47337,7 +47337,7 @@
         <v>46051</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47399,7 +47399,7 @@
         <v>45245.44936342593</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47461,7 +47461,7 @@
         <v>45245</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47523,7 +47523,7 @@
         <v>46020</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47580,7 +47580,7 @@
         <v>45908.35809027778</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47637,7 +47637,7 @@
         <v>45931.59844907407</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47694,7 +47694,7 @@
         <v>46063</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47756,7 +47756,7 @@
         <v>45400.44844907407</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47813,7 +47813,7 @@
         <v>45932.5190162037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47870,7 +47870,7 @@
         <v>46022.58253472222</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47927,7 +47927,7 @@
         <v>46022</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47984,7 +47984,7 @@
         <v>46022</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48041,7 +48041,7 @@
         <v>46022</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>46065.67380787037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>44376</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>46022</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>45104.67638888889</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>46065.64013888889</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>46022</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48445,7 +48445,7 @@
         <v>46022</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48502,7 +48502,7 @@
         <v>44910</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>46063</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>46063</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48683,7 +48683,7 @@
         <v>46063</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48745,7 +48745,7 @@
         <v>45462.63016203704</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48802,7 +48802,7 @@
         <v>45660.35574074074</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48859,7 +48859,7 @@
         <v>45660.37127314815</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48916,7 +48916,7 @@
         <v>44741.57295138889</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48973,7 +48973,7 @@
         <v>45217.38545138889</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49030,7 +49030,7 @@
         <v>46069.50070601852</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49087,7 +49087,7 @@
         <v>46066.36740740741</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49144,7 +49144,7 @@
         <v>46069.49256944445</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49201,7 +49201,7 @@
         <v>46069.70851851852</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49258,7 +49258,7 @@
         <v>46066.41321759259</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49320,7 +49320,7 @@
         <v>45509.37269675926</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49377,7 +49377,7 @@
         <v>45719.54072916666</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49434,7 +49434,7 @@
         <v>45350.95267361111</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49491,7 +49491,7 @@
         <v>44498.8419212963</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49548,7 +49548,7 @@
         <v>46069.510625</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49605,7 +49605,7 @@
         <v>46064</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49667,7 +49667,7 @@
         <v>46045</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49724,7 +49724,7 @@
         <v>46029.43116898148</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49781,7 +49781,7 @@
         <v>45614.37862268519</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49838,7 +49838,7 @@
         <v>46070.65717592592</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49895,7 +49895,7 @@
         <v>46071.32976851852</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49952,7 +49952,7 @@
         <v>45029.62792824074</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50014,7 +50014,7 @@
         <v>45261</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50071,7 +50071,7 @@
         <v>44350.66420138889</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50133,7 +50133,7 @@
         <v>46051</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50190,7 +50190,7 @@
         <v>44294.3290625</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50247,7 +50247,7 @@
         <v>45019.47398148148</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50304,7 +50304,7 @@
         <v>46069</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50366,7 +50366,7 @@
         <v>44874</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50428,7 +50428,7 @@
         <v>45113</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50485,7 +50485,7 @@
         <v>46071.61324074074</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50547,7 +50547,7 @@
         <v>46073.62988425926</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50609,7 +50609,7 @@
         <v>46030.43628472222</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50666,7 +50666,7 @@
         <v>46031</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50723,7 +50723,7 @@
         <v>45070</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50780,7 +50780,7 @@
         <v>46072.58086805556</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50842,7 +50842,7 @@
         <v>46072.37966435185</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50904,7 +50904,7 @@
         <v>46057.56506944444</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -50961,7 +50961,7 @@
         <v>46031</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51018,7 +51018,7 @@
         <v>45026</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51075,7 +51075,7 @@
         <v>45467.40538194445</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51137,7 +51137,7 @@
         <v>46031</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51194,7 +51194,7 @@
         <v>46031.50412037037</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51251,7 +51251,7 @@
         <v>46052</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51308,7 +51308,7 @@
         <v>45702.51921296296</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51365,7 +51365,7 @@
         <v>45702.65013888889</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51427,7 +51427,7 @@
         <v>46057</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51484,7 +51484,7 @@
         <v>46031</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51541,7 +51541,7 @@
         <v>44539.56224537037</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51598,7 +51598,7 @@
         <v>46030.66337962963</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51655,7 +51655,7 @@
         <v>46072.72241898148</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51717,7 +51717,7 @@
         <v>45700.66565972222</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51779,7 +51779,7 @@
         <v>46030</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51836,7 +51836,7 @@
         <v>45726.58489583333</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51898,7 +51898,7 @@
         <v>46052</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -51955,7 +51955,7 @@
         <v>46053</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52012,7 +52012,7 @@
         <v>46003.4128587963</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52074,7 +52074,7 @@
         <v>45652.43678240741</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52131,7 +52131,7 @@
         <v>46030.35695601852</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52188,7 +52188,7 @@
         <v>46030.44226851852</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52245,7 +52245,7 @@
         <v>45695.40210648148</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52307,7 +52307,7 @@
         <v>44694</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52369,7 +52369,7 @@
         <v>44818</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52426,7 +52426,7 @@
         <v>44763</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52483,7 +52483,7 @@
         <v>45645.44195601852</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52545,7 +52545,7 @@
         <v>44579.98798611111</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52602,7 +52602,7 @@
         <v>45540</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52659,7 +52659,7 @@
         <v>45757.73100694444</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52716,7 +52716,7 @@
         <v>45757.74027777778</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52773,7 +52773,7 @@
         <v>45243</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52830,7 +52830,7 @@
         <v>44616.49033564814</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52887,7 +52887,7 @@
         <v>45735.41233796296</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -52944,7 +52944,7 @@
         <v>45106</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53001,7 +53001,7 @@
         <v>45014.63493055556</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53058,7 +53058,7 @@
         <v>45702.64880787037</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53120,7 +53120,7 @@
         <v>44790.59284722222</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53177,7 +53177,7 @@
         <v>45267</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53234,7 +53234,7 @@
         <v>45699.39001157408</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53291,7 +53291,7 @@
         <v>44446.30126157407</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53353,7 +53353,7 @@
         <v>45373.59789351852</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53410,7 +53410,7 @@
         <v>45737.54068287037</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53467,7 +53467,7 @@
         <v>44885</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53524,7 +53524,7 @@
         <v>45727.47241898148</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53581,7 +53581,7 @@
         <v>45282</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53638,7 +53638,7 @@
         <v>45107.60888888889</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53695,7 +53695,7 @@
         <v>45744.34733796296</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53757,7 +53757,7 @@
         <v>45555</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53819,7 +53819,7 @@
         <v>45082</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53876,7 +53876,7 @@
         <v>45034.52115740741</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -53938,7 +53938,7 @@
         <v>45775.40340277777</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -53995,7 +53995,7 @@
         <v>44973.42633101852</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54052,7 +54052,7 @@
         <v>45397</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54114,7 +54114,7 @@
         <v>44800</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54171,7 +54171,7 @@
         <v>45755.33472222222</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54228,7 +54228,7 @@
         <v>44279</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54285,7 +54285,7 @@
         <v>45621.44861111111</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54342,7 +54342,7 @@
         <v>45420</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54404,7 +54404,7 @@
         <v>45266.48171296297</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54461,7 +54461,7 @@
         <v>45414</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54518,7 +54518,7 @@
         <v>44967</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54580,7 +54580,7 @@
         <v>44922</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54637,7 +54637,7 @@
         <v>45631.52173611111</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54699,7 +54699,7 @@
         <v>45715.39962962963</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54756,7 +54756,7 @@
         <v>45266.36988425926</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54813,7 +54813,7 @@
         <v>45660.34046296297</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54870,7 +54870,7 @@
         <v>45519.56657407407</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -54927,7 +54927,7 @@
         <v>45146.63849537037</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -54984,7 +54984,7 @@
         <v>45740.58918981482</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55046,7 +55046,7 @@
         <v>45770.50553240741</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55103,7 +55103,7 @@
         <v>44586</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55165,7 +55165,7 @@
         <v>45705.36710648148</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55222,7 +55222,7 @@
         <v>45530.76390046296</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55279,7 +55279,7 @@
         <v>44927</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55336,7 +55336,7 @@
         <v>45574.65305555556</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55398,7 +55398,7 @@
         <v>44364.38038194444</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55460,7 +55460,7 @@
         <v>45608.62623842592</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55517,7 +55517,7 @@
         <v>45758.5408912037</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55574,7 +55574,7 @@
         <v>44767.55229166667</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55631,7 +55631,7 @@
         <v>44910</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55688,7 +55688,7 @@
         <v>45559</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55745,7 +55745,7 @@
         <v>45530</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55807,7 +55807,7 @@
         <v>45751</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55869,7 +55869,7 @@
         <v>45334.61027777778</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -55926,7 +55926,7 @@
         <v>45600.48091435185</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -55983,7 +55983,7 @@
         <v>45392.3412962963</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56040,7 +56040,7 @@
         <v>45231</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56102,7 +56102,7 @@
         <v>45756.3708912037</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56159,7 +56159,7 @@
         <v>45089.45114583334</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56216,7 +56216,7 @@
         <v>45700.64942129629</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56278,7 +56278,7 @@
         <v>44603.53943287037</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56335,7 +56335,7 @@
         <v>45176</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56392,7 +56392,7 @@
         <v>45176</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56449,7 +56449,7 @@
         <v>44959.72408564815</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56506,7 +56506,7 @@
         <v>45685.56496527778</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56563,7 +56563,7 @@
         <v>44600</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56625,7 +56625,7 @@
         <v>45660.42574074074</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56682,7 +56682,7 @@
         <v>45240.59244212963</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56739,7 +56739,7 @@
         <v>45712</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56801,7 +56801,7 @@
         <v>45744.37953703704</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56863,7 +56863,7 @@
         <v>45520.4345949074</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -56920,7 +56920,7 @@
         <v>45520.44162037037</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -56977,7 +56977,7 @@
         <v>45089.77170138889</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57039,7 +57039,7 @@
         <v>44973</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57096,7 +57096,7 @@
         <v>45702.65122685185</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57158,7 +57158,7 @@
         <v>45232.56643518519</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57220,7 +57220,7 @@
         <v>45686</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57282,7 +57282,7 @@
         <v>45749</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57339,7 +57339,7 @@
         <v>45090.53184027778</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57396,7 +57396,7 @@
         <v>45014</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57453,7 +57453,7 @@
         <v>45728.88731481481</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57510,7 +57510,7 @@
         <v>45530</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57572,7 +57572,7 @@
         <v>45306.58793981482</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57629,7 +57629,7 @@
         <v>45728.9183449074</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57686,7 +57686,7 @@
         <v>45272</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57743,7 +57743,7 @@
         <v>45386</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57805,7 +57805,7 @@
         <v>45523</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57862,7 +57862,7 @@
         <v>45533.52966435185</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -57944,7 +57944,7 @@
         <v>45744.43273148148</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58001,7 +58001,7 @@
         <v>45744.45096064815</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58058,7 +58058,7 @@
         <v>45582.5039699074</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58120,7 +58120,7 @@
         <v>45530.53810185185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58177,7 +58177,7 @@
         <v>45776.32197916666</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58234,7 +58234,7 @@
         <v>45726.57084490741</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58291,7 +58291,7 @@
         <v>45776.57601851852</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58348,7 +58348,7 @@
         <v>45776.57763888889</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58405,7 +58405,7 @@
         <v>45727.67243055555</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58462,7 +58462,7 @@
         <v>45580</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58524,7 +58524,7 @@
         <v>45770.35150462963</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58581,7 +58581,7 @@
         <v>45782.51104166666</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58638,7 +58638,7 @@
         <v>45702.46539351852</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58700,7 +58700,7 @@
         <v>45252.72782407407</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -58757,7 +58757,7 @@
         <v>45784.62677083333</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -58814,7 +58814,7 @@
         <v>45322.38930555555</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -58871,7 +58871,7 @@
         <v>45789.48466435185</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -58933,7 +58933,7 @@
         <v>45786.45901620371</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -58995,7 +58995,7 @@
         <v>45705.42418981482</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59057,7 +59057,7 @@
         <v>45791.58666666667</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59119,7 +59119,7 @@
         <v>45791.49224537037</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59176,7 +59176,7 @@
         <v>45790.38057870371</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59233,7 +59233,7 @@
         <v>45791.62157407407</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59290,7 +59290,7 @@
         <v>45791.60046296296</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59352,7 +59352,7 @@
         <v>45790.44008101852</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59409,7 +59409,7 @@
         <v>45792.62024305556</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59471,7 +59471,7 @@
         <v>45660.43380787037</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59533,7 +59533,7 @@
         <v>45792.61178240741</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59595,7 +59595,7 @@
         <v>45792.39951388889</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59652,7 +59652,7 @@
         <v>45797.37373842593</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59709,7 +59709,7 @@
         <v>45623</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -59766,7 +59766,7 @@
         <v>45797.35431712963</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -59823,7 +59823,7 @@
         <v>45797.37581018519</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -59880,7 +59880,7 @@
         <v>45594.36701388889</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -59942,7 +59942,7 @@
         <v>45797.36991898148</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -59999,7 +59999,7 @@
         <v>45632</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -60056,7 +60056,7 @@
         <v>45505.38290509259</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60113,7 +60113,7 @@
         <v>45798</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60170,7 +60170,7 @@
         <v>45798.58292824074</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60227,7 +60227,7 @@
         <v>45798.5837962963</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60284,7 +60284,7 @@
         <v>45800.64162037037</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60341,7 +60341,7 @@
         <v>45588.3656712963</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60403,7 +60403,7 @@
         <v>45800.64026620371</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60460,7 +60460,7 @@
         <v>44739.48752314815</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60517,7 +60517,7 @@
         <v>45804.49582175926</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60579,7 +60579,7 @@
         <v>45742.47987268519</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60641,7 +60641,7 @@
         <v>45742.54047453704</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -60703,7 +60703,7 @@
         <v>45813.61989583333</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -60760,7 +60760,7 @@
         <v>45813.53916666667</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -60817,7 +60817,7 @@
         <v>45813.56456018519</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -60874,7 +60874,7 @@
         <v>45817.60252314815</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -575,7 +575,7 @@
         <v>45741</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45821.41320601852</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>46014.59915509259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45302</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45926.61103009259</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>45926.61836805556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45019</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44390</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45966.64091435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>46052.66329861111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>45726.35946759259</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44840</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45593.66131944444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>45859.50240740741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45302</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45623.39265046296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45898.37387731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45825</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45825</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>46041.42127314815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45281</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>44418.43170138889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44323.59449074074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45338</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45884.44935185185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45898.59783564815</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>45903</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45912.42587962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>45936.57709490741</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44887</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>45324.5987037037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45994.49478009259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45737.38288194445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45107.56270833333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45281</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44658</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44272</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45512.47659722222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>45463.688125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>45884.44667824074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>45420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45730</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45818</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45604.55732638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45827.50162037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45833.70858796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45614.66019675926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>45924.59877314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45726.59087962963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44840</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>45820</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>45107.58261574074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>45964.64814814815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>45967.48527777778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45984.61032407408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>45440.65584490741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>45985.90067129629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>45631.52961805555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>46041.46563657407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>46000.42645833334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>46052.61196759259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45943.42305555556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44811</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>46079.62914351852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>45423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>45715.41275462963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>44876</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>44263</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>44342</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44308</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44519.0362962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44749.32502314815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44775</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44886.91054398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44284.57682870371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>44271</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44286.49304398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44370.63228009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44321.62322916667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44629.59020833333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>44805.45609953703</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>44351.60512731481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>44494</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>44735</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>44775.34788194444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>44286</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44462.64712962963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44258</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44573</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44663.44313657407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>44882.52832175926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44342.67332175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>44629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>44756.58375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>44813.51212962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>44300</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>44671.58972222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>44671.61422453704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44342.53046296296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>44459.46950231482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44437</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>44260</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44599</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44735.61905092592</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44270.69513888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44258</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44658</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44776</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44414</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44788.34717592593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44279.49376157407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44589.32091435185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44370.63998842592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44498.84503472222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44796.46392361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44720</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>44882.52335648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44785.60922453704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44845.5477662037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44439</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44882</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44272.65707175926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44369.35077546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44840</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44461</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44785.60788194444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44734.39373842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44308.72342592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44684.68034722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44795.57741898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44491</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>45715.39568287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>45715.39962962963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44305</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>45243.47311342593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>45232.56643518519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>45386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44862.61767361111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44356</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45467.40538194445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44445.46751157408</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>44364.38038194444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45261</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45138.52274305555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45400.44844907407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>44804.72409722222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>44300.80547453704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>45398</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>44876.38916666667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>45373.59789351852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>45756.38221064815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>44350.66420138889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>45574.64898148148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>45454.48969907407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>45257.52494212963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44498.8419212963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>45468.47575231481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>45454.49773148148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44823.600625</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44533</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45530.76390046296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>45586.55236111111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45511.55277777778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>45530</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>45632.48819444444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45658.82557870371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>44845</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>45644.60451388889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>45540</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>45540.36945601852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>45475.54822916666</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45884.45385416667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44889.4528125</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44517</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45884.44230324074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44988</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45884.43910879629</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>45884.45953703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>45884.55796296296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44585.3431712963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45884.38459490741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>45884.38775462963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>45884.39216435186</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45884.40722222222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>45742.47987268519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>45742.54047453704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45217.38545138889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45726.60840277778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>45742.37480324074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>45547.33135416666</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44959.72408564815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44693</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>45223.38060185185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>45740.49162037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45740.49421296296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45693.36196759259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45581.56543981482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45813.53916666667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45813.56456018519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45813.61989583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45889.45825231481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45030.43475694444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45019.47398148148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>45818</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45817.41371527778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45652.44746527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>45891.90513888889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44691</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45562</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45818.38121527778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45040.57936342592</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>45817.60252314815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>45819.59603009259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45665</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45891.61590277778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>45820.67806712963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>45819.4528125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>45595.64767361111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>45819.61737268518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44951.34615740741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44951</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>45324</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>45282</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45282</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45821.52070601852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45821.58282407407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>45895.42797453704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>45866</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45895.42366898148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45895</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45896.4344212963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45898.59780092593</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>45741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>45833</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>45897.3466550926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>45898.69194444444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45898.44236111111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>45898.39636574074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>45898.40085648148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>45897.5972337963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>45898.32689814815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45898.58056712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>45898.59614583333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>45898.43148148148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>45330.86684027778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>45898.33373842593</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>45898.63521990741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45827.47604166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>45827.480625</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45902.38427083333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45827.47753472222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>45827.47875</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>45798.58106481482</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>45805</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>45827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45792.43024305555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45485</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>45722.53859953704</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45749.48018518519</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45903.61480324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>45904.61524305555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>45904.57777777778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>45702.64880787037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45832.49621527778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44708</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>45903.61300925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>45699.3866087963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45798.59127314815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45832.37814814815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45905.59543981482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>45833.7067824074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>45082</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>45908.53729166667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>45834.39266203704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45764</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45462.63016203704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45833.7103125</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45695.40526620371</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45695</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>45695</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>45834.79965277778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45834.79741898148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45835.43945601852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45463.6169212963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45905.6455787037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45835.40670138889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>45614.37862268519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>45835.44109953703</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>45420</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44967</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>45614</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>45015</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45835.44465277778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45909.62013888889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45909.62787037037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>45908.68849537037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>45811.40111111111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>45909.61652777778</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>45909.62445601852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>45911.32895833333</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44319</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>45845.51532407408</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45643.34199074074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45845</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>45845.51070601852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>45784.64991898148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>45845.46960648148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>45845.50296296296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45089.45114583334</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45672.39145833333</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>45911.53071759259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>45848.47416666667</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>45848.53870370371</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45912.40079861111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>45912.40327546297</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44316</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44936.34145833334</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>44518</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>45848.56725694444</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>45084</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>45540.36526620371</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>45631.52173611111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45915.39278935185</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44922</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>45854.58831018519</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45089.5450462963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>45916.42255787037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>45854.58572916667</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>45915.53219907408</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>45915.57190972222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>45859.51940972222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45014.63493055556</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45862.64209490741</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45862.37017361111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45862.56378472222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45862.5516087963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45884.53402777778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45866.58483796296</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>45645.48956018518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>45463.68395833333</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45645.58155092593</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45866.55763888889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>45630.32444444444</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>45888.37780092593</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>45924.38379629629</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>45582.5039699074</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45867.58324074074</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45889.60938657408</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45630.46627314815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45924.39846064815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>45924.40840277778</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45924.41563657407</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45184.57194444445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44694</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>45923</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>45924.6084837963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>45923.83880787037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>45923.84063657407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45923.84163194444</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45923.84267361111</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45896.38710648148</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>45924.59583333333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>45869.58846064815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>45926.58541666667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>45869.42978009259</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>45925.61696759259</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>45869.57229166666</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>45869.46657407407</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>45712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>45869.57623842593</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45926.34630787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>44286</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>45869.42247685185</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
         <v>45869.54342592593</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>45869.57649305555</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>45926.59903935185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26331,7 +26331,7 @@
         <v>45632</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26388,7 +26388,7 @@
         <v>45926.64233796296</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>45926.65032407407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>45756.3708912037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>45660.35574074074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>45929.51549768518</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>45930.3779050926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45930.20606481482</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>45930.20905092593</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45728.9183449074</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45929.49503472223</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45726.58489583333</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44756.56537037037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44756.57232638889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45014.62342592593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>45932.34924768518</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45932.63305555555</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45873.39840277778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45700.66565972222</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45560</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44376</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45875.57041666667</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45705.40342592593</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45876.64011574074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45029.62792824074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45652.43678240741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>45932.62642361111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45932.64671296296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>45530</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45931.47070601852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45545</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>45720.48692129629</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45931.46113425926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>45720.64939814815</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>45740.44788194444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>45932.63021990741</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28448,7 +28448,7 @@
         <v>45089.77170138889</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>45881</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45685.56496527778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45715.39028935185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45933.5480787037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>45933.55273148148</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>45660.37127314815</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>45660.42574074074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>45176</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>45176</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>45884.43587962963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29100,7 +29100,7 @@
         <v>45884.39716435185</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45933.55248842593</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>45933.35684027777</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45936.57745370371</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45681.5280787037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45350.95267361111</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44973.42633101852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44589</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45904.58163194444</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45884.38178240741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45884.39984953704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>45933.63469907407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29829,7 +29829,7 @@
         <v>45884.3945949074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>45884.40300925926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>45243</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>45938.64211805556</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>45937.57569444444</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>45938.65038194445</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>45911.52769675926</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44539</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45884.45657407407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44817.43700231481</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45026</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>45916.46002314815</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>45939.38085648148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>45769.58547453704</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>45769.58668981482</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>45940.65795138889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>45929.49167824074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>45940.4696412037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45939.38144675926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45320</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45014</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45272</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45730.46855324074</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>45764.43357638889</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>45764.43528935185</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>45943.41519675926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45943.60822916667</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>45944.4678125</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>45944.55662037037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45727.47241898148</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45944.54185185185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45706.47894675926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45817.59769675926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45203</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45929.48061342593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45702.65013888889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>45945.48893518518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45070</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>45757.73100694444</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>45757.74027777778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>45090.52650462963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>45090.52939814814</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>45950</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>45757.35831018518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>45947.64190972222</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32541,7 +32541,7 @@
         <v>45272</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>45947.64260416666</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32660,7 +32660,7 @@
         <v>44874</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44867</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>45950.37114583333</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45947.63310185185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>45947.64216435186</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>45947.64292824074</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45950.74912037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45737.54068287037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45952.42771990741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45744.35600694444</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33255,7 +33255,7 @@
         <v>45334.61027777778</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33312,7 +33312,7 @@
         <v>45953.35465277778</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33369,7 +33369,7 @@
         <v>45953.3990162037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33431,7 +33431,7 @@
         <v>45953.38604166666</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33493,7 +33493,7 @@
         <v>45933.55215277777</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45107.60888888889</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45958.40640046296</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45742.73994212963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45957.4416550926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33793,7 +33793,7 @@
         <v>45957.58747685186</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
         <v>45526.39949074074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>45715.34081018518</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33969,7 +33969,7 @@
         <v>45957.67456018519</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>45953.45859953704</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>44446.30126157407</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45960.37989583334</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45957.45982638889</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45958.40583333333</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         <v>45645.45041666667</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>45672.38815972222</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45660</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>45660.44798611111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45719</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>45964.7172337963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>45964.47016203704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45947</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44935.38945601852</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45719</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>45965.58563657408</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>45726.50033564815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35174,7 +35174,7 @@
         <v>45966.60678240741</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>45965.79302083333</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>45967.44877314815</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>45162</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45600.65686342592</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35464,7 +35464,7 @@
         <v>45967.4753587963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35526,7 +35526,7 @@
         <v>45967.47635416667</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>45967.49037037037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35650,7 +35650,7 @@
         <v>45967.50736111111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>45968.59128472222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>45967.4759837963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35831,7 +35831,7 @@
         <v>45519.56657407407</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>45539.6021875</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35945,7 +35945,7 @@
         <v>45968.55811342593</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36007,7 +36007,7 @@
         <v>44910</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36064,7 +36064,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44885</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36178,7 +36178,7 @@
         <v>44445</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>44959</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>44959</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>45971.48042824074</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36406,7 +36406,7 @@
         <v>45974.58554398148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>45974.58813657407</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>45306.58793981482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>45974.58296296297</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36649,7 +36649,7 @@
         <v>45974.58350694444</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36711,7 +36711,7 @@
         <v>45974.58744212963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>45973</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>45973</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36897,7 +36897,7 @@
         <v>45974.58498842592</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>45161.58774305556</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37021,7 +37021,7 @@
         <v>44546</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37083,7 +37083,7 @@
         <v>45973</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37145,7 +37145,7 @@
         <v>45974.58145833333</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>45974.58606481482</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>45974.58680555555</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>45973</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>45973</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45104.67638888889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37517,7 +37517,7 @@
         <v>45978.39347222223</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37579,7 +37579,7 @@
         <v>45978.39571759259</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37641,7 +37641,7 @@
         <v>45414</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37698,7 +37698,7 @@
         <v>45755.33472222222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
         <v>45412</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>45978.38915509259</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37874,7 +37874,7 @@
         <v>45120.51550925926</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         <v>44637.36871527778</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37988,7 +37988,7 @@
         <v>45719.42697916667</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         <v>45719.44918981481</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38102,7 +38102,7 @@
         <v>44579.98798611111</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>45981.54328703704</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         <v>45324.60200231482</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>45182.56731481481</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>45981.61557870371</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>45982.51814814815</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38454,7 +38454,7 @@
         <v>45533.41340277778</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38511,7 +38511,7 @@
         <v>45580</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38573,7 +38573,7 @@
         <v>44585.59899305556</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38630,7 +38630,7 @@
         <v>45146.63849537037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38687,7 +38687,7 @@
         <v>45106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38744,7 +38744,7 @@
         <v>45985.90016203704</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>45985.90041666666</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38868,7 +38868,7 @@
         <v>45600.48091435185</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38925,7 +38925,7 @@
         <v>45523</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38982,7 +38982,7 @@
         <v>45660.41883101852</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39039,7 +39039,7 @@
         <v>45896.38170138889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>45926.70542824074</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45911.68925925926</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45922.48277777778</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>45912.45679398148</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45912.50679398148</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
         <v>45922.51021990741</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45922.63182870371</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39535,7 +39535,7 @@
         <v>45925.63690972222</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>45925.6292824074</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39659,7 +39659,7 @@
         <v>45911.66760416667</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45644.59484953704</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>45854.65872685185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>45915.45304398148</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         <v>45915.45480324074</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39969,7 +39969,7 @@
         <v>45922.45283564815</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40031,7 +40031,7 @@
         <v>45922.62494212963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40093,7 +40093,7 @@
         <v>45926.71798611111</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40155,7 +40155,7 @@
         <v>45912.50488425926</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40217,7 +40217,7 @@
         <v>45912.52225694444</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40279,7 +40279,7 @@
         <v>45926.70128472222</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40341,7 +40341,7 @@
         <v>45922.44605324074</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40403,7 +40403,7 @@
         <v>45922.47163194444</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40465,7 +40465,7 @@
         <v>45896.39373842593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45987.54464120371</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40589,7 +40589,7 @@
         <v>45926.4177662037</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40651,7 +40651,7 @@
         <v>45922.49119212963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45911.63229166667</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40775,7 +40775,7 @@
         <v>45912.49040509259</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40837,7 +40837,7 @@
         <v>45604.37246527777</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40899,7 +40899,7 @@
         <v>45922.43664351852</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40961,7 +40961,7 @@
         <v>45922.47429398148</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41023,7 +41023,7 @@
         <v>45673.55641203704</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41080,7 +41080,7 @@
         <v>45992.38846064815</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41137,7 +41137,7 @@
         <v>45104.50863425926</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45628.35456018519</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45992.39109953704</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41313,7 +41313,7 @@
         <v>45702.51921296296</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41370,7 +41370,7 @@
         <v>45993.61978009259</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41427,7 +41427,7 @@
         <v>45994.27650462963</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41484,7 +41484,7 @@
         <v>45995.66488425926</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41541,7 +41541,7 @@
         <v>45981</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41598,7 +41598,7 @@
         <v>45995.65537037037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41660,7 +41660,7 @@
         <v>46031</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41717,7 +41717,7 @@
         <v>45645.44195601852</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         <v>45995.33622685185</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45995.6593287037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45968</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>44763</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45995.335625</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45603.53780092593</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45420</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42198,7 +42198,7 @@
         <v>46041.42920138889</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>46041.43284722222</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>46041.61865740741</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45999.62391203704</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42431,7 +42431,7 @@
         <v>46000.43332175926</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42488,7 +42488,7 @@
         <v>45058.38581018519</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42545,7 +42545,7 @@
         <v>45356.36994212963</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42602,7 +42602,7 @@
         <v>45695.40210648148</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42664,7 +42664,7 @@
         <v>44586</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42726,7 +42726,7 @@
         <v>45512.43391203704</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42783,7 +42783,7 @@
         <v>45646.5587037037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42840,7 +42840,7 @@
         <v>46002.44233796297</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42897,7 +42897,7 @@
         <v>46002.44537037037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45735.41233796296</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43011,7 +43011,7 @@
         <v>44272.85908564815</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43073,7 +43073,7 @@
         <v>46002.44396990741</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43130,7 +43130,7 @@
         <v>45686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45686</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45547.48995370371</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>46001.57627314814</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>46001.78523148148</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>46045.43865740741</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>46003.41349537037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>46045.64833333333</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>46006.58587962963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43678,7 +43678,7 @@
         <v>46003.41318287037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43740,7 +43740,7 @@
         <v>45673.85991898148</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43797,7 +43797,7 @@
         <v>45673.87116898148</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43854,7 +43854,7 @@
         <v>46045.65126157407</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43911,7 +43911,7 @@
         <v>46045.4365625</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43973,7 +43973,7 @@
         <v>44684</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>45728.88731481481</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>45084.35936342592</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44149,7 +44149,7 @@
         <v>45715.41775462963</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44206,7 +44206,7 @@
         <v>45705.36710648148</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44263,7 +44263,7 @@
         <v>45090.53184027778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44320,7 +44320,7 @@
         <v>45740.58918981482</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44382,7 +44382,7 @@
         <v>45666.58805555556</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44439,7 +44439,7 @@
         <v>45700.64942129629</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44501,7 +44501,7 @@
         <v>45715.42604166667</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44558,7 +44558,7 @@
         <v>45632.48064814815</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44615,7 +44615,7 @@
         <v>44684</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45218.67822916667</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>46008.57488425926</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>44586</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>45702.65122685185</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44915,7 +44915,7 @@
         <v>46007.68518518518</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44972,7 +44972,7 @@
         <v>46001.78487268519</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45034,7 +45034,7 @@
         <v>45660.36721064815</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         <v>45666.58149305556</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45148,7 +45148,7 @@
         <v>45758.5408912037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45205,7 +45205,7 @@
         <v>45231</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45267,7 +45267,7 @@
         <v>46007.71622685185</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45324,7 +45324,7 @@
         <v>46050.55069444444</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45381,7 +45381,7 @@
         <v>45404.47491898148</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45438,7 +45438,7 @@
         <v>45700.54153935185</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45500,7 +45500,7 @@
         <v>45245.44936342593</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45562,7 +45562,7 @@
         <v>44347</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45624,7 +45624,7 @@
         <v>46010.59050925926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45686,7 +45686,7 @@
         <v>46052.62577546296</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45748,7 +45748,7 @@
         <v>44790.59284722222</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45805,7 +45805,7 @@
         <v>46052.63857638889</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45867,7 +45867,7 @@
         <v>46052.38428240741</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45924,7 +45924,7 @@
         <v>46052.65056712963</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         <v>46052.67444444444</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>46056.61979166666</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>44735.49341435185</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>44701</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>46056.59990740741</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>46058.58331018518</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>45420</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46400,7 +46400,7 @@
         <v>44741.57295138889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46457,7 +46457,7 @@
         <v>46058.59615740741</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46514,7 +46514,7 @@
         <v>46041.70430555556</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46571,7 +46571,7 @@
         <v>44800</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>46019.84400462963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46685,7 +46685,7 @@
         <v>45967.45105324074</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46742,7 +46742,7 @@
         <v>44904.63638888889</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45931.59844907407</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>46020</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>46020</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>46051</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47037,7 +47037,7 @@
         <v>46051</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>45937.44758101852</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>45855.56597222222</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>46019.83925925926</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>46062.40657407408</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>46062.49643518519</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45908.51519675926</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>45932.5684375</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>45932.61349537037</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         <v>45937.51259259259</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47622,7 +47622,7 @@
         <v>45267</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47679,7 +47679,7 @@
         <v>46020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47736,7 +47736,7 @@
         <v>45908.35809027778</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>46020</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>45908.40347222222</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>46062.33466435185</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>46056</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48026,7 +48026,7 @@
         <v>46059.56321759259</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48088,7 +48088,7 @@
         <v>45265.62027777778</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48145,7 +48145,7 @@
         <v>46063</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>46021</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>46022</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48321,7 +48321,7 @@
         <v>46063</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48383,7 +48383,7 @@
         <v>46022</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48440,7 +48440,7 @@
         <v>46022.58253472222</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48497,7 +48497,7 @@
         <v>46063.55747685185</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>44767.55229166667</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48616,7 +48616,7 @@
         <v>45769.58416666667</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48673,7 +48673,7 @@
         <v>46063.35994212963</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48730,7 +48730,7 @@
         <v>45715.40354166667</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48787,7 +48787,7 @@
         <v>46021</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48844,7 +48844,7 @@
         <v>46063</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48906,7 +48906,7 @@
         <v>46063</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48968,7 +48968,7 @@
         <v>46022</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49025,7 +49025,7 @@
         <v>46022</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49082,7 +49082,7 @@
         <v>46022</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49139,7 +49139,7 @@
         <v>46021</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49196,7 +49196,7 @@
         <v>45261</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49253,7 +49253,7 @@
         <v>46022</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49310,7 +49310,7 @@
         <v>46021</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49367,7 +49367,7 @@
         <v>46063.50179398148</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49429,7 +49429,7 @@
         <v>46065.64013888889</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49486,7 +49486,7 @@
         <v>45312.89391203703</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49543,7 +49543,7 @@
         <v>46066.36740740741</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49600,7 +49600,7 @@
         <v>46066.41321759259</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49662,7 +49662,7 @@
         <v>45932.5190162037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49719,7 +49719,7 @@
         <v>45533.52966435185</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>46065.67380787037</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45751</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>46069</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49982,7 +49982,7 @@
         <v>45740.65900462963</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>45742.42773148148</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50101,7 +50101,7 @@
         <v>45742.55755787037</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50158,7 +50158,7 @@
         <v>45744.43273148148</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50215,7 +50215,7 @@
         <v>45744.45096064815</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50272,7 +50272,7 @@
         <v>45282</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50329,7 +50329,7 @@
         <v>45282</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         <v>45744.34550925926</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50448,7 +50448,7 @@
         <v>45744.37953703704</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50510,7 +50510,7 @@
         <v>46070.65717592592</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50567,7 +50567,7 @@
         <v>46069.50070601852</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50624,7 +50624,7 @@
         <v>46069.70851851852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50681,7 +50681,7 @@
         <v>46064</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50743,7 +50743,7 @@
         <v>46069.510625</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50800,7 +50800,7 @@
         <v>46045</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50857,7 +50857,7 @@
         <v>45719.54072916666</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50914,7 +50914,7 @@
         <v>46069.49256944445</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50971,7 +50971,7 @@
         <v>46072.58086805556</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51033,7 +51033,7 @@
         <v>46030</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51090,7 +51090,7 @@
         <v>46030.66337962963</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51147,7 +51147,7 @@
         <v>46029.43116898148</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51204,7 +51204,7 @@
         <v>46030.43628472222</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51261,7 +51261,7 @@
         <v>46072.37966435185</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51323,7 +51323,7 @@
         <v>46071.61324074074</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51385,7 +51385,7 @@
         <v>46053</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51442,7 +51442,7 @@
         <v>46051</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         <v>46071.32976851852</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51556,7 +51556,7 @@
         <v>46030.44226851852</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51613,7 +51613,7 @@
         <v>45392.3412962963</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51670,7 +51670,7 @@
         <v>45401</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51727,7 +51727,7 @@
         <v>46030.35695601852</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51784,7 +51784,7 @@
         <v>45526.51855324074</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51846,7 +51846,7 @@
         <v>45645.9084375</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51903,7 +51903,7 @@
         <v>46076.40204861111</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51965,7 +51965,7 @@
         <v>46076.41836805556</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52022,7 +52022,7 @@
         <v>45574.65305555556</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52084,7 +52084,7 @@
         <v>46057.56506944444</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52141,7 +52141,7 @@
         <v>46076.54670138889</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52203,7 +52203,7 @@
         <v>46031</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52260,7 +52260,7 @@
         <v>44853</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         <v>46031</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52374,7 +52374,7 @@
         <v>46031.50412037037</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52431,7 +52431,7 @@
         <v>46076.58215277778</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52493,7 +52493,7 @@
         <v>46031</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52550,7 +52550,7 @@
         <v>45520.4345949074</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52607,7 +52607,7 @@
         <v>45520.44162037037</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52664,7 +52664,7 @@
         <v>46076.56271990741</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52726,7 +52726,7 @@
         <v>45509.37269675926</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52783,7 +52783,7 @@
         <v>46033</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52840,7 +52840,7 @@
         <v>45590.45619212963</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52902,7 +52902,7 @@
         <v>46032.46388888889</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52959,7 +52959,7 @@
         <v>46034</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53016,7 +53016,7 @@
         <v>45726.59032407407</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53073,7 +53073,7 @@
         <v>45726.59607638889</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53135,7 +53135,7 @@
         <v>46052</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53192,7 +53192,7 @@
         <v>46057</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53249,7 +53249,7 @@
         <v>45646.55134259259</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53306,7 +53306,7 @@
         <v>46073.62988425926</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53368,7 +53368,7 @@
         <v>46003.4128587963</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53430,7 +53430,7 @@
         <v>45611.59840277778</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53487,7 +53487,7 @@
         <v>46031</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53544,7 +53544,7 @@
         <v>46077.52202546296</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53606,7 +53606,7 @@
         <v>46077.53072916667</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53663,7 +53663,7 @@
         <v>46077.55472222222</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53725,7 +53725,7 @@
         <v>46072.72241898148</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53787,7 +53787,7 @@
         <v>44519.03226851852</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53844,7 +53844,7 @@
         <v>44603.53943287037</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         <v>44973</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53958,7 +53958,7 @@
         <v>46049</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54015,7 +54015,7 @@
         <v>46078.31721064815</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54072,7 +54072,7 @@
         <v>44845</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54129,7 +54129,7 @@
         <v>46077.51802083333</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54186,7 +54186,7 @@
         <v>44959.71658564815</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54243,7 +54243,7 @@
         <v>44911.36083333333</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54300,7 +54300,7 @@
         <v>46078.32486111111</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54357,7 +54357,7 @@
         <v>44735.61462962963</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54414,7 +54414,7 @@
         <v>44960.32700231481</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54476,7 +54476,7 @@
         <v>45534.43164351852</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54538,7 +54538,7 @@
         <v>46062</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         <v>46062</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54652,7 +54652,7 @@
         <v>46077.80501157408</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54714,7 +54714,7 @@
         <v>46077.80599537037</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54776,7 +54776,7 @@
         <v>46077.58010416666</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54838,7 +54838,7 @@
         <v>46078.31909722222</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54895,7 +54895,7 @@
         <v>46078.32142361111</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54952,7 +54952,7 @@
         <v>44693</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55014,7 +55014,7 @@
         <v>46079.66746527778</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55076,7 +55076,7 @@
         <v>45555</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55138,7 +55138,7 @@
         <v>46037</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55195,7 +55195,7 @@
         <v>45158.91878472222</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55252,7 +55252,7 @@
         <v>45158.94141203703</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55309,7 +55309,7 @@
         <v>44656</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55366,7 +55366,7 @@
         <v>46052</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55423,7 +55423,7 @@
         <v>44468.65246527778</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55485,7 +55485,7 @@
         <v>44278.52945601852</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55542,7 +55542,7 @@
         <v>45397</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55604,7 +55604,7 @@
         <v>46080.62556712963</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         <v>44694</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55728,7 +55728,7 @@
         <v>44651</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55790,7 +55790,7 @@
         <v>44616.49033564814</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55847,7 +55847,7 @@
         <v>45775.40340277777</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55904,7 +55904,7 @@
         <v>44962.43650462963</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55961,7 +55961,7 @@
         <v>45645.58069444444</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56018,7 +56018,7 @@
         <v>45245</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -56080,7 +56080,7 @@
         <v>45422</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56142,7 +56142,7 @@
         <v>44927</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56199,7 +56199,7 @@
         <v>45125.74876157408</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56256,7 +56256,7 @@
         <v>44928.52260416667</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56313,7 +56313,7 @@
         <v>45282</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56370,7 +56370,7 @@
         <v>44616.3750462963</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56427,7 +56427,7 @@
         <v>45146.6455787037</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56484,7 +56484,7 @@
         <v>44466.43295138889</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         <v>45034.52115740741</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56608,7 +56608,7 @@
         <v>44294.64568287037</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56670,7 +56670,7 @@
         <v>45120.29087962963</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56727,7 +56727,7 @@
         <v>44942.47491898148</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56784,7 +56784,7 @@
         <v>44279</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56841,7 +56841,7 @@
         <v>44349.48065972222</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56903,7 +56903,7 @@
         <v>45162.60410879629</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56960,7 +56960,7 @@
         <v>45312.93891203704</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57017,7 +57017,7 @@
         <v>45674.34046296297</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -57074,7 +57074,7 @@
         <v>45608.62623842592</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57131,7 +57131,7 @@
         <v>45706</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57188,7 +57188,7 @@
         <v>44951.33599537037</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57250,7 +57250,7 @@
         <v>45468.47239583333</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57312,7 +57312,7 @@
         <v>45379.44809027778</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57374,7 +57374,7 @@
         <v>45559</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57431,7 +57431,7 @@
         <v>45084</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57488,7 +57488,7 @@
         <v>45771</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>44539.56224537037</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45770.50553240741</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>44294.3290625</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45240.59244212963</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>44733.45824074074</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57840,7 +57840,7 @@
         <v>45217.39167824074</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45593.71982638889</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57954,7 +57954,7 @@
         <v>45632.47849537037</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -58011,7 +58011,7 @@
         <v>45182</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58073,7 +58073,7 @@
         <v>45649</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58130,7 +58130,7 @@
         <v>45645.90335648148</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58187,7 +58187,7 @@
         <v>45726.49440972223</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45644.38703703704</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58311,7 +58311,7 @@
         <v>45586.58848379629</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58373,7 +58373,7 @@
         <v>44818</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58430,7 +58430,7 @@
         <v>45168.92969907408</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58492,7 +58492,7 @@
         <v>45699.39001157408</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58549,7 +58549,7 @@
         <v>45749</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58606,7 +58606,7 @@
         <v>44756.57740740741</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58663,7 +58663,7 @@
         <v>45530.51480324074</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58720,7 +58720,7 @@
         <v>44600</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58782,7 +58782,7 @@
         <v>45720.51222222222</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -58839,7 +58839,7 @@
         <v>45267</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -58896,7 +58896,7 @@
         <v>45775.42958333333</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -58953,7 +58953,7 @@
         <v>45621.44861111111</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -59010,7 +59010,7 @@
         <v>45684.67659722222</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -59067,7 +59067,7 @@
         <v>44488.57009259259</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59124,7 +59124,7 @@
         <v>45530</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         <v>45744.34733796296</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59248,7 +59248,7 @@
         <v>45266.48171296297</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59305,7 +59305,7 @@
         <v>45312.89796296296</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59362,7 +59362,7 @@
         <v>45530.53810185185</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         <v>45440.67074074074</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59476,7 +59476,7 @@
         <v>44999.46983796296</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59533,7 +59533,7 @@
         <v>45266.36988425926</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59590,7 +59590,7 @@
         <v>45660.34046296297</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59647,7 +59647,7 @@
         <v>45595.67429398148</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59704,7 +59704,7 @@
         <v>45580</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59766,7 +59766,7 @@
         <v>45776.57763888889</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -59823,7 +59823,7 @@
         <v>45776.32197916666</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -59880,7 +59880,7 @@
         <v>45776.57601851852</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -59937,7 +59937,7 @@
         <v>45727.67243055555</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -59994,7 +59994,7 @@
         <v>45726.57084490741</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -60051,7 +60051,7 @@
         <v>45782.51104166666</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -60108,7 +60108,7 @@
         <v>45770.35150462963</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60165,7 +60165,7 @@
         <v>45252.72782407407</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60222,7 +60222,7 @@
         <v>45784.62677083333</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60279,7 +60279,7 @@
         <v>45705.42418981482</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60341,7 +60341,7 @@
         <v>45786.45901620371</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60403,7 +60403,7 @@
         <v>45702.46539351852</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60465,7 +60465,7 @@
         <v>45322.38930555555</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60522,7 +60522,7 @@
         <v>45789.48466435185</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60584,7 +60584,7 @@
         <v>45790.44008101852</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60641,7 +60641,7 @@
         <v>45790.38057870371</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60698,7 +60698,7 @@
         <v>45660.43380787037</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -60760,7 +60760,7 @@
         <v>45792.39951388889</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -60817,7 +60817,7 @@
         <v>45791.62157407407</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -60874,7 +60874,7 @@
         <v>45792.62024305556</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -60936,7 +60936,7 @@
         <v>45791.60046296296</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -60998,7 +60998,7 @@
         <v>45791.58666666667</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -61060,7 +61060,7 @@
         <v>45791.49224537037</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -61117,7 +61117,7 @@
         <v>45792.61178240741</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -61179,7 +61179,7 @@
         <v>45594.36701388889</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -61241,7 +61241,7 @@
         <v>45623</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -61298,7 +61298,7 @@
         <v>45632</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -61355,7 +61355,7 @@
         <v>45798.5837962963</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -61412,7 +61412,7 @@
         <v>45797.36991898148</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -61469,7 +61469,7 @@
         <v>45798</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -61526,7 +61526,7 @@
         <v>45798.58292824074</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -61583,7 +61583,7 @@
         <v>45797.35431712963</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -61640,7 +61640,7 @@
         <v>45797.37581018519</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -61697,7 +61697,7 @@
         <v>45797.37373842593</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -61754,7 +61754,7 @@
         <v>45505.38290509259</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -61811,7 +61811,7 @@
         <v>45800.64162037037</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -61868,7 +61868,7 @@
         <v>45800.64026620371</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -61925,7 +61925,7 @@
         <v>44739.48752314815</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -61982,7 +61982,7 @@
         <v>45588.3656712963</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -62044,7 +62044,7 @@
         <v>45804.49582175926</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>

--- a/Översikt GÄVLE.xlsx
+++ b/Översikt GÄVLE.xlsx
@@ -575,7 +575,7 @@
         <v>45741</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45821.41320601852</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>46014.59915509259</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>45302</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -976,7 +976,7 @@
         <v>45926.61103009259</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
         <v>45926.61836805556</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
         <v>45848</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45019</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>44390</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>45966.64091435185</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>46052.66329861111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>45715</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
         <v>45726.35946759259</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1845,7 +1845,7 @@
         <v>44840</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>45593.66131944444</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
         <v>45842</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>45859.50240740741</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2212,7 +2212,7 @@
         <v>45302</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45623.39265046296</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2398,7 +2398,7 @@
         <v>45898.37387731481</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2490,7 +2490,7 @@
         <v>45825</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2582,7 +2582,7 @@
         <v>45825</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         <v>46041.42127314815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>45281</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>44418.43170138889</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>44323.59449074074</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3038,7 +3038,7 @@
         <v>45338</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         <v>45884.44935185185</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3219,7 +3219,7 @@
         <v>45898.59783564815</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>45903</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         <v>45912.42587962963</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>45936.57709490741</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>44887</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         <v>45324.5987037037</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3763,7 +3763,7 @@
         <v>45994.49478009259</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3853,7 +3853,7 @@
         <v>45737.38288194445</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45107.56270833333</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4038,7 +4038,7 @@
         <v>45281</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4124,7 +4124,7 @@
         <v>44658</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44272</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>45512.47659722222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4388,7 +4388,7 @@
         <v>45463.688125</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>45120</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>45884.44667824074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4648,7 +4648,7 @@
         <v>45420</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         <v>45730</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         <v>45818</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45604.55732638889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5003,7 +5003,7 @@
         <v>45827.50162037037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45693</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
         <v>45833.70858796296</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5262,7 +5262,7 @@
         <v>45614.66019675926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5352,7 +5352,7 @@
         <v>45924.59877314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45726.59087962963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5531,7 +5531,7 @@
         <v>44840</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>45820</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5711,7 +5711,7 @@
         <v>45107.58261574074</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>45964.64814814815</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>45967.48527777778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45984.61032407408</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         <v>45440.65584490741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>45985.90067129629</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6244,7 +6244,7 @@
         <v>45631.52961805555</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>46041.46563657407</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6423,7 +6423,7 @@
         <v>46000.42645833334</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>46052.61196759259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6593,7 +6593,7 @@
         <v>44790</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6678,7 +6678,7 @@
         <v>45943.42305555556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>44811</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
         <v>46079.62914351852</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6946,7 +6946,7 @@
         <v>45423</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>45715.41275462963</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7121,7 +7121,7 @@
         <v>44876</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7183,7 +7183,7 @@
         <v>44263</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7240,7 +7240,7 @@
         <v>44342</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>44308</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         <v>44519.0362962963</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7416,7 +7416,7 @@
         <v>44749.32502314815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7473,7 +7473,7 @@
         <v>44775</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7530,7 +7530,7 @@
         <v>44886.91054398148</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7587,7 +7587,7 @@
         <v>44284.57682870371</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7649,7 +7649,7 @@
         <v>44271</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>44286.49304398148</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44370.63228009259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44321.62322916667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>44629.59020833333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>44805.45609953703</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         <v>44351.60512731481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8058,7 +8058,7 @@
         <v>44494</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8115,7 +8115,7 @@
         <v>44735</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8172,7 +8172,7 @@
         <v>44775.34788194444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8229,7 +8229,7 @@
         <v>44286</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         <v>44462.64712962963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         <v>44258</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         <v>44573</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         <v>44663.44313657407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         <v>44882.52832175926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         <v>44342.67332175926</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8633,7 +8633,7 @@
         <v>44629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8690,7 +8690,7 @@
         <v>44756.58375</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8747,7 +8747,7 @@
         <v>44813.51212962963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>44300</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>44671.58972222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>44671.61422453704</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8990,7 +8990,7 @@
         <v>44342.53046296296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -9052,7 +9052,7 @@
         <v>44459.46950231482</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9109,7 +9109,7 @@
         <v>44437</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9166,7 +9166,7 @@
         <v>44260</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44599</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44735.61905092592</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44270.69513888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44258</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9451,7 +9451,7 @@
         <v>44658</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44776</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9575,7 +9575,7 @@
         <v>44571</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9632,7 +9632,7 @@
         <v>44414</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9694,7 +9694,7 @@
         <v>44788.34717592593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9756,7 +9756,7 @@
         <v>44279.49376157407</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9818,7 +9818,7 @@
         <v>44589.32091435185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9875,7 +9875,7 @@
         <v>44370.63998842592</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9937,7 +9937,7 @@
         <v>44498.84503472222</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9994,7 +9994,7 @@
         <v>44796.46392361111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44720</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10118,7 +10118,7 @@
         <v>44882.52335648148</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44785.60922453704</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10232,7 +10232,7 @@
         <v>44599</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10289,7 +10289,7 @@
         <v>44845.5477662037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44439</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44448</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44882</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44272.65707175926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44369.35077546296</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10641,7 +10641,7 @@
         <v>44840</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44461</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10765,7 +10765,7 @@
         <v>44785.60788194444</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10822,7 +10822,7 @@
         <v>44734.39373842593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10879,7 +10879,7 @@
         <v>44308.72342592593</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10936,7 +10936,7 @@
         <v>44684.68034722222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44795.57741898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -11050,7 +11050,7 @@
         <v>44491</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11107,7 +11107,7 @@
         <v>45715.39568287037</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11164,7 +11164,7 @@
         <v>45715.39962962963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11221,7 +11221,7 @@
         <v>44305</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11283,7 +11283,7 @@
         <v>45243.47311342593</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11340,7 +11340,7 @@
         <v>45232.56643518519</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11402,7 +11402,7 @@
         <v>45386</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11464,7 +11464,7 @@
         <v>44862.61767361111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11521,7 +11521,7 @@
         <v>44356</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11578,7 +11578,7 @@
         <v>45467.40538194445</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44445.46751157408</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>44364.38038194444</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11764,7 +11764,7 @@
         <v>45261</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>45138.52274305555</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>45436</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>45400.44844907407</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11992,7 +11992,7 @@
         <v>44804.72409722222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -12049,7 +12049,7 @@
         <v>44300.80547453704</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -12106,7 +12106,7 @@
         <v>45398</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12168,7 +12168,7 @@
         <v>44876.38916666667</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12225,7 +12225,7 @@
         <v>45373.59789351852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12282,7 +12282,7 @@
         <v>45756.38221064815</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12339,7 +12339,7 @@
         <v>44841</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         <v>44350.66420138889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12458,7 +12458,7 @@
         <v>45454</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12515,7 +12515,7 @@
         <v>45574.64898148148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12577,7 +12577,7 @@
         <v>45454.48969907407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12634,7 +12634,7 @@
         <v>45257.52494212963</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12696,7 +12696,7 @@
         <v>44498.8419212963</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12753,7 +12753,7 @@
         <v>45468.47575231481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12815,7 +12815,7 @@
         <v>45454.49773148148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44823.600625</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12929,7 +12929,7 @@
         <v>44533</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>44942</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45530.76390046296</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>45586.55236111111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44936</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45511.55277777778</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13281,7 +13281,7 @@
         <v>45530</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13343,7 +13343,7 @@
         <v>45632.48819444444</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13400,7 +13400,7 @@
         <v>45658.82557870371</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13457,7 +13457,7 @@
         <v>44845</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13514,7 +13514,7 @@
         <v>45644.60451388889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13576,7 +13576,7 @@
         <v>45540</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13633,7 +13633,7 @@
         <v>45540.36945601852</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13690,7 +13690,7 @@
         <v>45475.54822916666</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13747,7 +13747,7 @@
         <v>45884.45385416667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13809,7 +13809,7 @@
         <v>44889.4528125</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44517</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13933,7 +13933,7 @@
         <v>45884.44230324074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13995,7 +13995,7 @@
         <v>44988</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -14057,7 +14057,7 @@
         <v>45884.43910879629</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>45884.45953703704</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14181,7 +14181,7 @@
         <v>45884.55796296296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14243,7 +14243,7 @@
         <v>44585.3431712963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>45884.38459490741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>45884.38775462963</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14424,7 +14424,7 @@
         <v>45884.39216435186</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>45884.40722222222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14548,7 +14548,7 @@
         <v>45742.47987268519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14610,7 +14610,7 @@
         <v>45742.54047453704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45217.38545138889</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45726.60840277778</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>45742.37480324074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>45547.33135416666</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
         <v>44959.72408564815</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14962,7 +14962,7 @@
         <v>44693</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -15024,7 +15024,7 @@
         <v>45223.38060185185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -15081,7 +15081,7 @@
         <v>45740.49162037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>45740.49421296296</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>45693.36196759259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45581.56543981482</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15329,7 +15329,7 @@
         <v>45813.53916666667</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45813.56456018519</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15443,7 +15443,7 @@
         <v>45813.61989583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>45889.45825231481</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15562,7 +15562,7 @@
         <v>45030.43475694444</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15624,7 +15624,7 @@
         <v>45019.47398148148</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15681,7 +15681,7 @@
         <v>45818</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15743,7 +15743,7 @@
         <v>45817.41371527778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15805,7 +15805,7 @@
         <v>45652.44746527778</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15862,7 +15862,7 @@
         <v>44735</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15919,7 +15919,7 @@
         <v>45891.90513888889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15981,7 +15981,7 @@
         <v>44691</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -16038,7 +16038,7 @@
         <v>45562</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -16095,7 +16095,7 @@
         <v>45818.38121527778</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>45040.57936342592</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>45817.60252314815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>45819.59603009259</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45665</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45891.61590277778</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>45820.67806712963</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         <v>45819.4528125</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>45595.64767361111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         <v>45819.61737268518</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44951.34615740741</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44951</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16809,7 +16809,7 @@
         <v>45324</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16866,7 +16866,7 @@
         <v>45282</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45282</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>45821.52070601852</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -17037,7 +17037,7 @@
         <v>45821.58282407407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -17094,7 +17094,7 @@
         <v>45741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -17151,7 +17151,7 @@
         <v>45895.42797453704</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -17213,7 +17213,7 @@
         <v>45866</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17270,7 +17270,7 @@
         <v>45895.42366898148</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17332,7 +17332,7 @@
         <v>45895</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45896.4344212963</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45898.59780092593</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>45741</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>45833</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17627,7 +17627,7 @@
         <v>45897.3466550926</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17684,7 +17684,7 @@
         <v>45898.69194444444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17746,7 +17746,7 @@
         <v>45898.44236111111</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17803,7 +17803,7 @@
         <v>45898.39636574074</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17865,7 +17865,7 @@
         <v>45898.40085648148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>45897.5972337963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>45898.32689814815</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44713</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45898.58056712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -18170,7 +18170,7 @@
         <v>45898.59614583333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -18232,7 +18232,7 @@
         <v>45882</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>45898.43148148148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18356,7 +18356,7 @@
         <v>45330.86684027778</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18413,7 +18413,7 @@
         <v>45898.33373842593</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>45898.63521990741</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>45827.47604166667</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>45827.480625</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45902.38427083333</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18713,7 +18713,7 @@
         <v>45827.47753472222</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18770,7 +18770,7 @@
         <v>45827.47875</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18827,7 +18827,7 @@
         <v>45798.58106481482</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18884,7 +18884,7 @@
         <v>45805</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18941,7 +18941,7 @@
         <v>45827</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18998,7 +18998,7 @@
         <v>45581</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -19060,7 +19060,7 @@
         <v>45792.43024305555</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -19117,7 +19117,7 @@
         <v>45485</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -19179,7 +19179,7 @@
         <v>45722.53859953704</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45749.48018518519</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45903.61480324074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19355,7 +19355,7 @@
         <v>45904.61524305555</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19417,7 +19417,7 @@
         <v>45904.57777777778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19474,7 +19474,7 @@
         <v>45702.64880787037</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45832.49621527778</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19593,7 +19593,7 @@
         <v>44708</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19650,7 +19650,7 @@
         <v>45903.61300925926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19707,7 +19707,7 @@
         <v>45699.3866087963</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19764,7 +19764,7 @@
         <v>45798.59127314815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19821,7 +19821,7 @@
         <v>45832.37814814815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19878,7 +19878,7 @@
         <v>45905.59543981482</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19940,7 +19940,7 @@
         <v>45833.7067824074</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19997,7 +19997,7 @@
         <v>45082</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -20054,7 +20054,7 @@
         <v>45908.53729166667</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -20116,7 +20116,7 @@
         <v>45834.39266203704</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -20173,7 +20173,7 @@
         <v>45764</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45462.63016203704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -20292,7 +20292,7 @@
         <v>45833.7103125</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>45695.40526620371</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>45695</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20473,7 +20473,7 @@
         <v>45695</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20535,7 +20535,7 @@
         <v>45834.79965277778</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20592,7 +20592,7 @@
         <v>45834.79741898148</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20649,7 +20649,7 @@
         <v>45835.43945601852</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20706,7 +20706,7 @@
         <v>45463.6169212963</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20768,7 +20768,7 @@
         <v>45905.6455787037</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20830,7 +20830,7 @@
         <v>45835.40670138889</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20887,7 +20887,7 @@
         <v>45614.37862268519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20944,7 +20944,7 @@
         <v>45835.44109953703</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -21001,7 +21001,7 @@
         <v>45420</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -21063,7 +21063,7 @@
         <v>44967</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -21125,7 +21125,7 @@
         <v>45614</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -21187,7 +21187,7 @@
         <v>45015</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -21249,7 +21249,7 @@
         <v>45835.44465277778</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -21306,7 +21306,7 @@
         <v>45034</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -21363,7 +21363,7 @@
         <v>45909.62013888889</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21425,7 +21425,7 @@
         <v>45909.62787037037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21487,7 +21487,7 @@
         <v>45908.68849537037</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
         <v>45811.40111111111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21606,7 +21606,7 @@
         <v>45909.61652777778</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21668,7 +21668,7 @@
         <v>45909.62445601852</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21730,7 +21730,7 @@
         <v>45911.32895833333</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21787,7 +21787,7 @@
         <v>44319</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21844,7 +21844,7 @@
         <v>45845.51532407408</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21901,7 +21901,7 @@
         <v>45643.34199074074</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21963,7 +21963,7 @@
         <v>45845</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -22020,7 +22020,7 @@
         <v>45845.51070601852</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -22077,7 +22077,7 @@
         <v>45784.64991898148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -22134,7 +22134,7 @@
         <v>45845.46960648148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -22196,7 +22196,7 @@
         <v>45845.50296296296</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -22253,7 +22253,7 @@
         <v>45089.45114583334</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -22310,7 +22310,7 @@
         <v>45672.39145833333</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -22372,7 +22372,7 @@
         <v>45911.53071759259</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22434,7 +22434,7 @@
         <v>45848.47416666667</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22491,7 +22491,7 @@
         <v>45848.53870370371</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22548,7 +22548,7 @@
         <v>45912.40079861111</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22605,7 +22605,7 @@
         <v>45912.40327546297</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22662,7 +22662,7 @@
         <v>44316</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44936.34145833334</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22781,7 +22781,7 @@
         <v>44518</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22838,7 +22838,7 @@
         <v>45848.56725694444</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22895,7 +22895,7 @@
         <v>45084</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22952,7 +22952,7 @@
         <v>45540.36526620371</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -23009,7 +23009,7 @@
         <v>45631.52173611111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -23071,7 +23071,7 @@
         <v>45915.39278935185</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -23128,7 +23128,7 @@
         <v>44922</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -23185,7 +23185,7 @@
         <v>45854.58831018519</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -23242,7 +23242,7 @@
         <v>45089.5450462963</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -23299,7 +23299,7 @@
         <v>45916.42255787037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -23356,7 +23356,7 @@
         <v>45854.58572916667</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23413,7 +23413,7 @@
         <v>45915.53219907408</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23470,7 +23470,7 @@
         <v>45915.57190972222</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23532,7 +23532,7 @@
         <v>45859.51940972222</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23594,7 +23594,7 @@
         <v>45014.63493055556</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23651,7 +23651,7 @@
         <v>45862.64209490741</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23713,7 +23713,7 @@
         <v>45862.37017361111</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23770,7 +23770,7 @@
         <v>45862.56378472222</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23827,7 +23827,7 @@
         <v>45862.5516087963</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23884,7 +23884,7 @@
         <v>45884.53402777778</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23941,7 +23941,7 @@
         <v>45866.58483796296</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -24003,7 +24003,7 @@
         <v>45645.48956018518</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>45113</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>45463.68395833333</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>45645.58155092593</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>45866.55763888889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -24303,7 +24303,7 @@
         <v>45630.32444444444</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -24360,7 +24360,7 @@
         <v>45888.37780092593</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -24417,7 +24417,7 @@
         <v>45924.38379629629</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24479,7 +24479,7 @@
         <v>45582.5039699074</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>45867.58324074074</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>45889.60938657408</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>45630.46627314815</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>45924.39846064815</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24774,7 +24774,7 @@
         <v>45924.40840277778</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24836,7 +24836,7 @@
         <v>45924.41563657407</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24898,7 +24898,7 @@
         <v>45184.57194444445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24955,7 +24955,7 @@
         <v>44694</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>45923</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>45924.6084837963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -25136,7 +25136,7 @@
         <v>45923.83880787037</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -25198,7 +25198,7 @@
         <v>45923.84063657407</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -25260,7 +25260,7 @@
         <v>45923.84163194444</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -25322,7 +25322,7 @@
         <v>45923.84267361111</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -25384,7 +25384,7 @@
         <v>45896.38710648148</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>45924.59583333333</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>45869.58846064815</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>45926.58541666667</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>45869.42978009259</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25674,7 +25674,7 @@
         <v>45925.61696759259</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25736,7 +25736,7 @@
         <v>45869.57229166666</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25798,7 +25798,7 @@
         <v>45869.46657407407</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25855,7 +25855,7 @@
         <v>45712</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25917,7 +25917,7 @@
         <v>45869.57623842593</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25979,7 +25979,7 @@
         <v>45926.34630787037</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>44286</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>45869.42247685185</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -26160,7 +26160,7 @@
         <v>45869.54342592593</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -26217,7 +26217,7 @@
         <v>45869.57649305555</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -26274,7 +26274,7 @@
         <v>45926.59903935185</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -26331,7 +26331,7 @@
         <v>45632</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -26388,7 +26388,7 @@
         <v>45926.64233796296</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -26450,7 +26450,7 @@
         <v>45926.65032407407</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26512,7 +26512,7 @@
         <v>45756.3708912037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26569,7 +26569,7 @@
         <v>45660.35574074074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26626,7 +26626,7 @@
         <v>45929.51549768518</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26683,7 +26683,7 @@
         <v>45930.3779050926</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26740,7 +26740,7 @@
         <v>45930.20606481482</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26797,7 +26797,7 @@
         <v>45930.20905092593</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26854,7 +26854,7 @@
         <v>45728.9183449074</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26911,7 +26911,7 @@
         <v>45929.49503472223</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26968,7 +26968,7 @@
         <v>45726.58489583333</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -27030,7 +27030,7 @@
         <v>44756.56537037037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -27087,7 +27087,7 @@
         <v>44756.57232638889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -27144,7 +27144,7 @@
         <v>45014.62342592593</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -27201,7 +27201,7 @@
         <v>45932.34924768518</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -27263,7 +27263,7 @@
         <v>45932.63305555555</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -27320,7 +27320,7 @@
         <v>45873.39840277778</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -27382,7 +27382,7 @@
         <v>45700.66565972222</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -27444,7 +27444,7 @@
         <v>45560</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27501,7 +27501,7 @@
         <v>44376</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27558,7 +27558,7 @@
         <v>45875.57041666667</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27620,7 +27620,7 @@
         <v>45705.40342592593</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27677,7 +27677,7 @@
         <v>45876.64011574074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27739,7 +27739,7 @@
         <v>45029.62792824074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27801,7 +27801,7 @@
         <v>45652.43678240741</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27858,7 +27858,7 @@
         <v>45932.62642361111</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27915,7 +27915,7 @@
         <v>45932.64671296296</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27972,7 +27972,7 @@
         <v>45530</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45931.47070601852</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -28091,7 +28091,7 @@
         <v>45545</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>45720.48692129629</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45931.46113425926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -28272,7 +28272,7 @@
         <v>45720.64939814815</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -28329,7 +28329,7 @@
         <v>45740.44788194444</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -28391,7 +28391,7 @@
         <v>45932.63021990741</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -28448,7 +28448,7 @@
         <v>45089.77170138889</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28510,7 +28510,7 @@
         <v>45881</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28572,7 +28572,7 @@
         <v>45685.56496527778</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28629,7 +28629,7 @@
         <v>45715.39028935185</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28686,7 +28686,7 @@
         <v>45933.5480787037</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28748,7 +28748,7 @@
         <v>45933.55273148148</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28810,7 +28810,7 @@
         <v>45660.37127314815</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28867,7 +28867,7 @@
         <v>45660.42574074074</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28924,7 +28924,7 @@
         <v>45176</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28981,7 +28981,7 @@
         <v>45176</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -29038,7 +29038,7 @@
         <v>45884.43587962963</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -29100,7 +29100,7 @@
         <v>45884.39716435185</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -29162,7 +29162,7 @@
         <v>45933.55248842593</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -29224,7 +29224,7 @@
         <v>45933.35684027777</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>45936.57745370371</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -29348,7 +29348,7 @@
         <v>45681.5280787037</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -29410,7 +29410,7 @@
         <v>45350.95267361111</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -29467,7 +29467,7 @@
         <v>44973.42633101852</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -29524,7 +29524,7 @@
         <v>44589</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29586,7 +29586,7 @@
         <v>45904.58163194444</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29643,7 +29643,7 @@
         <v>45884.38178240741</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29705,7 +29705,7 @@
         <v>45884.39984953704</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29767,7 +29767,7 @@
         <v>45933.63469907407</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29829,7 +29829,7 @@
         <v>45884.3945949074</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29891,7 +29891,7 @@
         <v>45884.40300925926</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>45243</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>45938.64211805556</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>45937.57569444444</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>45938.65038194445</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -30196,7 +30196,7 @@
         <v>45911.52769675926</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>44539</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -30315,7 +30315,7 @@
         <v>45884.45657407407</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>44817.43700231481</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -30439,7 +30439,7 @@
         <v>45026</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>45916.46002314815</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -30553,7 +30553,7 @@
         <v>45939.38085648148</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30610,7 +30610,7 @@
         <v>45769.58547453704</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30667,7 +30667,7 @@
         <v>45769.58668981482</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30724,7 +30724,7 @@
         <v>45940.65795138889</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30786,7 +30786,7 @@
         <v>45929.49167824074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30843,7 +30843,7 @@
         <v>45940.4696412037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30905,7 +30905,7 @@
         <v>45245</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30962,7 +30962,7 @@
         <v>45939.38144675926</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45320</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45014</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45272</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45730.46855324074</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -31257,7 +31257,7 @@
         <v>45764.43357638889</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -31314,7 +31314,7 @@
         <v>45764.43528935185</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -31371,7 +31371,7 @@
         <v>45943.41519675926</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -31433,7 +31433,7 @@
         <v>45943.60822916667</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -31495,7 +31495,7 @@
         <v>45944.4678125</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -31552,7 +31552,7 @@
         <v>45944.55662037037</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31614,7 +31614,7 @@
         <v>45727.47241898148</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31671,7 +31671,7 @@
         <v>45944.54185185185</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31733,7 +31733,7 @@
         <v>45706.47894675926</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31790,7 +31790,7 @@
         <v>45817.59769675926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31847,7 +31847,7 @@
         <v>45203</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31904,7 +31904,7 @@
         <v>45929.48061342593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31961,7 +31961,7 @@
         <v>45702.65013888889</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -32023,7 +32023,7 @@
         <v>45945.48893518518</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -32080,7 +32080,7 @@
         <v>45070</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -32137,7 +32137,7 @@
         <v>45757.73100694444</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -32194,7 +32194,7 @@
         <v>45757.74027777778</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -32251,7 +32251,7 @@
         <v>45090.52650462963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -32308,7 +32308,7 @@
         <v>45090.52939814814</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -32365,7 +32365,7 @@
         <v>45950</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -32422,7 +32422,7 @@
         <v>45757.35831018518</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -32479,7 +32479,7 @@
         <v>45947.64190972222</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -32541,7 +32541,7 @@
         <v>45272</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32598,7 +32598,7 @@
         <v>45947.64260416666</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32660,7 +32660,7 @@
         <v>44874</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32722,7 +32722,7 @@
         <v>44867</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32779,7 +32779,7 @@
         <v>45950.37114583333</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32836,7 +32836,7 @@
         <v>45947.63310185185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>45947.64216435186</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32960,7 +32960,7 @@
         <v>45947.64292824074</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45950.74912037037</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45737.54068287037</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45952.42771990741</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>45744.35600694444</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -33255,7 +33255,7 @@
         <v>45334.61027777778</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -33312,7 +33312,7 @@
         <v>45953.35465277778</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -33369,7 +33369,7 @@
         <v>45953.3990162037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -33431,7 +33431,7 @@
         <v>45953.38604166666</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -33493,7 +33493,7 @@
         <v>45933.55215277777</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -33555,7 +33555,7 @@
         <v>45107.60888888889</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33612,7 +33612,7 @@
         <v>45958.40640046296</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45742.73994212963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45957.4416550926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33793,7 +33793,7 @@
         <v>45957.58747685186</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33850,7 +33850,7 @@
         <v>45526.39949074074</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33907,7 +33907,7 @@
         <v>45715.34081018518</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33969,7 +33969,7 @@
         <v>45957.67456018519</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>45953.45859953704</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -34093,7 +34093,7 @@
         <v>44446.30126157407</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -34155,7 +34155,7 @@
         <v>45960.37989583334</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -34212,7 +34212,7 @@
         <v>45957.45982638889</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -34269,7 +34269,7 @@
         <v>45958.40583333333</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -34331,7 +34331,7 @@
         <v>45645.45041666667</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -34393,7 +34393,7 @@
         <v>45672.38815972222</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -34455,7 +34455,7 @@
         <v>45660</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -34512,7 +34512,7 @@
         <v>45660.44798611111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -34569,7 +34569,7 @@
         <v>45719</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34631,7 +34631,7 @@
         <v>45964.7172337963</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34693,7 +34693,7 @@
         <v>45117</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34755,7 +34755,7 @@
         <v>45964.47016203704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34817,7 +34817,7 @@
         <v>45947</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34874,7 +34874,7 @@
         <v>44935.38945601852</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34931,7 +34931,7 @@
         <v>45719</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>45965.58563657408</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -35055,7 +35055,7 @@
         <v>45113</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>45726.50033564815</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -35174,7 +35174,7 @@
         <v>45966.60678240741</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -35236,7 +35236,7 @@
         <v>45965.79302083333</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -35293,7 +35293,7 @@
         <v>45967.44877314815</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -35350,7 +35350,7 @@
         <v>45162</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45600.65686342592</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -35464,7 +35464,7 @@
         <v>45967.4753587963</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -35526,7 +35526,7 @@
         <v>45967.47635416667</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -35588,7 +35588,7 @@
         <v>45967.49037037037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35650,7 +35650,7 @@
         <v>45967.50736111111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35712,7 +35712,7 @@
         <v>45968.59128472222</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35769,7 +35769,7 @@
         <v>45967.4759837963</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35831,7 +35831,7 @@
         <v>45519.56657407407</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35888,7 +35888,7 @@
         <v>45539.6021875</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35945,7 +35945,7 @@
         <v>45968.55811342593</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -36007,7 +36007,7 @@
         <v>44910</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -36064,7 +36064,7 @@
         <v>44910</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -36121,7 +36121,7 @@
         <v>44885</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -36178,7 +36178,7 @@
         <v>44445</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -36235,7 +36235,7 @@
         <v>44959</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -36292,7 +36292,7 @@
         <v>44959</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -36349,7 +36349,7 @@
         <v>45971.48042824074</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -36406,7 +36406,7 @@
         <v>45974.58554398148</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -36468,7 +36468,7 @@
         <v>45974.58813657407</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -36530,7 +36530,7 @@
         <v>45306.58793981482</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -36587,7 +36587,7 @@
         <v>45974.58296296297</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36649,7 +36649,7 @@
         <v>45974.58350694444</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36711,7 +36711,7 @@
         <v>45974.58744212963</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36773,7 +36773,7 @@
         <v>45973</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
         <v>45973</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36897,7 +36897,7 @@
         <v>45974.58498842592</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36959,7 +36959,7 @@
         <v>45161.58774305556</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -37021,7 +37021,7 @@
         <v>44546</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -37083,7 +37083,7 @@
         <v>45973</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -37145,7 +37145,7 @@
         <v>45974.58145833333</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -37207,7 +37207,7 @@
         <v>45974.58606481482</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -37269,7 +37269,7 @@
         <v>45974.58680555555</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -37331,7 +37331,7 @@
         <v>45973</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -37393,7 +37393,7 @@
         <v>45973</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -37455,7 +37455,7 @@
         <v>45104.67638888889</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -37517,7 +37517,7 @@
         <v>45978.39347222223</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -37579,7 +37579,7 @@
         <v>45978.39571759259</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -37641,7 +37641,7 @@
         <v>45414</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -37698,7 +37698,7 @@
         <v>45755.33472222222</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37755,7 +37755,7 @@
         <v>45412</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37812,7 +37812,7 @@
         <v>45978.38915509259</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37874,7 +37874,7 @@
         <v>45120.51550925926</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37931,7 +37931,7 @@
         <v>44637.36871527778</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37988,7 +37988,7 @@
         <v>45719.42697916667</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -38045,7 +38045,7 @@
         <v>45719.44918981481</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -38102,7 +38102,7 @@
         <v>44579.98798611111</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -38159,7 +38159,7 @@
         <v>45981.54328703704</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -38216,7 +38216,7 @@
         <v>45324.60200231482</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -38273,7 +38273,7 @@
         <v>45182.56731481481</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -38335,7 +38335,7 @@
         <v>45981.61557870371</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -38392,7 +38392,7 @@
         <v>45982.51814814815</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -38454,7 +38454,7 @@
         <v>45533.41340277778</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -38511,7 +38511,7 @@
         <v>45580</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -38573,7 +38573,7 @@
         <v>44585.59899305556</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -38630,7 +38630,7 @@
         <v>45146.63849537037</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -38687,7 +38687,7 @@
         <v>45106</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38744,7 +38744,7 @@
         <v>45985.90016203704</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38806,7 +38806,7 @@
         <v>45985.90041666666</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38868,7 +38868,7 @@
         <v>45600.48091435185</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38925,7 +38925,7 @@
         <v>45523</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38982,7 +38982,7 @@
         <v>45660.41883101852</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -39039,7 +39039,7 @@
         <v>45896.38170138889</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -39101,7 +39101,7 @@
         <v>45926.70542824074</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -39163,7 +39163,7 @@
         <v>45911.68925925926</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -39225,7 +39225,7 @@
         <v>45922.48277777778</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -39287,7 +39287,7 @@
         <v>45912.45679398148</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -39349,7 +39349,7 @@
         <v>45912.50679398148</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
         <v>45922.51021990741</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -39473,7 +39473,7 @@
         <v>45922.63182870371</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -39535,7 +39535,7 @@
         <v>45925.63690972222</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -39597,7 +39597,7 @@
         <v>45925.6292824074</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -39659,7 +39659,7 @@
         <v>45911.66760416667</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -39721,7 +39721,7 @@
         <v>45644.59484953704</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39783,7 +39783,7 @@
         <v>45854.65872685185</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>45915.45304398148</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39907,7 +39907,7 @@
         <v>45915.45480324074</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39969,7 +39969,7 @@
         <v>45922.45283564815</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -40031,7 +40031,7 @@
         <v>45922.62494212963</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -40093,7 +40093,7 @@
         <v>45926.71798611111</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -40155,7 +40155,7 @@
         <v>45912.50488425926</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -40217,7 +40217,7 @@
         <v>45912.52225694444</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -40279,7 +40279,7 @@
         <v>45926.70128472222</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -40341,7 +40341,7 @@
         <v>45922.44605324074</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -40403,7 +40403,7 @@
         <v>45922.47163194444</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -40465,7 +40465,7 @@
         <v>45896.39373842593</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -40527,7 +40527,7 @@
         <v>45987.54464120371</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -40589,7 +40589,7 @@
         <v>45926.4177662037</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -40651,7 +40651,7 @@
         <v>45922.49119212963</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -40713,7 +40713,7 @@
         <v>45911.63229166667</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -40775,7 +40775,7 @@
         <v>45912.49040509259</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40837,7 +40837,7 @@
         <v>45604.37246527777</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40899,7 +40899,7 @@
         <v>45922.43664351852</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40961,7 +40961,7 @@
         <v>45922.47429398148</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -41023,7 +41023,7 @@
         <v>45673.55641203704</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -41080,7 +41080,7 @@
         <v>45992.38846064815</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -41137,7 +41137,7 @@
         <v>45104.50863425926</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45628.35456018519</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>45992.39109953704</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -41313,7 +41313,7 @@
         <v>45702.51921296296</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -41370,7 +41370,7 @@
         <v>45993.61978009259</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -41427,7 +41427,7 @@
         <v>45994.27650462963</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -41484,7 +41484,7 @@
         <v>45995.66488425926</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -41541,7 +41541,7 @@
         <v>45981</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -41598,7 +41598,7 @@
         <v>45995.65537037037</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -41660,7 +41660,7 @@
         <v>46031</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -41717,7 +41717,7 @@
         <v>45645.44195601852</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -41779,7 +41779,7 @@
         <v>45995.33622685185</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -41841,7 +41841,7 @@
         <v>45995.6593287037</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41898,7 +41898,7 @@
         <v>45968</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41955,7 +41955,7 @@
         <v>44763</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -42012,7 +42012,7 @@
         <v>45995.335625</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -42074,7 +42074,7 @@
         <v>45603.53780092593</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>45420</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -42198,7 +42198,7 @@
         <v>46041.42920138889</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -42255,7 +42255,7 @@
         <v>46041.43284722222</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -42312,7 +42312,7 @@
         <v>46041.61865740741</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -42369,7 +42369,7 @@
         <v>45999.62391203704</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -42431,7 +42431,7 @@
         <v>46000.43332175926</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -42488,7 +42488,7 @@
         <v>45058.38581018519</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -42545,7 +42545,7 @@
         <v>45356.36994212963</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -42602,7 +42602,7 @@
         <v>45695.40210648148</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -42664,7 +42664,7 @@
         <v>44586</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -42726,7 +42726,7 @@
         <v>45512.43391203704</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -42783,7 +42783,7 @@
         <v>45646.5587037037</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -42840,7 +42840,7 @@
         <v>46002.44233796297</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42897,7 +42897,7 @@
         <v>46002.44537037037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42954,7 +42954,7 @@
         <v>45735.41233796296</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -43011,7 +43011,7 @@
         <v>44272.85908564815</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -43073,7 +43073,7 @@
         <v>46002.44396990741</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -43130,7 +43130,7 @@
         <v>45686</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -43192,7 +43192,7 @@
         <v>45686</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -43254,7 +43254,7 @@
         <v>45547.48995370371</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -43311,7 +43311,7 @@
         <v>46001.57627314814</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -43373,7 +43373,7 @@
         <v>46001.78523148148</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -43435,7 +43435,7 @@
         <v>46045.43865740741</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -43497,7 +43497,7 @@
         <v>46003.41349537037</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -43559,7 +43559,7 @@
         <v>46045.64833333333</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -43616,7 +43616,7 @@
         <v>46006.58587962963</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -43678,7 +43678,7 @@
         <v>46003.41318287037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -43740,7 +43740,7 @@
         <v>45673.85991898148</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -43797,7 +43797,7 @@
         <v>45673.87116898148</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -43854,7 +43854,7 @@
         <v>46045.65126157407</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43911,7 +43911,7 @@
         <v>46045.4365625</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43973,7 +43973,7 @@
         <v>44684</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -44035,7 +44035,7 @@
         <v>45728.88731481481</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -44092,7 +44092,7 @@
         <v>45084.35936342592</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -44149,7 +44149,7 @@
         <v>45715.41775462963</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -44206,7 +44206,7 @@
         <v>45705.36710648148</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -44263,7 +44263,7 @@
         <v>45090.53184027778</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -44320,7 +44320,7 @@
         <v>45740.58918981482</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -44382,7 +44382,7 @@
         <v>45666.58805555556</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -44439,7 +44439,7 @@
         <v>45700.64942129629</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -44501,7 +44501,7 @@
         <v>45715.42604166667</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -44558,7 +44558,7 @@
         <v>45632.48064814815</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -44615,7 +44615,7 @@
         <v>44684</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -44677,7 +44677,7 @@
         <v>45218.67822916667</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -44734,7 +44734,7 @@
         <v>46008.57488425926</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -44791,7 +44791,7 @@
         <v>44586</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -44853,7 +44853,7 @@
         <v>45702.65122685185</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -44915,7 +44915,7 @@
         <v>46007.68518518518</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44972,7 +44972,7 @@
         <v>46001.78487268519</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -45034,7 +45034,7 @@
         <v>45660.36721064815</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -45091,7 +45091,7 @@
         <v>45666.58149305556</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -45148,7 +45148,7 @@
         <v>45758.5408912037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -45205,7 +45205,7 @@
         <v>45231</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -45267,7 +45267,7 @@
         <v>46007.71622685185</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -45324,7 +45324,7 @@
         <v>46050.55069444444</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -45381,7 +45381,7 @@
         <v>45404.47491898148</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -45438,7 +45438,7 @@
         <v>45700.54153935185</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -45500,7 +45500,7 @@
         <v>45245.44936342593</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -45562,7 +45562,7 @@
         <v>44347</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -45624,7 +45624,7 @@
         <v>46010.59050925926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -45686,7 +45686,7 @@
         <v>46052.62577546296</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -45748,7 +45748,7 @@
         <v>44790.59284722222</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -45805,7 +45805,7 @@
         <v>46052.63857638889</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -45867,7 +45867,7 @@
         <v>46052.38428240741</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -45924,7 +45924,7 @@
         <v>46052.65056712963</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45986,7 +45986,7 @@
         <v>46052.67444444444</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -46048,7 +46048,7 @@
         <v>46056.61979166666</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -46105,7 +46105,7 @@
         <v>44735.49341435185</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -46162,7 +46162,7 @@
         <v>44701</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -46224,7 +46224,7 @@
         <v>46056.59990740741</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -46281,7 +46281,7 @@
         <v>46058.58331018518</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -46338,7 +46338,7 @@
         <v>45420</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -46400,7 +46400,7 @@
         <v>44741.57295138889</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -46457,7 +46457,7 @@
         <v>46058.59615740741</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -46514,7 +46514,7 @@
         <v>46041.70430555556</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -46571,7 +46571,7 @@
         <v>44800</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -46628,7 +46628,7 @@
         <v>46019.84400462963</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -46685,7 +46685,7 @@
         <v>45967.45105324074</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -46742,7 +46742,7 @@
         <v>44904.63638888889</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -46804,7 +46804,7 @@
         <v>45931.59844907407</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -46861,7 +46861,7 @@
         <v>46020</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -46918,7 +46918,7 @@
         <v>46020</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -46975,7 +46975,7 @@
         <v>46051</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -47037,7 +47037,7 @@
         <v>46051</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -47099,7 +47099,7 @@
         <v>45937.44758101852</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -47156,7 +47156,7 @@
         <v>45855.56597222222</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -47213,7 +47213,7 @@
         <v>46019.83925925926</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -47270,7 +47270,7 @@
         <v>46062.40657407408</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -47332,7 +47332,7 @@
         <v>46062.49643518519</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -47394,7 +47394,7 @@
         <v>45908.51519675926</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -47451,7 +47451,7 @@
         <v>45932.5684375</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -47508,7 +47508,7 @@
         <v>45932.61349537037</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -47565,7 +47565,7 @@
         <v>45937.51259259259</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -47622,7 +47622,7 @@
         <v>45267</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -47679,7 +47679,7 @@
         <v>46020</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -47736,7 +47736,7 @@
         <v>45908.35809027778</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -47793,7 +47793,7 @@
         <v>46020</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -47850,7 +47850,7 @@
         <v>45908.40347222222</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -47907,7 +47907,7 @@
         <v>46062.33466435185</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -47969,7 +47969,7 @@
         <v>46056</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -48026,7 +48026,7 @@
         <v>46059.56321759259</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -48088,7 +48088,7 @@
         <v>45265.62027777778</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -48145,7 +48145,7 @@
         <v>46063</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -48207,7 +48207,7 @@
         <v>46021</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -48264,7 +48264,7 @@
         <v>46022</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -48321,7 +48321,7 @@
         <v>46063</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -48383,7 +48383,7 @@
         <v>46022</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -48440,7 +48440,7 @@
         <v>46022.58253472222</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -48497,7 +48497,7 @@
         <v>46063.55747685185</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -48559,7 +48559,7 @@
         <v>44767.55229166667</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -48616,7 +48616,7 @@
         <v>45769.58416666667</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -48673,7 +48673,7 @@
         <v>46063.35994212963</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -48730,7 +48730,7 @@
         <v>45715.40354166667</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -48787,7 +48787,7 @@
         <v>46021</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -48844,7 +48844,7 @@
         <v>46063</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -48906,7 +48906,7 @@
         <v>46063</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -48968,7 +48968,7 @@
         <v>46022</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -49025,7 +49025,7 @@
         <v>46022</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -49082,7 +49082,7 @@
         <v>46022</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -49139,7 +49139,7 @@
         <v>46021</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -49196,7 +49196,7 @@
         <v>45261</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -49253,7 +49253,7 @@
         <v>46022</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -49310,7 +49310,7 @@
         <v>46021</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -49367,7 +49367,7 @@
         <v>46063.50179398148</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -49429,7 +49429,7 @@
         <v>46065.64013888889</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -49486,7 +49486,7 @@
         <v>45312.89391203703</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -49543,7 +49543,7 @@
         <v>46066.36740740741</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -49600,7 +49600,7 @@
         <v>46066.41321759259</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -49662,7 +49662,7 @@
         <v>45932.5190162037</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -49719,7 +49719,7 @@
         <v>45533.52966435185</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -49801,7 +49801,7 @@
         <v>46065.67380787037</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -49858,7 +49858,7 @@
         <v>45751</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -49920,7 +49920,7 @@
         <v>46069</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -49982,7 +49982,7 @@
         <v>45740.65900462963</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -50039,7 +50039,7 @@
         <v>45742.42773148148</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -50101,7 +50101,7 @@
         <v>45742.55755787037</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -50158,7 +50158,7 @@
         <v>45744.43273148148</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -50215,7 +50215,7 @@
         <v>45744.45096064815</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -50272,7 +50272,7 @@
         <v>45282</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -50329,7 +50329,7 @@
         <v>45282</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -50386,7 +50386,7 @@
         <v>45744.34550925926</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -50448,7 +50448,7 @@
         <v>45744.37953703704</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -50510,7 +50510,7 @@
         <v>46070.65717592592</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -50567,7 +50567,7 @@
         <v>46069.50070601852</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -50624,7 +50624,7 @@
         <v>46069.70851851852</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -50681,7 +50681,7 @@
         <v>46064</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -50743,7 +50743,7 @@
         <v>46069.510625</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -50800,7 +50800,7 @@
         <v>46045</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -50857,7 +50857,7 @@
         <v>45719.54072916666</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -50914,7 +50914,7 @@
         <v>46069.49256944445</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -50971,7 +50971,7 @@
         <v>46072.58086805556</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -51033,7 +51033,7 @@
         <v>46030</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -51090,7 +51090,7 @@
         <v>46030.66337962963</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -51147,7 +51147,7 @@
         <v>46029.43116898148</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -51204,7 +51204,7 @@
         <v>46030.43628472222</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -51261,7 +51261,7 @@
         <v>46072.37966435185</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -51323,7 +51323,7 @@
         <v>46071.61324074074</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -51385,7 +51385,7 @@
         <v>46053</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -51442,7 +51442,7 @@
         <v>46051</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -51499,7 +51499,7 @@
         <v>46071.32976851852</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -51556,7 +51556,7 @@
         <v>46030.44226851852</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -51613,7 +51613,7 @@
         <v>45392.3412962963</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -51670,7 +51670,7 @@
         <v>45401</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -51727,7 +51727,7 @@
         <v>46030.35695601852</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -51784,7 +51784,7 @@
         <v>45526.51855324074</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -51846,7 +51846,7 @@
         <v>45645.9084375</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -51903,7 +51903,7 @@
         <v>46076.40204861111</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -51965,7 +51965,7 @@
         <v>46076.41836805556</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -52022,7 +52022,7 @@
         <v>45574.65305555556</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -52084,7 +52084,7 @@
         <v>46057.56506944444</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -52141,7 +52141,7 @@
         <v>46076.54670138889</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -52203,7 +52203,7 @@
         <v>46031</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -52260,7 +52260,7 @@
         <v>44853</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -52317,7 +52317,7 @@
         <v>46031</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -52374,7 +52374,7 @@
         <v>46031.50412037037</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -52431,7 +52431,7 @@
         <v>46076.58215277778</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -52493,7 +52493,7 @@
         <v>46031</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -52550,7 +52550,7 @@
         <v>45520.4345949074</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -52607,7 +52607,7 @@
         <v>45520.44162037037</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -52664,7 +52664,7 @@
         <v>46076.56271990741</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -52726,7 +52726,7 @@
         <v>45509.37269675926</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -52783,7 +52783,7 @@
         <v>46033</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -52840,7 +52840,7 @@
         <v>45590.45619212963</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -52902,7 +52902,7 @@
         <v>46032.46388888889</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -52959,7 +52959,7 @@
         <v>46034</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -53016,7 +53016,7 @@
         <v>45726.59032407407</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -53073,7 +53073,7 @@
         <v>45726.59607638889</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -53135,7 +53135,7 @@
         <v>46052</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -53192,7 +53192,7 @@
         <v>46057</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -53249,7 +53249,7 @@
         <v>45646.55134259259</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -53306,7 +53306,7 @@
         <v>46073.62988425926</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -53368,7 +53368,7 @@
         <v>46003.4128587963</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -53430,7 +53430,7 @@
         <v>45611.59840277778</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -53487,7 +53487,7 @@
         <v>46031</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -53544,7 +53544,7 @@
         <v>46077.52202546296</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -53606,7 +53606,7 @@
         <v>46077.53072916667</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -53663,7 +53663,7 @@
         <v>46077.55472222222</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -53725,7 +53725,7 @@
         <v>46072.72241898148</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -53787,7 +53787,7 @@
         <v>44519.03226851852</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -53844,7 +53844,7 @@
         <v>44603.53943287037</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -53901,7 +53901,7 @@
         <v>44973</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -53958,7 +53958,7 @@
         <v>46049</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -54015,7 +54015,7 @@
         <v>46078.31721064815</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -54072,7 +54072,7 @@
         <v>44845</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -54129,7 +54129,7 @@
         <v>46077.51802083333</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -54186,7 +54186,7 @@
         <v>44959.71658564815</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -54243,7 +54243,7 @@
         <v>44911.36083333333</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -54300,7 +54300,7 @@
         <v>46078.32486111111</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -54357,7 +54357,7 @@
         <v>44735.61462962963</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -54414,7 +54414,7 @@
         <v>44960.32700231481</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -54476,7 +54476,7 @@
         <v>45534.43164351852</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -54538,7 +54538,7 @@
         <v>46062</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -54595,7 +54595,7 @@
         <v>46062</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -54652,7 +54652,7 @@
         <v>46077.80501157408</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -54714,7 +54714,7 @@
         <v>46077.80599537037</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -54776,7 +54776,7 @@
         <v>46077.58010416666</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -54838,7 +54838,7 @@
         <v>46078.31909722222</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -54895,7 +54895,7 @@
         <v>46078.32142361111</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -54952,7 +54952,7 @@
         <v>44693</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -55014,7 +55014,7 @@
         <v>46079.66746527778</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -55076,7 +55076,7 @@
         <v>45555</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -55138,7 +55138,7 @@
         <v>46037</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -55195,7 +55195,7 @@
         <v>45158.91878472222</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -55252,7 +55252,7 @@
         <v>45158.94141203703</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -55309,7 +55309,7 @@
         <v>44656</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -55366,7 +55366,7 @@
         <v>46052</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -55423,7 +55423,7 @@
         <v>44468.65246527778</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -55485,7 +55485,7 @@
         <v>44278.52945601852</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -55542,7 +55542,7 @@
         <v>45397</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -55604,7 +55604,7 @@
         <v>46080.62556712963</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -55666,7 +55666,7 @@
         <v>44694</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -55728,7 +55728,7 @@
         <v>44651</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -55790,7 +55790,7 @@
         <v>44616.49033564814</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -55847,7 +55847,7 @@
         <v>45775.40340277777</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -55904,7 +55904,7 @@
         <v>44962.43650462963</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -55961,7 +55961,7 @@
         <v>45645.58069444444</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -56018,7 +56018,7 @@
         <v>45245</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -56080,7 +56080,7 @@
         <v>45422</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -56142,7 +56142,7 @@
         <v>44927</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -56199,7 +56199,7 @@
         <v>45125.74876157408</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -56256,7 +56256,7 @@
         <v>44928.52260416667</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -56313,7 +56313,7 @@
         <v>45282</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -56370,7 +56370,7 @@
         <v>44616.3750462963</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -56427,7 +56427,7 @@
         <v>45146.6455787037</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -56484,7 +56484,7 @@
         <v>44466.43295138889</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -56546,7 +56546,7 @@
         <v>45034.52115740741</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -56608,7 +56608,7 @@
         <v>44294.64568287037</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -56670,7 +56670,7 @@
         <v>45120.29087962963</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -56727,7 +56727,7 @@
         <v>44942.47491898148</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -56784,7 +56784,7 @@
         <v>44279</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -56841,7 +56841,7 @@
         <v>44349.48065972222</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -56903,7 +56903,7 @@
         <v>45162.60410879629</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -56960,7 +56960,7 @@
         <v>45312.93891203704</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -57017,7 +57017,7 @@
         <v>45674.34046296297</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -57074,7 +57074,7 @@
         <v>45608.62623842592</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -57131,7 +57131,7 @@
         <v>45706</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -57188,7 +57188,7 @@
         <v>44951.33599537037</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -57250,7 +57250,7 @@
         <v>45468.47239583333</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -57312,7 +57312,7 @@
         <v>45379.44809027778</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -57374,7 +57374,7 @@
         <v>45559</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -57431,7 +57431,7 @@
         <v>45084</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -57488,7 +57488,7 @@
         <v>45771</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -57550,7 +57550,7 @@
         <v>44539.56224537037</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -57607,7 +57607,7 @@
         <v>45770.50553240741</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -57664,7 +57664,7 @@
         <v>44294.3290625</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -57721,7 +57721,7 @@
         <v>45240.59244212963</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -57778,7 +57778,7 @@
         <v>44733.45824074074</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -57840,7 +57840,7 @@
         <v>45217.39167824074</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -57897,7 +57897,7 @@
         <v>45593.71982638889</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -57954,7 +57954,7 @@
         <v>45632.47849537037</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -58011,7 +58011,7 @@
         <v>45182</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -58073,7 +58073,7 @@
         <v>45649</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -58130,7 +58130,7 @@
         <v>45645.90335648148</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -58187,7 +58187,7 @@
         <v>45726.49440972223</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -58249,7 +58249,7 @@
         <v>45644.38703703704</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -58311,7 +58311,7 @@
         <v>45586.58848379629</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -58373,7 +58373,7 @@
         <v>44818</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -58430,7 +58430,7 @@
         <v>45168.92969907408</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -58492,7 +58492,7 @@
         <v>45699.39001157408</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -58549,7 +58549,7 @@
         <v>45749</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -58606,7 +58606,7 @@
         <v>44756.57740740741</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -58663,7 +58663,7 @@
         <v>45530.51480324074</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -58720,7 +58720,7 @@
         <v>44600</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -58782,7 +58782,7 @@
         <v>45720.51222222222</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -58839,7 +58839,7 @@
         <v>45267</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -58896,7 +58896,7 @@
         <v>45775.42958333333</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -58953,7 +58953,7 @@
         <v>45621.44861111111</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -59010,7 +59010,7 @@
         <v>45684.67659722222</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -59067,7 +59067,7 @@
         <v>44488.57009259259</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -59124,7 +59124,7 @@
         <v>45530</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -59186,7 +59186,7 @@
         <v>45744.34733796296</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -59248,7 +59248,7 @@
         <v>45266.48171296297</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -59305,7 +59305,7 @@
         <v>45312.89796296296</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -59362,7 +59362,7 @@
         <v>45530.53810185185</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -59419,7 +59419,7 @@
         <v>45440.67074074074</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -59476,7 +59476,7 @@
         <v>44999.46983796296</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -59533,7 +59533,7 @@
         <v>45266.36988425926</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -59590,7 +59590,7 @@
         <v>45660.34046296297</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -59647,7 +59647,7 @@
         <v>45595.67429398148</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -59704,7 +59704,7 @@
         <v>45580</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -59766,7 +59766,7 @@
         <v>45776.57763888889</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -59823,7 +59823,7 @@
         <v>45776.32197916666</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -59880,7 +59880,7 @@
         <v>45776.57601851852</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -59937,7 +59937,7 @@
         <v>45727.67243055555</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -59994,7 +59994,7 @@
         <v>45726.57084490741</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -60051,7 +60051,7 @@
         <v>45782.51104166666</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -60108,7 +60108,7 @@
         <v>45770.35150462963</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -60165,7 +60165,7 @@
         <v>45252.72782407407</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -60222,7 +60222,7 @@
         <v>45784.62677083333</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -60279,7 +60279,7 @@
         <v>45705.42418981482</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -60341,7 +60341,7 @@
         <v>45786.45901620371</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -60403,7 +60403,7 @@
         <v>45702.46539351852</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -60465,7 +60465,7 @@
         <v>45322.38930555555</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -60522,7 +60522,7 @@
         <v>45789.48466435185</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -60584,7 +60584,7 @@
         <v>45790.44008101852</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -60641,7 +60641,7 @@
         <v>45790.38057870371</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -60698,7 +60698,7 @@
         <v>45660.43380787037</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -60760,7 +60760,7 @@
         <v>45792.39951388889</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -60817,7 +60817,7 @@
         <v>45791.62157407407</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -60874,7 +60874,7 @@
         <v>45792.62024305556</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -60936,7 +60936,7 @@
         <v>45791.60046296296</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -60998,7 +60998,7 @@
         <v>45791.58666666667</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -61060,7 +61060,7 @@
         <v>45791.49224537037</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -61117,7 +61117,7 @@
         <v>45792.61178240741</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -61179,7 +61179,7 @@
         <v>45594.36701388889</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -61241,7 +61241,7 @@
         <v>45623</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -61298,7 +61298,7 @@
         <v>45632</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -61355,7 +61355,7 @@
         <v>45798.5837962963</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -61412,7 +61412,7 @@
         <v>45797.36991898148</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -61469,7 +61469,7 @@
         <v>45798</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -61526,7 +61526,7 @@
         <v>45798.58292824074</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -61583,7 +61583,7 @@
         <v>45797.35431712963</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -61640,7 +61640,7 @@
         <v>45797.37581018519</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -61697,7 +61697,7 @@
         <v>45797.37373842593</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -61754,7 +61754,7 @@
         <v>45505.38290509259</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -61811,7 +61811,7 @@
         <v>45800.64162037037</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -61868,7 +61868,7 @@
         <v>45800.64026620371</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -61925,7 +61925,7 @@
         <v>44739.48752314815</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -61982,7 +61982,7 @@
         <v>45588.3656712963</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -62044,7 +62044,7 @@
         <v>45804.49582175926</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
